--- a/DSBot/kb.xlsx
+++ b/DSBot/kb.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sarapido/Desktop/DSBot/DSBot/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1773FE5-303A-7C4B-A6A1-A2708D861F2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94B7230B-A979-3C44-AA2E-CBAC14D9932F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2920" yWindow="1760" windowWidth="28040" windowHeight="17440" activeTab="1" xr2:uid="{B2A427CD-3A3B-AB4F-8475-A6742BF1F99B}"/>
+    <workbookView xWindow="2880" yWindow="1760" windowWidth="28040" windowHeight="17440" activeTab="1" xr2:uid="{B2A427CD-3A3B-AB4F-8475-A6742BF1F99B}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,6 @@
     <sheet name="Foglio5" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="181029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -39,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3403" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3407" uniqueCount="119">
   <si>
     <t>ds</t>
   </si>
@@ -393,6 +392,9 @@
   </si>
   <si>
     <t>categorical, missingValues, moreFeatures</t>
+  </si>
+  <si>
+    <t>labelAppend</t>
   </si>
 </sst>
 </file>
@@ -1656,8 +1658,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{107DD696-A5A6-CB45-B2DD-8D2A6C9062E3}">
   <dimension ref="A1:J353"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="99" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="99" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2333,9 +2335,12 @@
         <v>22</v>
       </c>
       <c r="E31" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="F31" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="F31" s="1" t="s">
+      <c r="G31" s="1" t="s">
         <v>85</v>
       </c>
     </row>
@@ -2630,9 +2635,12 @@
         <v>22</v>
       </c>
       <c r="E43" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="F43" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="F43" s="1" t="s">
+      <c r="G43" s="1" t="s">
         <v>85</v>
       </c>
     </row>
@@ -2870,9 +2878,12 @@
         <v>22</v>
       </c>
       <c r="D55" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="E55" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="E55" s="1" t="s">
+      <c r="F55" s="1" t="s">
         <v>85</v>
       </c>
       <c r="G55" s="1"/>
@@ -2891,12 +2902,14 @@
         <v>38</v>
       </c>
       <c r="E56" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="F56" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="F56" s="1" t="s">
+      <c r="G56" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="G56" s="1"/>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A57" t="s">

--- a/DSBot/kb.xlsx
+++ b/DSBot/kb.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sarapido/Desktop/DSBot/DSBot/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82363679-251C-1B4C-B29B-FAA99F1E4BCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7348AB3-1150-9B45-A5FE-B82A222F9C8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2980" yWindow="500" windowWidth="28040" windowHeight="17440" activeTab="1" xr2:uid="{B2A427CD-3A3B-AB4F-8475-A6742BF1F99B}"/>
   </bookViews>
@@ -20,7 +20,7 @@
     <sheet name="Foglio5" sheetId="6" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Foglio2!$A$1:$J$474</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Foglio2!$A$1:$J$435</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -1737,10 +1737,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{107DD696-A5A6-CB45-B2DD-8D2A6C9062E3}">
-  <dimension ref="A1:J474"/>
+  <dimension ref="A1:J435"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="99" workbookViewId="0">
-      <selection activeCell="A429" sqref="A429:XFD480"/>
+    <sheetView tabSelected="1" topLeftCell="A411" zoomScale="99" workbookViewId="0">
+      <selection activeCell="A387" sqref="A385:A387"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10531,7 +10531,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="385" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A385" t="s">
         <v>15</v>
       </c>
@@ -10545,1465 +10545,1311 @@
         <v>20</v>
       </c>
     </row>
-    <row r="386" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D386" s="1"/>
-    </row>
-    <row r="387" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C387" s="1"/>
-      <c r="D387" s="1"/>
-    </row>
-    <row r="388" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B388" s="1"/>
-    </row>
-    <row r="389" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B389" s="1"/>
-      <c r="C389" s="1"/>
-    </row>
-    <row r="390" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B390" s="1"/>
-      <c r="D390" s="1"/>
-    </row>
-    <row r="391" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B391" s="1"/>
-      <c r="C391" s="1"/>
-      <c r="D391" s="1"/>
-    </row>
-    <row r="392" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C392" s="1"/>
-      <c r="D392" s="1"/>
-    </row>
-    <row r="393" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C393" s="1"/>
-      <c r="E393" s="1"/>
-    </row>
-    <row r="394" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C394" s="1"/>
-      <c r="D394" s="1"/>
-      <c r="E394" s="1"/>
-    </row>
-    <row r="395" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B395" s="1"/>
-      <c r="C395" s="1"/>
-    </row>
-    <row r="396" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C396" s="1"/>
-      <c r="D396" s="1"/>
-    </row>
-    <row r="397" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B397" s="1"/>
-      <c r="C397" s="1"/>
-    </row>
-    <row r="398" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B398" s="1"/>
-      <c r="C398" s="1"/>
-    </row>
-    <row r="399" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C399" s="1"/>
-    </row>
-    <row r="400" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D400" s="1"/>
-    </row>
-    <row r="401" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="C401" s="1"/>
-      <c r="D401" s="1"/>
-    </row>
-    <row r="402" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B402" s="1"/>
-    </row>
-    <row r="403" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B403" s="1"/>
-      <c r="C403" s="1"/>
-    </row>
-    <row r="404" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B404" s="1"/>
-      <c r="D404" s="1"/>
-    </row>
-    <row r="405" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B405" s="1"/>
-      <c r="C405" s="1"/>
-      <c r="D405" s="1"/>
-    </row>
-    <row r="406" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="C406" s="1"/>
-      <c r="D406" s="1"/>
-    </row>
-    <row r="407" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="C407" s="1"/>
-      <c r="E407" s="1"/>
-    </row>
-    <row r="408" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="C408" s="1"/>
-      <c r="D408" s="1"/>
-      <c r="E408" s="1"/>
-    </row>
-    <row r="409" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B409" s="1"/>
-      <c r="C409" s="1"/>
-    </row>
-    <row r="410" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="C410" s="1"/>
-      <c r="D410" s="1"/>
-    </row>
-    <row r="411" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B411" s="1"/>
-      <c r="C411" s="1"/>
-    </row>
-    <row r="412" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B412" s="1"/>
-      <c r="C412" s="1"/>
-    </row>
-    <row r="413" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="C413" s="1"/>
-    </row>
-    <row r="414" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="D414" s="1"/>
-    </row>
-    <row r="415" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="C415" s="1"/>
-      <c r="D415" s="1"/>
-    </row>
-    <row r="416" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B416" s="1"/>
-    </row>
-    <row r="417" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B417" s="1"/>
-      <c r="C417" s="1"/>
-    </row>
-    <row r="418" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B418" s="1"/>
-      <c r="D418" s="1"/>
-    </row>
-    <row r="419" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B419" s="1"/>
-      <c r="C419" s="1"/>
-      <c r="D419" s="1"/>
-    </row>
-    <row r="420" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C420" s="1"/>
-      <c r="D420" s="1"/>
-    </row>
-    <row r="421" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C421" s="1"/>
-      <c r="E421" s="1"/>
-    </row>
-    <row r="422" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C422" s="1"/>
-      <c r="D422" s="1"/>
-      <c r="E422" s="1"/>
-    </row>
-    <row r="423" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B423" s="1"/>
-      <c r="C423" s="1"/>
-    </row>
-    <row r="424" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C424" s="1"/>
-      <c r="D424" s="1"/>
-    </row>
-    <row r="425" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A386" t="s">
+        <v>47</v>
+      </c>
+      <c r="B386" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C386" t="s">
+        <v>67</v>
+      </c>
+      <c r="D386" t="s">
+        <v>144</v>
+      </c>
+      <c r="E386" t="s">
+        <v>79</v>
+      </c>
+      <c r="F386" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="387" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A387" t="s">
+        <v>47</v>
+      </c>
+      <c r="B387" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C387" t="s">
+        <v>67</v>
+      </c>
+      <c r="D387" t="s">
+        <v>144</v>
+      </c>
+      <c r="E387" t="s">
+        <v>118</v>
+      </c>
+      <c r="F387" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="388" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A388" t="s">
+        <v>61</v>
+      </c>
+      <c r="B388" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C388" t="s">
+        <v>67</v>
+      </c>
+      <c r="D388" t="s">
+        <v>144</v>
+      </c>
+      <c r="E388" t="s">
+        <v>79</v>
+      </c>
+      <c r="F388" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="389" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A389" t="s">
+        <v>61</v>
+      </c>
+      <c r="B389" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C389" t="s">
+        <v>67</v>
+      </c>
+      <c r="D389" t="s">
+        <v>144</v>
+      </c>
+      <c r="E389" t="s">
+        <v>118</v>
+      </c>
+      <c r="F389" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="390" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A390" t="s">
+        <v>49</v>
+      </c>
+      <c r="B390" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C390" t="s">
+        <v>22</v>
+      </c>
+      <c r="D390" t="s">
+        <v>67</v>
+      </c>
+      <c r="E390" t="s">
+        <v>144</v>
+      </c>
+      <c r="F390" t="s">
+        <v>79</v>
+      </c>
+      <c r="G390" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="391" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A391" t="s">
+        <v>49</v>
+      </c>
+      <c r="B391" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C391" t="s">
+        <v>22</v>
+      </c>
+      <c r="D391" t="s">
+        <v>67</v>
+      </c>
+      <c r="E391" t="s">
+        <v>144</v>
+      </c>
+      <c r="F391" t="s">
+        <v>118</v>
+      </c>
+      <c r="G391" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="392" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A392" t="s">
+        <v>94</v>
+      </c>
+      <c r="B392" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C392" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D392" t="s">
+        <v>67</v>
+      </c>
+      <c r="E392" t="s">
+        <v>144</v>
+      </c>
+      <c r="F392" t="s">
+        <v>79</v>
+      </c>
+      <c r="G392" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="393" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A393" t="s">
+        <v>94</v>
+      </c>
+      <c r="B393" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C393" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D393" t="s">
+        <v>67</v>
+      </c>
+      <c r="E393" t="s">
+        <v>144</v>
+      </c>
+      <c r="F393" t="s">
+        <v>118</v>
+      </c>
+      <c r="G393" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="394" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A394" t="s">
+        <v>47</v>
+      </c>
+      <c r="B394" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C394" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D394" t="s">
+        <v>67</v>
+      </c>
+      <c r="E394" t="s">
+        <v>144</v>
+      </c>
+      <c r="F394" t="s">
+        <v>79</v>
+      </c>
+      <c r="G394" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="395" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A395" t="s">
+        <v>47</v>
+      </c>
+      <c r="B395" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C395" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D395" t="s">
+        <v>67</v>
+      </c>
+      <c r="E395" t="s">
+        <v>144</v>
+      </c>
+      <c r="F395" t="s">
+        <v>118</v>
+      </c>
+      <c r="G395" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="396" spans="1:7" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A396" t="s">
+        <v>61</v>
+      </c>
+      <c r="B396" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C396" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D396" t="s">
+        <v>67</v>
+      </c>
+      <c r="E396" t="s">
+        <v>144</v>
+      </c>
+      <c r="F396" t="s">
+        <v>79</v>
+      </c>
+      <c r="G396" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="397" spans="1:7" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A397" t="s">
+        <v>61</v>
+      </c>
+      <c r="B397" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C397" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D397" t="s">
+        <v>67</v>
+      </c>
+      <c r="E397" t="s">
+        <v>144</v>
+      </c>
+      <c r="F397" t="s">
+        <v>118</v>
+      </c>
+      <c r="G397" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="398" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A398" t="s">
+        <v>61</v>
+      </c>
+      <c r="B398" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C398" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D398" t="s">
+        <v>67</v>
+      </c>
+      <c r="E398" t="s">
+        <v>144</v>
+      </c>
+      <c r="F398" t="s">
+        <v>79</v>
+      </c>
+      <c r="G398" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="399" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A399" t="s">
+        <v>61</v>
+      </c>
+      <c r="B399" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C399" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D399" t="s">
+        <v>67</v>
+      </c>
+      <c r="E399" t="s">
+        <v>144</v>
+      </c>
+      <c r="F399" t="s">
+        <v>118</v>
+      </c>
+      <c r="G399" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="400" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A400" t="s">
+        <v>111</v>
+      </c>
+      <c r="B400" t="s">
+        <v>11</v>
+      </c>
+      <c r="C400" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D400" t="s">
+        <v>67</v>
+      </c>
+      <c r="E400" t="s">
+        <v>144</v>
+      </c>
+      <c r="F400" t="s">
+        <v>79</v>
+      </c>
+      <c r="G400" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="401" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A401" t="s">
+        <v>111</v>
+      </c>
+      <c r="B401" t="s">
+        <v>11</v>
+      </c>
+      <c r="C401" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D401" t="s">
+        <v>67</v>
+      </c>
+      <c r="E401" t="s">
+        <v>144</v>
+      </c>
+      <c r="F401" t="s">
+        <v>118</v>
+      </c>
+      <c r="G401" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="402" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A402" t="s">
+        <v>89</v>
+      </c>
+      <c r="B402" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C402" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D402" t="s">
+        <v>22</v>
+      </c>
+      <c r="E402" t="s">
+        <v>67</v>
+      </c>
+      <c r="F402" t="s">
+        <v>144</v>
+      </c>
+      <c r="G402" t="s">
+        <v>79</v>
+      </c>
+      <c r="H402" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="403" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A403" t="s">
+        <v>89</v>
+      </c>
+      <c r="B403" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C403" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D403" t="s">
+        <v>22</v>
+      </c>
+      <c r="E403" t="s">
+        <v>67</v>
+      </c>
+      <c r="F403" t="s">
+        <v>144</v>
+      </c>
+      <c r="G403" t="s">
+        <v>118</v>
+      </c>
+      <c r="H403" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="404" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A404" t="s">
+        <v>49</v>
+      </c>
+      <c r="B404" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C404" t="s">
+        <v>22</v>
+      </c>
+      <c r="D404" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E404" t="s">
+        <v>67</v>
+      </c>
+      <c r="F404" t="s">
+        <v>144</v>
+      </c>
+      <c r="G404" t="s">
+        <v>79</v>
+      </c>
+      <c r="H404" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="405" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A405" t="s">
+        <v>49</v>
+      </c>
+      <c r="B405" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C405" t="s">
+        <v>22</v>
+      </c>
+      <c r="D405" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E405" t="s">
+        <v>67</v>
+      </c>
+      <c r="F405" t="s">
+        <v>144</v>
+      </c>
+      <c r="G405" t="s">
+        <v>118</v>
+      </c>
+      <c r="H405" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="406" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A406" t="s">
+        <v>63</v>
+      </c>
+      <c r="B406" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C406" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D406" t="s">
+        <v>22</v>
+      </c>
+      <c r="E406" t="s">
+        <v>67</v>
+      </c>
+      <c r="F406" t="s">
+        <v>144</v>
+      </c>
+      <c r="G406" t="s">
+        <v>79</v>
+      </c>
+      <c r="H406" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="407" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A407" t="s">
+        <v>63</v>
+      </c>
+      <c r="B407" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C407" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D407" t="s">
+        <v>22</v>
+      </c>
+      <c r="E407" t="s">
+        <v>67</v>
+      </c>
+      <c r="F407" t="s">
+        <v>144</v>
+      </c>
+      <c r="G407" t="s">
+        <v>118</v>
+      </c>
+      <c r="H407" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="408" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A408" t="s">
+        <v>94</v>
+      </c>
+      <c r="B408" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C408" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D408" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E408" t="s">
+        <v>67</v>
+      </c>
+      <c r="F408" t="s">
+        <v>144</v>
+      </c>
+      <c r="G408" t="s">
+        <v>79</v>
+      </c>
+      <c r="H408" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="409" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A409" t="s">
+        <v>94</v>
+      </c>
+      <c r="B409" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C409" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D409" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E409" t="s">
+        <v>67</v>
+      </c>
+      <c r="F409" t="s">
+        <v>144</v>
+      </c>
+      <c r="G409" t="s">
+        <v>118</v>
+      </c>
+      <c r="H409" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="410" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A410" t="s">
+        <v>95</v>
+      </c>
+      <c r="B410" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C410" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D410" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E410" t="s">
+        <v>67</v>
+      </c>
+      <c r="F410" t="s">
+        <v>144</v>
+      </c>
+      <c r="G410" t="s">
+        <v>79</v>
+      </c>
+      <c r="H410" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="411" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A411" t="s">
+        <v>95</v>
+      </c>
+      <c r="B411" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C411" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D411" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E411" t="s">
+        <v>67</v>
+      </c>
+      <c r="F411" t="s">
+        <v>144</v>
+      </c>
+      <c r="G411" t="s">
+        <v>118</v>
+      </c>
+      <c r="H411" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="412" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A412" t="s">
+        <v>104</v>
+      </c>
+      <c r="B412" t="s">
+        <v>11</v>
+      </c>
+      <c r="C412" t="s">
+        <v>69</v>
+      </c>
+      <c r="D412" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E412" t="s">
+        <v>67</v>
+      </c>
+      <c r="F412" t="s">
+        <v>144</v>
+      </c>
+      <c r="G412" t="s">
+        <v>79</v>
+      </c>
+      <c r="H412" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="413" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A413" t="s">
+        <v>104</v>
+      </c>
+      <c r="B413" t="s">
+        <v>11</v>
+      </c>
+      <c r="C413" t="s">
+        <v>69</v>
+      </c>
+      <c r="D413" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E413" t="s">
+        <v>67</v>
+      </c>
+      <c r="F413" t="s">
+        <v>144</v>
+      </c>
+      <c r="G413" t="s">
+        <v>118</v>
+      </c>
+      <c r="H413" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="414" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A414" t="s">
+        <v>61</v>
+      </c>
+      <c r="B414" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C414" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D414" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E414" t="s">
+        <v>67</v>
+      </c>
+      <c r="F414" t="s">
+        <v>144</v>
+      </c>
+      <c r="G414" t="s">
+        <v>79</v>
+      </c>
+      <c r="H414" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="415" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A415" t="s">
+        <v>61</v>
+      </c>
+      <c r="B415" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C415" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D415" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E415" t="s">
+        <v>67</v>
+      </c>
+      <c r="F415" t="s">
+        <v>144</v>
+      </c>
+      <c r="G415" t="s">
+        <v>118</v>
+      </c>
+      <c r="H415" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="416" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A416" t="s">
+        <v>112</v>
+      </c>
+      <c r="B416" t="s">
+        <v>11</v>
+      </c>
+      <c r="C416" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D416" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E416" t="s">
+        <v>67</v>
+      </c>
+      <c r="F416" t="s">
+        <v>144</v>
+      </c>
+      <c r="G416" t="s">
+        <v>79</v>
+      </c>
+      <c r="H416" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="417" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A417" t="s">
+        <v>112</v>
+      </c>
+      <c r="B417" t="s">
+        <v>11</v>
+      </c>
+      <c r="C417" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D417" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E417" t="s">
+        <v>67</v>
+      </c>
+      <c r="F417" t="s">
+        <v>144</v>
+      </c>
+      <c r="G417" t="s">
+        <v>118</v>
+      </c>
+      <c r="H417" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="418" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A418" t="s">
+        <v>111</v>
+      </c>
+      <c r="B418" t="s">
+        <v>11</v>
+      </c>
+      <c r="C418" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D418" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E418" t="s">
+        <v>67</v>
+      </c>
+      <c r="F418" t="s">
+        <v>144</v>
+      </c>
+      <c r="G418" t="s">
+        <v>79</v>
+      </c>
+      <c r="H418" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="419" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A419" t="s">
+        <v>111</v>
+      </c>
+      <c r="B419" t="s">
+        <v>11</v>
+      </c>
+      <c r="C419" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D419" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E419" t="s">
+        <v>67</v>
+      </c>
+      <c r="F419" t="s">
+        <v>144</v>
+      </c>
+      <c r="G419" t="s">
+        <v>118</v>
+      </c>
+      <c r="H419" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="420" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A420" t="s">
+        <v>89</v>
+      </c>
+      <c r="B420" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C420" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D420" t="s">
+        <v>22</v>
+      </c>
+      <c r="E420" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F420" t="s">
+        <v>67</v>
+      </c>
+      <c r="G420" t="s">
+        <v>144</v>
+      </c>
+      <c r="H420" t="s">
+        <v>79</v>
+      </c>
+      <c r="I420" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="421" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A421" t="s">
+        <v>89</v>
+      </c>
+      <c r="B421" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C421" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D421" t="s">
+        <v>22</v>
+      </c>
+      <c r="E421" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F421" t="s">
+        <v>67</v>
+      </c>
+      <c r="G421" t="s">
+        <v>144</v>
+      </c>
+      <c r="H421" t="s">
+        <v>118</v>
+      </c>
+      <c r="I421" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="422" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A422" t="s">
+        <v>90</v>
+      </c>
+      <c r="B422" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C422" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D422" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E422" t="s">
+        <v>22</v>
+      </c>
+      <c r="F422" t="s">
+        <v>67</v>
+      </c>
+      <c r="G422" t="s">
+        <v>144</v>
+      </c>
+      <c r="H422" t="s">
+        <v>79</v>
+      </c>
+      <c r="I422" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="423" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A423" t="s">
+        <v>90</v>
+      </c>
+      <c r="B423" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C423" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D423" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E423" t="s">
+        <v>22</v>
+      </c>
+      <c r="F423" t="s">
+        <v>67</v>
+      </c>
+      <c r="G423" t="s">
+        <v>144</v>
+      </c>
+      <c r="H423" t="s">
+        <v>118</v>
+      </c>
+      <c r="I423" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="424" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A424" t="s">
+        <v>63</v>
+      </c>
+      <c r="B424" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C424" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D424" t="s">
+        <v>22</v>
+      </c>
+      <c r="E424" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F424" t="s">
+        <v>67</v>
+      </c>
+      <c r="G424" t="s">
+        <v>144</v>
+      </c>
+      <c r="H424" t="s">
+        <v>79</v>
+      </c>
+      <c r="I424" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="425" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A425" t="s">
-        <v>47</v>
+        <v>63</v>
       </c>
       <c r="B425" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C425" t="s">
-        <v>67</v>
+      <c r="C425" s="1" t="s">
+        <v>34</v>
       </c>
       <c r="D425" t="s">
+        <v>22</v>
+      </c>
+      <c r="E425" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F425" t="s">
+        <v>67</v>
+      </c>
+      <c r="G425" t="s">
         <v>144</v>
       </c>
-      <c r="E425" t="s">
+      <c r="H425" t="s">
+        <v>118</v>
+      </c>
+      <c r="I425" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="426" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A426" t="s">
+        <v>95</v>
+      </c>
+      <c r="B426" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C426" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D426" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E426" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F426" t="s">
+        <v>67</v>
+      </c>
+      <c r="G426" t="s">
+        <v>144</v>
+      </c>
+      <c r="H426" t="s">
+        <v>118</v>
+      </c>
+      <c r="I426" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="427" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A427" t="s">
+        <v>95</v>
+      </c>
+      <c r="B427" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C427" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D427" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E427" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F427" t="s">
+        <v>67</v>
+      </c>
+      <c r="G427" t="s">
+        <v>144</v>
+      </c>
+      <c r="H427" t="s">
         <v>79</v>
       </c>
-      <c r="F425" t="s">
+      <c r="I427" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="426" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A426" t="s">
-        <v>47</v>
-      </c>
-      <c r="B426" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C426" t="s">
-        <v>67</v>
-      </c>
-      <c r="D426" t="s">
+    <row r="428" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A428" t="s">
+        <v>105</v>
+      </c>
+      <c r="B428" t="s">
+        <v>11</v>
+      </c>
+      <c r="C428" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D428" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E428" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F428" t="s">
+        <v>67</v>
+      </c>
+      <c r="G428" t="s">
         <v>144</v>
       </c>
-      <c r="E426" t="s">
+      <c r="H428" t="s">
+        <v>79</v>
+      </c>
+      <c r="I428" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="429" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A429" t="s">
+        <v>105</v>
+      </c>
+      <c r="B429" t="s">
+        <v>11</v>
+      </c>
+      <c r="C429" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D429" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E429" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F429" t="s">
+        <v>67</v>
+      </c>
+      <c r="G429" t="s">
+        <v>144</v>
+      </c>
+      <c r="H429" t="s">
         <v>118</v>
       </c>
-      <c r="F426" t="s">
+      <c r="I429" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="427" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A427" t="s">
-        <v>61</v>
-      </c>
-      <c r="B427" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C427" t="s">
-        <v>67</v>
-      </c>
-      <c r="D427" t="s">
+    <row r="430" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A430" t="s">
+        <v>104</v>
+      </c>
+      <c r="B430" t="s">
+        <v>11</v>
+      </c>
+      <c r="C430" t="s">
+        <v>69</v>
+      </c>
+      <c r="D430" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E430" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F430" t="s">
+        <v>67</v>
+      </c>
+      <c r="G430" t="s">
         <v>144</v>
       </c>
-      <c r="E427" t="s">
+      <c r="H430" t="s">
         <v>79</v>
       </c>
-      <c r="F427" t="s">
+      <c r="I430" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="428" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A428" t="s">
-        <v>61</v>
-      </c>
-      <c r="B428" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C428" t="s">
-        <v>67</v>
-      </c>
-      <c r="D428" t="s">
+    <row r="431" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A431" t="s">
+        <v>104</v>
+      </c>
+      <c r="B431" t="s">
+        <v>11</v>
+      </c>
+      <c r="C431" t="s">
+        <v>69</v>
+      </c>
+      <c r="D431" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E431" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F431" t="s">
+        <v>67</v>
+      </c>
+      <c r="G431" t="s">
         <v>144</v>
       </c>
-      <c r="E428" t="s">
+      <c r="H431" t="s">
         <v>118</v>
       </c>
-      <c r="F428" t="s">
+      <c r="I431" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="429" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A429" t="s">
-        <v>49</v>
-      </c>
-      <c r="B429" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C429" t="s">
-        <v>22</v>
-      </c>
-      <c r="D429" t="s">
-        <v>67</v>
-      </c>
-      <c r="E429" t="s">
+    <row r="432" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A432" t="s">
+        <v>112</v>
+      </c>
+      <c r="B432" t="s">
+        <v>11</v>
+      </c>
+      <c r="C432" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D432" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E432" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F432" t="s">
+        <v>67</v>
+      </c>
+      <c r="G432" t="s">
         <v>144</v>
       </c>
-      <c r="F429" t="s">
+      <c r="H432" t="s">
         <v>79</v>
       </c>
-      <c r="G429" t="s">
+      <c r="I432" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="430" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A430" t="s">
-        <v>49</v>
-      </c>
-      <c r="B430" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C430" t="s">
-        <v>22</v>
-      </c>
-      <c r="D430" t="s">
-        <v>67</v>
-      </c>
-      <c r="E430" t="s">
+    <row r="433" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A433" t="s">
+        <v>112</v>
+      </c>
+      <c r="B433" t="s">
+        <v>11</v>
+      </c>
+      <c r="C433" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D433" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E433" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F433" t="s">
+        <v>67</v>
+      </c>
+      <c r="G433" t="s">
         <v>144</v>
       </c>
-      <c r="F430" t="s">
+      <c r="H433" t="s">
         <v>118</v>
       </c>
-      <c r="G430" t="s">
+      <c r="I433" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="431" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A431" t="s">
-        <v>94</v>
-      </c>
-      <c r="B431" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C431" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D431" t="s">
-        <v>67</v>
-      </c>
-      <c r="E431" t="s">
+    <row r="434" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A434" t="s">
+        <v>105</v>
+      </c>
+      <c r="B434" t="s">
+        <v>11</v>
+      </c>
+      <c r="C434" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D434" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E434" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F434" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="G434" t="s">
+        <v>67</v>
+      </c>
+      <c r="H434" t="s">
         <v>144</v>
       </c>
-      <c r="F431" t="s">
+      <c r="I434" t="s">
         <v>79</v>
       </c>
-      <c r="G431" t="s">
+      <c r="J434" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="432" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A432" t="s">
-        <v>94</v>
-      </c>
-      <c r="B432" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C432" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D432" t="s">
-        <v>67</v>
-      </c>
-      <c r="E432" t="s">
+    <row r="435" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A435" t="s">
+        <v>105</v>
+      </c>
+      <c r="B435" t="s">
+        <v>11</v>
+      </c>
+      <c r="C435" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D435" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E435" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F435" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="G435" t="s">
+        <v>67</v>
+      </c>
+      <c r="H435" t="s">
         <v>144</v>
       </c>
-      <c r="F432" t="s">
+      <c r="I435" t="s">
         <v>118</v>
       </c>
-      <c r="G432" t="s">
+      <c r="J435" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="433" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A433" t="s">
-        <v>47</v>
-      </c>
-      <c r="B433" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C433" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="D433" t="s">
-        <v>67</v>
-      </c>
-      <c r="E433" t="s">
-        <v>144</v>
-      </c>
-      <c r="F433" t="s">
-        <v>79</v>
-      </c>
-      <c r="G433" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="434" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A434" t="s">
-        <v>47</v>
-      </c>
-      <c r="B434" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C434" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="D434" t="s">
-        <v>67</v>
-      </c>
-      <c r="E434" t="s">
-        <v>144</v>
-      </c>
-      <c r="F434" t="s">
-        <v>118</v>
-      </c>
-      <c r="G434" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="435" spans="1:8" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A435" t="s">
-        <v>61</v>
-      </c>
-      <c r="B435" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C435" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D435" t="s">
-        <v>67</v>
-      </c>
-      <c r="E435" t="s">
-        <v>144</v>
-      </c>
-      <c r="F435" t="s">
-        <v>79</v>
-      </c>
-      <c r="G435" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="436" spans="1:8" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A436" t="s">
-        <v>61</v>
-      </c>
-      <c r="B436" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C436" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D436" t="s">
-        <v>67</v>
-      </c>
-      <c r="E436" t="s">
-        <v>144</v>
-      </c>
-      <c r="F436" t="s">
-        <v>118</v>
-      </c>
-      <c r="G436" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="437" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A437" t="s">
-        <v>61</v>
-      </c>
-      <c r="B437" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C437" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D437" t="s">
-        <v>67</v>
-      </c>
-      <c r="E437" t="s">
-        <v>144</v>
-      </c>
-      <c r="F437" t="s">
-        <v>79</v>
-      </c>
-      <c r="G437" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="438" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A438" t="s">
-        <v>61</v>
-      </c>
-      <c r="B438" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C438" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D438" t="s">
-        <v>67</v>
-      </c>
-      <c r="E438" t="s">
-        <v>144</v>
-      </c>
-      <c r="F438" t="s">
-        <v>118</v>
-      </c>
-      <c r="G438" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="439" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A439" t="s">
-        <v>111</v>
-      </c>
-      <c r="B439" t="s">
-        <v>11</v>
-      </c>
-      <c r="C439" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D439" t="s">
-        <v>67</v>
-      </c>
-      <c r="E439" t="s">
-        <v>144</v>
-      </c>
-      <c r="F439" t="s">
-        <v>79</v>
-      </c>
-      <c r="G439" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="440" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A440" t="s">
-        <v>111</v>
-      </c>
-      <c r="B440" t="s">
-        <v>11</v>
-      </c>
-      <c r="C440" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D440" t="s">
-        <v>67</v>
-      </c>
-      <c r="E440" t="s">
-        <v>144</v>
-      </c>
-      <c r="F440" t="s">
-        <v>118</v>
-      </c>
-      <c r="G440" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="441" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A441" t="s">
-        <v>89</v>
-      </c>
-      <c r="B441" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C441" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D441" t="s">
-        <v>22</v>
-      </c>
-      <c r="E441" t="s">
-        <v>67</v>
-      </c>
-      <c r="F441" t="s">
-        <v>144</v>
-      </c>
-      <c r="G441" t="s">
-        <v>79</v>
-      </c>
-      <c r="H441" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="442" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A442" t="s">
-        <v>89</v>
-      </c>
-      <c r="B442" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C442" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D442" t="s">
-        <v>22</v>
-      </c>
-      <c r="E442" t="s">
-        <v>67</v>
-      </c>
-      <c r="F442" t="s">
-        <v>144</v>
-      </c>
-      <c r="G442" t="s">
-        <v>118</v>
-      </c>
-      <c r="H442" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="443" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A443" t="s">
-        <v>49</v>
-      </c>
-      <c r="B443" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C443" t="s">
-        <v>22</v>
-      </c>
-      <c r="D443" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="E443" t="s">
-        <v>67</v>
-      </c>
-      <c r="F443" t="s">
-        <v>144</v>
-      </c>
-      <c r="G443" t="s">
-        <v>79</v>
-      </c>
-      <c r="H443" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="444" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A444" t="s">
-        <v>49</v>
-      </c>
-      <c r="B444" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C444" t="s">
-        <v>22</v>
-      </c>
-      <c r="D444" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="E444" t="s">
-        <v>67</v>
-      </c>
-      <c r="F444" t="s">
-        <v>144</v>
-      </c>
-      <c r="G444" t="s">
-        <v>118</v>
-      </c>
-      <c r="H444" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="445" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A445" t="s">
-        <v>63</v>
-      </c>
-      <c r="B445" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C445" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D445" t="s">
-        <v>22</v>
-      </c>
-      <c r="E445" t="s">
-        <v>67</v>
-      </c>
-      <c r="F445" t="s">
-        <v>144</v>
-      </c>
-      <c r="G445" t="s">
-        <v>79</v>
-      </c>
-      <c r="H445" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="446" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A446" t="s">
-        <v>63</v>
-      </c>
-      <c r="B446" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C446" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D446" t="s">
-        <v>22</v>
-      </c>
-      <c r="E446" t="s">
-        <v>67</v>
-      </c>
-      <c r="F446" t="s">
-        <v>144</v>
-      </c>
-      <c r="G446" t="s">
-        <v>118</v>
-      </c>
-      <c r="H446" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="447" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A447" t="s">
-        <v>94</v>
-      </c>
-      <c r="B447" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C447" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D447" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="E447" t="s">
-        <v>67</v>
-      </c>
-      <c r="F447" t="s">
-        <v>144</v>
-      </c>
-      <c r="G447" t="s">
-        <v>79</v>
-      </c>
-      <c r="H447" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="448" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A448" t="s">
-        <v>94</v>
-      </c>
-      <c r="B448" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C448" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D448" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="E448" t="s">
-        <v>67</v>
-      </c>
-      <c r="F448" t="s">
-        <v>144</v>
-      </c>
-      <c r="G448" t="s">
-        <v>118</v>
-      </c>
-      <c r="H448" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="449" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A449" t="s">
-        <v>95</v>
-      </c>
-      <c r="B449" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C449" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D449" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E449" t="s">
-        <v>67</v>
-      </c>
-      <c r="F449" t="s">
-        <v>144</v>
-      </c>
-      <c r="G449" t="s">
-        <v>79</v>
-      </c>
-      <c r="H449" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="450" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A450" t="s">
-        <v>95</v>
-      </c>
-      <c r="B450" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C450" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D450" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E450" t="s">
-        <v>67</v>
-      </c>
-      <c r="F450" t="s">
-        <v>144</v>
-      </c>
-      <c r="G450" t="s">
-        <v>118</v>
-      </c>
-      <c r="H450" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="451" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A451" t="s">
-        <v>104</v>
-      </c>
-      <c r="B451" t="s">
-        <v>11</v>
-      </c>
-      <c r="C451" t="s">
-        <v>69</v>
-      </c>
-      <c r="D451" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E451" t="s">
-        <v>67</v>
-      </c>
-      <c r="F451" t="s">
-        <v>144</v>
-      </c>
-      <c r="G451" t="s">
-        <v>79</v>
-      </c>
-      <c r="H451" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="452" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A452" t="s">
-        <v>104</v>
-      </c>
-      <c r="B452" t="s">
-        <v>11</v>
-      </c>
-      <c r="C452" t="s">
-        <v>69</v>
-      </c>
-      <c r="D452" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E452" t="s">
-        <v>67</v>
-      </c>
-      <c r="F452" t="s">
-        <v>144</v>
-      </c>
-      <c r="G452" t="s">
-        <v>118</v>
-      </c>
-      <c r="H452" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="453" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A453" t="s">
-        <v>61</v>
-      </c>
-      <c r="B453" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C453" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D453" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="E453" t="s">
-        <v>67</v>
-      </c>
-      <c r="F453" t="s">
-        <v>144</v>
-      </c>
-      <c r="G453" t="s">
-        <v>79</v>
-      </c>
-      <c r="H453" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="454" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A454" t="s">
-        <v>61</v>
-      </c>
-      <c r="B454" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C454" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D454" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="E454" t="s">
-        <v>67</v>
-      </c>
-      <c r="F454" t="s">
-        <v>144</v>
-      </c>
-      <c r="G454" t="s">
-        <v>118</v>
-      </c>
-      <c r="H454" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="455" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A455" t="s">
-        <v>112</v>
-      </c>
-      <c r="B455" t="s">
-        <v>11</v>
-      </c>
-      <c r="C455" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D455" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E455" t="s">
-        <v>67</v>
-      </c>
-      <c r="F455" t="s">
-        <v>144</v>
-      </c>
-      <c r="G455" t="s">
-        <v>79</v>
-      </c>
-      <c r="H455" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="456" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A456" t="s">
-        <v>112</v>
-      </c>
-      <c r="B456" t="s">
-        <v>11</v>
-      </c>
-      <c r="C456" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D456" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E456" t="s">
-        <v>67</v>
-      </c>
-      <c r="F456" t="s">
-        <v>144</v>
-      </c>
-      <c r="G456" t="s">
-        <v>118</v>
-      </c>
-      <c r="H456" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="457" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A457" t="s">
-        <v>111</v>
-      </c>
-      <c r="B457" t="s">
-        <v>11</v>
-      </c>
-      <c r="C457" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D457" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="E457" t="s">
-        <v>67</v>
-      </c>
-      <c r="F457" t="s">
-        <v>144</v>
-      </c>
-      <c r="G457" t="s">
-        <v>79</v>
-      </c>
-      <c r="H457" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="458" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A458" t="s">
-        <v>111</v>
-      </c>
-      <c r="B458" t="s">
-        <v>11</v>
-      </c>
-      <c r="C458" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D458" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="E458" t="s">
-        <v>67</v>
-      </c>
-      <c r="F458" t="s">
-        <v>144</v>
-      </c>
-      <c r="G458" t="s">
-        <v>118</v>
-      </c>
-      <c r="H458" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="459" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A459" t="s">
-        <v>89</v>
-      </c>
-      <c r="B459" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C459" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D459" t="s">
-        <v>22</v>
-      </c>
-      <c r="E459" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="F459" t="s">
-        <v>67</v>
-      </c>
-      <c r="G459" t="s">
-        <v>144</v>
-      </c>
-      <c r="H459" t="s">
-        <v>79</v>
-      </c>
-      <c r="I459" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="460" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A460" t="s">
-        <v>89</v>
-      </c>
-      <c r="B460" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C460" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D460" t="s">
-        <v>22</v>
-      </c>
-      <c r="E460" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="F460" t="s">
-        <v>67</v>
-      </c>
-      <c r="G460" t="s">
-        <v>144</v>
-      </c>
-      <c r="H460" t="s">
-        <v>118</v>
-      </c>
-      <c r="I460" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="461" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A461" t="s">
-        <v>90</v>
-      </c>
-      <c r="B461" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C461" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D461" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E461" t="s">
-        <v>22</v>
-      </c>
-      <c r="F461" t="s">
-        <v>67</v>
-      </c>
-      <c r="G461" t="s">
-        <v>144</v>
-      </c>
-      <c r="H461" t="s">
-        <v>79</v>
-      </c>
-      <c r="I461" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="462" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A462" t="s">
-        <v>90</v>
-      </c>
-      <c r="B462" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C462" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D462" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E462" t="s">
-        <v>22</v>
-      </c>
-      <c r="F462" t="s">
-        <v>67</v>
-      </c>
-      <c r="G462" t="s">
-        <v>144</v>
-      </c>
-      <c r="H462" t="s">
-        <v>118</v>
-      </c>
-      <c r="I462" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="463" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A463" t="s">
-        <v>63</v>
-      </c>
-      <c r="B463" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C463" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D463" t="s">
-        <v>22</v>
-      </c>
-      <c r="E463" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="F463" t="s">
-        <v>67</v>
-      </c>
-      <c r="G463" t="s">
-        <v>144</v>
-      </c>
-      <c r="H463" t="s">
-        <v>79</v>
-      </c>
-      <c r="I463" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="464" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A464" t="s">
-        <v>63</v>
-      </c>
-      <c r="B464" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C464" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D464" t="s">
-        <v>22</v>
-      </c>
-      <c r="E464" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="F464" t="s">
-        <v>67</v>
-      </c>
-      <c r="G464" t="s">
-        <v>144</v>
-      </c>
-      <c r="H464" t="s">
-        <v>118</v>
-      </c>
-      <c r="I464" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="465" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A465" t="s">
-        <v>95</v>
-      </c>
-      <c r="B465" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C465" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D465" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E465" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="F465" t="s">
-        <v>67</v>
-      </c>
-      <c r="G465" t="s">
-        <v>144</v>
-      </c>
-      <c r="H465" t="s">
-        <v>118</v>
-      </c>
-      <c r="I465" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="466" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A466" t="s">
-        <v>95</v>
-      </c>
-      <c r="B466" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C466" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D466" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E466" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="F466" t="s">
-        <v>67</v>
-      </c>
-      <c r="G466" t="s">
-        <v>144</v>
-      </c>
-      <c r="H466" t="s">
-        <v>79</v>
-      </c>
-      <c r="I466" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="467" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A467" t="s">
-        <v>105</v>
-      </c>
-      <c r="B467" t="s">
-        <v>11</v>
-      </c>
-      <c r="C467" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D467" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E467" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F467" t="s">
-        <v>67</v>
-      </c>
-      <c r="G467" t="s">
-        <v>144</v>
-      </c>
-      <c r="H467" t="s">
-        <v>79</v>
-      </c>
-      <c r="I467" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="468" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A468" t="s">
-        <v>105</v>
-      </c>
-      <c r="B468" t="s">
-        <v>11</v>
-      </c>
-      <c r="C468" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D468" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E468" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F468" t="s">
-        <v>67</v>
-      </c>
-      <c r="G468" t="s">
-        <v>144</v>
-      </c>
-      <c r="H468" t="s">
-        <v>118</v>
-      </c>
-      <c r="I468" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="469" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A469" t="s">
-        <v>104</v>
-      </c>
-      <c r="B469" t="s">
-        <v>11</v>
-      </c>
-      <c r="C469" t="s">
-        <v>69</v>
-      </c>
-      <c r="D469" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E469" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="F469" t="s">
-        <v>67</v>
-      </c>
-      <c r="G469" t="s">
-        <v>144</v>
-      </c>
-      <c r="H469" t="s">
-        <v>79</v>
-      </c>
-      <c r="I469" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="470" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A470" t="s">
-        <v>104</v>
-      </c>
-      <c r="B470" t="s">
-        <v>11</v>
-      </c>
-      <c r="C470" t="s">
-        <v>69</v>
-      </c>
-      <c r="D470" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E470" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="F470" t="s">
-        <v>67</v>
-      </c>
-      <c r="G470" t="s">
-        <v>144</v>
-      </c>
-      <c r="H470" t="s">
-        <v>118</v>
-      </c>
-      <c r="I470" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="471" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A471" t="s">
-        <v>112</v>
-      </c>
-      <c r="B471" t="s">
-        <v>11</v>
-      </c>
-      <c r="C471" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D471" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E471" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="F471" t="s">
-        <v>67</v>
-      </c>
-      <c r="G471" t="s">
-        <v>144</v>
-      </c>
-      <c r="H471" t="s">
-        <v>79</v>
-      </c>
-      <c r="I471" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="472" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A472" t="s">
-        <v>112</v>
-      </c>
-      <c r="B472" t="s">
-        <v>11</v>
-      </c>
-      <c r="C472" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D472" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E472" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="F472" t="s">
-        <v>67</v>
-      </c>
-      <c r="G472" t="s">
-        <v>144</v>
-      </c>
-      <c r="H472" t="s">
-        <v>118</v>
-      </c>
-      <c r="I472" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="473" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A473" t="s">
-        <v>105</v>
-      </c>
-      <c r="B473" t="s">
-        <v>11</v>
-      </c>
-      <c r="C473" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D473" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E473" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F473" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="G473" t="s">
-        <v>67</v>
-      </c>
-      <c r="H473" t="s">
-        <v>144</v>
-      </c>
-      <c r="I473" t="s">
-        <v>79</v>
-      </c>
-      <c r="J473" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="474" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A474" t="s">
-        <v>105</v>
-      </c>
-      <c r="B474" t="s">
-        <v>11</v>
-      </c>
-      <c r="C474" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D474" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E474" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F474" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="G474" t="s">
-        <v>67</v>
-      </c>
-      <c r="H474" t="s">
-        <v>144</v>
-      </c>
-      <c r="I474" t="s">
-        <v>118</v>
-      </c>
-      <c r="J474" t="s">
-        <v>119</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:J474" xr:uid="{107DD696-A5A6-CB45-B2DD-8D2A6C9062E3}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:J428">
-    <sortCondition ref="A1:A428"/>
-    <sortCondition ref="B1:B428"/>
-    <sortCondition ref="C1:C428"/>
-    <sortCondition ref="D1:D428"/>
-    <sortCondition ref="E1:E428"/>
-    <sortCondition ref="F1:F428"/>
-    <sortCondition ref="G1:G428"/>
-    <sortCondition ref="H1:H428"/>
+  <autoFilter ref="A1:J435" xr:uid="{107DD696-A5A6-CB45-B2DD-8D2A6C9062E3}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:J389">
+    <sortCondition ref="A1:A389"/>
+    <sortCondition ref="B1:B389"/>
+    <sortCondition ref="C1:C389"/>
+    <sortCondition ref="D1:D389"/>
+    <sortCondition ref="E1:E389"/>
+    <sortCondition ref="F1:F389"/>
+    <sortCondition ref="G1:G389"/>
+    <sortCondition ref="H1:H389"/>
   </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/DSBot/kb.xlsx
+++ b/DSBot/kb.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sarapido/Desktop/DSBot/DSBot/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82363679-251C-1B4C-B29B-FAA99F1E4BCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C847A0F1-113E-AF42-A873-66B97660DEE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2980" yWindow="500" windowWidth="28040" windowHeight="17440" activeTab="1" xr2:uid="{B2A427CD-3A3B-AB4F-8475-A6742BF1F99B}"/>
   </bookViews>
@@ -20,7 +20,7 @@
     <sheet name="Foglio5" sheetId="6" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Foglio2!$A$1:$J$474</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Foglio2!$A$1:$J$435</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -1737,10 +1737,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{107DD696-A5A6-CB45-B2DD-8D2A6C9062E3}">
-  <dimension ref="A1:J474"/>
+  <dimension ref="A1:J435"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="99" workbookViewId="0">
-      <selection activeCell="A429" sqref="A429:XFD480"/>
+    <sheetView tabSelected="1" topLeftCell="A367" zoomScale="99" workbookViewId="0">
+      <selection activeCell="A386" sqref="A386"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10531,7 +10531,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="385" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A385" t="s">
         <v>15</v>
       </c>
@@ -10545,1465 +10545,1311 @@
         <v>20</v>
       </c>
     </row>
-    <row r="386" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D386" s="1"/>
-    </row>
-    <row r="387" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C387" s="1"/>
-      <c r="D387" s="1"/>
-    </row>
-    <row r="388" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B388" s="1"/>
-    </row>
-    <row r="389" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B389" s="1"/>
-      <c r="C389" s="1"/>
-    </row>
-    <row r="390" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B390" s="1"/>
-      <c r="D390" s="1"/>
-    </row>
-    <row r="391" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B391" s="1"/>
-      <c r="C391" s="1"/>
-      <c r="D391" s="1"/>
-    </row>
-    <row r="392" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C392" s="1"/>
-      <c r="D392" s="1"/>
-    </row>
-    <row r="393" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C393" s="1"/>
-      <c r="E393" s="1"/>
-    </row>
-    <row r="394" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C394" s="1"/>
-      <c r="D394" s="1"/>
-      <c r="E394" s="1"/>
-    </row>
-    <row r="395" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B395" s="1"/>
-      <c r="C395" s="1"/>
-    </row>
-    <row r="396" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C396" s="1"/>
-      <c r="D396" s="1"/>
-    </row>
-    <row r="397" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B397" s="1"/>
-      <c r="C397" s="1"/>
-    </row>
-    <row r="398" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B398" s="1"/>
-      <c r="C398" s="1"/>
-    </row>
-    <row r="399" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C399" s="1"/>
-    </row>
-    <row r="400" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D400" s="1"/>
-    </row>
-    <row r="401" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="C401" s="1"/>
-      <c r="D401" s="1"/>
-    </row>
-    <row r="402" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B402" s="1"/>
-    </row>
-    <row r="403" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B403" s="1"/>
-      <c r="C403" s="1"/>
-    </row>
-    <row r="404" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B404" s="1"/>
-      <c r="D404" s="1"/>
-    </row>
-    <row r="405" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B405" s="1"/>
-      <c r="C405" s="1"/>
-      <c r="D405" s="1"/>
-    </row>
-    <row r="406" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="C406" s="1"/>
-      <c r="D406" s="1"/>
-    </row>
-    <row r="407" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="C407" s="1"/>
-      <c r="E407" s="1"/>
-    </row>
-    <row r="408" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="C408" s="1"/>
-      <c r="D408" s="1"/>
-      <c r="E408" s="1"/>
-    </row>
-    <row r="409" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B409" s="1"/>
-      <c r="C409" s="1"/>
-    </row>
-    <row r="410" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="C410" s="1"/>
-      <c r="D410" s="1"/>
-    </row>
-    <row r="411" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B411" s="1"/>
-      <c r="C411" s="1"/>
-    </row>
-    <row r="412" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B412" s="1"/>
-      <c r="C412" s="1"/>
-    </row>
-    <row r="413" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="C413" s="1"/>
-    </row>
-    <row r="414" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="D414" s="1"/>
-    </row>
-    <row r="415" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="C415" s="1"/>
-      <c r="D415" s="1"/>
-    </row>
-    <row r="416" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B416" s="1"/>
-    </row>
-    <row r="417" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B417" s="1"/>
-      <c r="C417" s="1"/>
-    </row>
-    <row r="418" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B418" s="1"/>
-      <c r="D418" s="1"/>
-    </row>
-    <row r="419" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B419" s="1"/>
-      <c r="C419" s="1"/>
-      <c r="D419" s="1"/>
-    </row>
-    <row r="420" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C420" s="1"/>
-      <c r="D420" s="1"/>
-    </row>
-    <row r="421" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C421" s="1"/>
-      <c r="E421" s="1"/>
-    </row>
-    <row r="422" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C422" s="1"/>
-      <c r="D422" s="1"/>
-      <c r="E422" s="1"/>
-    </row>
-    <row r="423" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B423" s="1"/>
-      <c r="C423" s="1"/>
-    </row>
-    <row r="424" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C424" s="1"/>
-      <c r="D424" s="1"/>
-    </row>
-    <row r="425" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A386" t="s">
+        <v>47</v>
+      </c>
+      <c r="B386" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C386" t="s">
+        <v>67</v>
+      </c>
+      <c r="D386" t="s">
+        <v>144</v>
+      </c>
+      <c r="E386" t="s">
+        <v>79</v>
+      </c>
+      <c r="F386" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="387" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A387" t="s">
+        <v>47</v>
+      </c>
+      <c r="B387" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C387" t="s">
+        <v>67</v>
+      </c>
+      <c r="D387" t="s">
+        <v>144</v>
+      </c>
+      <c r="E387" t="s">
+        <v>118</v>
+      </c>
+      <c r="F387" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="388" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A388" t="s">
+        <v>61</v>
+      </c>
+      <c r="B388" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C388" t="s">
+        <v>67</v>
+      </c>
+      <c r="D388" t="s">
+        <v>144</v>
+      </c>
+      <c r="E388" t="s">
+        <v>79</v>
+      </c>
+      <c r="F388" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="389" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A389" t="s">
+        <v>61</v>
+      </c>
+      <c r="B389" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C389" t="s">
+        <v>67</v>
+      </c>
+      <c r="D389" t="s">
+        <v>144</v>
+      </c>
+      <c r="E389" t="s">
+        <v>118</v>
+      </c>
+      <c r="F389" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="390" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A390" t="s">
+        <v>49</v>
+      </c>
+      <c r="B390" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C390" t="s">
+        <v>22</v>
+      </c>
+      <c r="D390" t="s">
+        <v>67</v>
+      </c>
+      <c r="E390" t="s">
+        <v>144</v>
+      </c>
+      <c r="F390" t="s">
+        <v>79</v>
+      </c>
+      <c r="G390" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="391" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A391" t="s">
+        <v>49</v>
+      </c>
+      <c r="B391" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C391" t="s">
+        <v>22</v>
+      </c>
+      <c r="D391" t="s">
+        <v>67</v>
+      </c>
+      <c r="E391" t="s">
+        <v>144</v>
+      </c>
+      <c r="F391" t="s">
+        <v>118</v>
+      </c>
+      <c r="G391" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="392" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A392" t="s">
+        <v>94</v>
+      </c>
+      <c r="B392" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C392" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D392" t="s">
+        <v>67</v>
+      </c>
+      <c r="E392" t="s">
+        <v>144</v>
+      </c>
+      <c r="F392" t="s">
+        <v>79</v>
+      </c>
+      <c r="G392" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="393" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A393" t="s">
+        <v>94</v>
+      </c>
+      <c r="B393" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C393" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D393" t="s">
+        <v>67</v>
+      </c>
+      <c r="E393" t="s">
+        <v>144</v>
+      </c>
+      <c r="F393" t="s">
+        <v>118</v>
+      </c>
+      <c r="G393" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="394" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A394" t="s">
+        <v>47</v>
+      </c>
+      <c r="B394" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C394" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D394" t="s">
+        <v>67</v>
+      </c>
+      <c r="E394" t="s">
+        <v>144</v>
+      </c>
+      <c r="F394" t="s">
+        <v>79</v>
+      </c>
+      <c r="G394" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="395" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A395" t="s">
+        <v>47</v>
+      </c>
+      <c r="B395" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C395" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D395" t="s">
+        <v>67</v>
+      </c>
+      <c r="E395" t="s">
+        <v>144</v>
+      </c>
+      <c r="F395" t="s">
+        <v>118</v>
+      </c>
+      <c r="G395" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="396" spans="1:7" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A396" t="s">
+        <v>61</v>
+      </c>
+      <c r="B396" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C396" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D396" t="s">
+        <v>67</v>
+      </c>
+      <c r="E396" t="s">
+        <v>144</v>
+      </c>
+      <c r="F396" t="s">
+        <v>79</v>
+      </c>
+      <c r="G396" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="397" spans="1:7" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A397" t="s">
+        <v>61</v>
+      </c>
+      <c r="B397" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C397" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D397" t="s">
+        <v>67</v>
+      </c>
+      <c r="E397" t="s">
+        <v>144</v>
+      </c>
+      <c r="F397" t="s">
+        <v>118</v>
+      </c>
+      <c r="G397" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="398" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A398" t="s">
+        <v>61</v>
+      </c>
+      <c r="B398" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C398" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D398" t="s">
+        <v>67</v>
+      </c>
+      <c r="E398" t="s">
+        <v>144</v>
+      </c>
+      <c r="F398" t="s">
+        <v>79</v>
+      </c>
+      <c r="G398" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="399" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A399" t="s">
+        <v>61</v>
+      </c>
+      <c r="B399" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C399" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D399" t="s">
+        <v>67</v>
+      </c>
+      <c r="E399" t="s">
+        <v>144</v>
+      </c>
+      <c r="F399" t="s">
+        <v>118</v>
+      </c>
+      <c r="G399" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="400" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A400" t="s">
+        <v>111</v>
+      </c>
+      <c r="B400" t="s">
+        <v>11</v>
+      </c>
+      <c r="C400" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D400" t="s">
+        <v>67</v>
+      </c>
+      <c r="E400" t="s">
+        <v>144</v>
+      </c>
+      <c r="F400" t="s">
+        <v>79</v>
+      </c>
+      <c r="G400" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="401" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A401" t="s">
+        <v>111</v>
+      </c>
+      <c r="B401" t="s">
+        <v>11</v>
+      </c>
+      <c r="C401" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D401" t="s">
+        <v>67</v>
+      </c>
+      <c r="E401" t="s">
+        <v>144</v>
+      </c>
+      <c r="F401" t="s">
+        <v>118</v>
+      </c>
+      <c r="G401" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="402" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A402" t="s">
+        <v>89</v>
+      </c>
+      <c r="B402" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C402" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D402" t="s">
+        <v>22</v>
+      </c>
+      <c r="E402" t="s">
+        <v>67</v>
+      </c>
+      <c r="F402" t="s">
+        <v>144</v>
+      </c>
+      <c r="G402" t="s">
+        <v>79</v>
+      </c>
+      <c r="H402" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="403" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A403" t="s">
+        <v>89</v>
+      </c>
+      <c r="B403" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C403" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D403" t="s">
+        <v>22</v>
+      </c>
+      <c r="E403" t="s">
+        <v>67</v>
+      </c>
+      <c r="F403" t="s">
+        <v>144</v>
+      </c>
+      <c r="G403" t="s">
+        <v>118</v>
+      </c>
+      <c r="H403" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="404" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A404" t="s">
+        <v>49</v>
+      </c>
+      <c r="B404" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C404" t="s">
+        <v>22</v>
+      </c>
+      <c r="D404" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E404" t="s">
+        <v>67</v>
+      </c>
+      <c r="F404" t="s">
+        <v>144</v>
+      </c>
+      <c r="G404" t="s">
+        <v>79</v>
+      </c>
+      <c r="H404" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="405" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A405" t="s">
+        <v>49</v>
+      </c>
+      <c r="B405" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C405" t="s">
+        <v>22</v>
+      </c>
+      <c r="D405" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E405" t="s">
+        <v>67</v>
+      </c>
+      <c r="F405" t="s">
+        <v>144</v>
+      </c>
+      <c r="G405" t="s">
+        <v>118</v>
+      </c>
+      <c r="H405" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="406" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A406" t="s">
+        <v>63</v>
+      </c>
+      <c r="B406" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C406" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D406" t="s">
+        <v>22</v>
+      </c>
+      <c r="E406" t="s">
+        <v>67</v>
+      </c>
+      <c r="F406" t="s">
+        <v>144</v>
+      </c>
+      <c r="G406" t="s">
+        <v>79</v>
+      </c>
+      <c r="H406" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="407" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A407" t="s">
+        <v>63</v>
+      </c>
+      <c r="B407" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C407" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D407" t="s">
+        <v>22</v>
+      </c>
+      <c r="E407" t="s">
+        <v>67</v>
+      </c>
+      <c r="F407" t="s">
+        <v>144</v>
+      </c>
+      <c r="G407" t="s">
+        <v>118</v>
+      </c>
+      <c r="H407" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="408" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A408" t="s">
+        <v>94</v>
+      </c>
+      <c r="B408" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C408" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D408" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E408" t="s">
+        <v>67</v>
+      </c>
+      <c r="F408" t="s">
+        <v>144</v>
+      </c>
+      <c r="G408" t="s">
+        <v>79</v>
+      </c>
+      <c r="H408" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="409" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A409" t="s">
+        <v>94</v>
+      </c>
+      <c r="B409" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C409" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D409" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E409" t="s">
+        <v>67</v>
+      </c>
+      <c r="F409" t="s">
+        <v>144</v>
+      </c>
+      <c r="G409" t="s">
+        <v>118</v>
+      </c>
+      <c r="H409" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="410" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A410" t="s">
+        <v>95</v>
+      </c>
+      <c r="B410" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C410" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D410" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E410" t="s">
+        <v>67</v>
+      </c>
+      <c r="F410" t="s">
+        <v>144</v>
+      </c>
+      <c r="G410" t="s">
+        <v>79</v>
+      </c>
+      <c r="H410" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="411" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A411" t="s">
+        <v>95</v>
+      </c>
+      <c r="B411" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C411" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D411" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E411" t="s">
+        <v>67</v>
+      </c>
+      <c r="F411" t="s">
+        <v>144</v>
+      </c>
+      <c r="G411" t="s">
+        <v>118</v>
+      </c>
+      <c r="H411" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="412" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A412" t="s">
+        <v>104</v>
+      </c>
+      <c r="B412" t="s">
+        <v>11</v>
+      </c>
+      <c r="C412" t="s">
+        <v>69</v>
+      </c>
+      <c r="D412" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E412" t="s">
+        <v>67</v>
+      </c>
+      <c r="F412" t="s">
+        <v>144</v>
+      </c>
+      <c r="G412" t="s">
+        <v>79</v>
+      </c>
+      <c r="H412" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="413" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A413" t="s">
+        <v>104</v>
+      </c>
+      <c r="B413" t="s">
+        <v>11</v>
+      </c>
+      <c r="C413" t="s">
+        <v>69</v>
+      </c>
+      <c r="D413" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E413" t="s">
+        <v>67</v>
+      </c>
+      <c r="F413" t="s">
+        <v>144</v>
+      </c>
+      <c r="G413" t="s">
+        <v>118</v>
+      </c>
+      <c r="H413" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="414" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A414" t="s">
+        <v>61</v>
+      </c>
+      <c r="B414" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C414" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D414" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E414" t="s">
+        <v>67</v>
+      </c>
+      <c r="F414" t="s">
+        <v>144</v>
+      </c>
+      <c r="G414" t="s">
+        <v>79</v>
+      </c>
+      <c r="H414" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="415" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A415" t="s">
+        <v>61</v>
+      </c>
+      <c r="B415" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C415" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D415" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E415" t="s">
+        <v>67</v>
+      </c>
+      <c r="F415" t="s">
+        <v>144</v>
+      </c>
+      <c r="G415" t="s">
+        <v>118</v>
+      </c>
+      <c r="H415" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="416" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A416" t="s">
+        <v>112</v>
+      </c>
+      <c r="B416" t="s">
+        <v>11</v>
+      </c>
+      <c r="C416" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D416" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E416" t="s">
+        <v>67</v>
+      </c>
+      <c r="F416" t="s">
+        <v>144</v>
+      </c>
+      <c r="G416" t="s">
+        <v>79</v>
+      </c>
+      <c r="H416" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="417" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A417" t="s">
+        <v>112</v>
+      </c>
+      <c r="B417" t="s">
+        <v>11</v>
+      </c>
+      <c r="C417" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D417" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E417" t="s">
+        <v>67</v>
+      </c>
+      <c r="F417" t="s">
+        <v>144</v>
+      </c>
+      <c r="G417" t="s">
+        <v>118</v>
+      </c>
+      <c r="H417" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="418" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A418" t="s">
+        <v>111</v>
+      </c>
+      <c r="B418" t="s">
+        <v>11</v>
+      </c>
+      <c r="C418" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D418" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E418" t="s">
+        <v>67</v>
+      </c>
+      <c r="F418" t="s">
+        <v>144</v>
+      </c>
+      <c r="G418" t="s">
+        <v>79</v>
+      </c>
+      <c r="H418" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="419" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A419" t="s">
+        <v>111</v>
+      </c>
+      <c r="B419" t="s">
+        <v>11</v>
+      </c>
+      <c r="C419" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D419" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E419" t="s">
+        <v>67</v>
+      </c>
+      <c r="F419" t="s">
+        <v>144</v>
+      </c>
+      <c r="G419" t="s">
+        <v>118</v>
+      </c>
+      <c r="H419" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="420" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A420" t="s">
+        <v>89</v>
+      </c>
+      <c r="B420" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C420" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D420" t="s">
+        <v>22</v>
+      </c>
+      <c r="E420" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F420" t="s">
+        <v>67</v>
+      </c>
+      <c r="G420" t="s">
+        <v>144</v>
+      </c>
+      <c r="H420" t="s">
+        <v>79</v>
+      </c>
+      <c r="I420" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="421" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A421" t="s">
+        <v>89</v>
+      </c>
+      <c r="B421" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C421" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D421" t="s">
+        <v>22</v>
+      </c>
+      <c r="E421" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F421" t="s">
+        <v>67</v>
+      </c>
+      <c r="G421" t="s">
+        <v>144</v>
+      </c>
+      <c r="H421" t="s">
+        <v>118</v>
+      </c>
+      <c r="I421" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="422" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A422" t="s">
+        <v>90</v>
+      </c>
+      <c r="B422" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C422" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D422" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E422" t="s">
+        <v>22</v>
+      </c>
+      <c r="F422" t="s">
+        <v>67</v>
+      </c>
+      <c r="G422" t="s">
+        <v>144</v>
+      </c>
+      <c r="H422" t="s">
+        <v>79</v>
+      </c>
+      <c r="I422" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="423" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A423" t="s">
+        <v>90</v>
+      </c>
+      <c r="B423" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C423" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D423" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E423" t="s">
+        <v>22</v>
+      </c>
+      <c r="F423" t="s">
+        <v>67</v>
+      </c>
+      <c r="G423" t="s">
+        <v>144</v>
+      </c>
+      <c r="H423" t="s">
+        <v>118</v>
+      </c>
+      <c r="I423" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="424" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A424" t="s">
+        <v>63</v>
+      </c>
+      <c r="B424" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C424" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D424" t="s">
+        <v>22</v>
+      </c>
+      <c r="E424" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F424" t="s">
+        <v>67</v>
+      </c>
+      <c r="G424" t="s">
+        <v>144</v>
+      </c>
+      <c r="H424" t="s">
+        <v>79</v>
+      </c>
+      <c r="I424" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="425" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A425" t="s">
-        <v>47</v>
+        <v>63</v>
       </c>
       <c r="B425" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C425" t="s">
-        <v>67</v>
+      <c r="C425" s="1" t="s">
+        <v>34</v>
       </c>
       <c r="D425" t="s">
+        <v>22</v>
+      </c>
+      <c r="E425" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F425" t="s">
+        <v>67</v>
+      </c>
+      <c r="G425" t="s">
         <v>144</v>
       </c>
-      <c r="E425" t="s">
+      <c r="H425" t="s">
+        <v>118</v>
+      </c>
+      <c r="I425" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="426" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A426" t="s">
+        <v>95</v>
+      </c>
+      <c r="B426" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C426" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D426" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E426" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F426" t="s">
+        <v>67</v>
+      </c>
+      <c r="G426" t="s">
+        <v>144</v>
+      </c>
+      <c r="H426" t="s">
+        <v>118</v>
+      </c>
+      <c r="I426" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="427" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A427" t="s">
+        <v>95</v>
+      </c>
+      <c r="B427" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C427" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D427" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E427" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F427" t="s">
+        <v>67</v>
+      </c>
+      <c r="G427" t="s">
+        <v>144</v>
+      </c>
+      <c r="H427" t="s">
         <v>79</v>
       </c>
-      <c r="F425" t="s">
+      <c r="I427" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="426" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A426" t="s">
-        <v>47</v>
-      </c>
-      <c r="B426" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C426" t="s">
-        <v>67</v>
-      </c>
-      <c r="D426" t="s">
+    <row r="428" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A428" t="s">
+        <v>105</v>
+      </c>
+      <c r="B428" t="s">
+        <v>11</v>
+      </c>
+      <c r="C428" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D428" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E428" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F428" t="s">
+        <v>67</v>
+      </c>
+      <c r="G428" t="s">
         <v>144</v>
       </c>
-      <c r="E426" t="s">
+      <c r="H428" t="s">
+        <v>79</v>
+      </c>
+      <c r="I428" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="429" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A429" t="s">
+        <v>105</v>
+      </c>
+      <c r="B429" t="s">
+        <v>11</v>
+      </c>
+      <c r="C429" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D429" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E429" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F429" t="s">
+        <v>67</v>
+      </c>
+      <c r="G429" t="s">
+        <v>144</v>
+      </c>
+      <c r="H429" t="s">
         <v>118</v>
       </c>
-      <c r="F426" t="s">
+      <c r="I429" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="427" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A427" t="s">
-        <v>61</v>
-      </c>
-      <c r="B427" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C427" t="s">
-        <v>67</v>
-      </c>
-      <c r="D427" t="s">
+    <row r="430" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A430" t="s">
+        <v>104</v>
+      </c>
+      <c r="B430" t="s">
+        <v>11</v>
+      </c>
+      <c r="C430" t="s">
+        <v>69</v>
+      </c>
+      <c r="D430" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E430" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F430" t="s">
+        <v>67</v>
+      </c>
+      <c r="G430" t="s">
         <v>144</v>
       </c>
-      <c r="E427" t="s">
+      <c r="H430" t="s">
         <v>79</v>
       </c>
-      <c r="F427" t="s">
+      <c r="I430" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="428" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A428" t="s">
-        <v>61</v>
-      </c>
-      <c r="B428" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C428" t="s">
-        <v>67</v>
-      </c>
-      <c r="D428" t="s">
+    <row r="431" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A431" t="s">
+        <v>104</v>
+      </c>
+      <c r="B431" t="s">
+        <v>11</v>
+      </c>
+      <c r="C431" t="s">
+        <v>69</v>
+      </c>
+      <c r="D431" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E431" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F431" t="s">
+        <v>67</v>
+      </c>
+      <c r="G431" t="s">
         <v>144</v>
       </c>
-      <c r="E428" t="s">
+      <c r="H431" t="s">
         <v>118</v>
       </c>
-      <c r="F428" t="s">
+      <c r="I431" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="429" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A429" t="s">
-        <v>49</v>
-      </c>
-      <c r="B429" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C429" t="s">
-        <v>22</v>
-      </c>
-      <c r="D429" t="s">
-        <v>67</v>
-      </c>
-      <c r="E429" t="s">
+    <row r="432" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A432" t="s">
+        <v>112</v>
+      </c>
+      <c r="B432" t="s">
+        <v>11</v>
+      </c>
+      <c r="C432" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D432" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E432" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F432" t="s">
+        <v>67</v>
+      </c>
+      <c r="G432" t="s">
         <v>144</v>
       </c>
-      <c r="F429" t="s">
+      <c r="H432" t="s">
         <v>79</v>
       </c>
-      <c r="G429" t="s">
+      <c r="I432" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="430" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A430" t="s">
-        <v>49</v>
-      </c>
-      <c r="B430" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C430" t="s">
-        <v>22</v>
-      </c>
-      <c r="D430" t="s">
-        <v>67</v>
-      </c>
-      <c r="E430" t="s">
+    <row r="433" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A433" t="s">
+        <v>112</v>
+      </c>
+      <c r="B433" t="s">
+        <v>11</v>
+      </c>
+      <c r="C433" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D433" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E433" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F433" t="s">
+        <v>67</v>
+      </c>
+      <c r="G433" t="s">
         <v>144</v>
       </c>
-      <c r="F430" t="s">
+      <c r="H433" t="s">
         <v>118</v>
       </c>
-      <c r="G430" t="s">
+      <c r="I433" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="431" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A431" t="s">
-        <v>94</v>
-      </c>
-      <c r="B431" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C431" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D431" t="s">
-        <v>67</v>
-      </c>
-      <c r="E431" t="s">
+    <row r="434" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A434" t="s">
+        <v>105</v>
+      </c>
+      <c r="B434" t="s">
+        <v>11</v>
+      </c>
+      <c r="C434" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D434" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E434" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F434" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="G434" t="s">
+        <v>67</v>
+      </c>
+      <c r="H434" t="s">
         <v>144</v>
       </c>
-      <c r="F431" t="s">
+      <c r="I434" t="s">
         <v>79</v>
       </c>
-      <c r="G431" t="s">
+      <c r="J434" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="432" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A432" t="s">
-        <v>94</v>
-      </c>
-      <c r="B432" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C432" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D432" t="s">
-        <v>67</v>
-      </c>
-      <c r="E432" t="s">
+    <row r="435" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A435" t="s">
+        <v>105</v>
+      </c>
+      <c r="B435" t="s">
+        <v>11</v>
+      </c>
+      <c r="C435" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D435" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E435" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F435" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="G435" t="s">
+        <v>67</v>
+      </c>
+      <c r="H435" t="s">
         <v>144</v>
       </c>
-      <c r="F432" t="s">
+      <c r="I435" t="s">
         <v>118</v>
       </c>
-      <c r="G432" t="s">
+      <c r="J435" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="433" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A433" t="s">
-        <v>47</v>
-      </c>
-      <c r="B433" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C433" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="D433" t="s">
-        <v>67</v>
-      </c>
-      <c r="E433" t="s">
-        <v>144</v>
-      </c>
-      <c r="F433" t="s">
-        <v>79</v>
-      </c>
-      <c r="G433" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="434" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A434" t="s">
-        <v>47</v>
-      </c>
-      <c r="B434" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C434" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="D434" t="s">
-        <v>67</v>
-      </c>
-      <c r="E434" t="s">
-        <v>144</v>
-      </c>
-      <c r="F434" t="s">
-        <v>118</v>
-      </c>
-      <c r="G434" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="435" spans="1:8" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A435" t="s">
-        <v>61</v>
-      </c>
-      <c r="B435" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C435" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D435" t="s">
-        <v>67</v>
-      </c>
-      <c r="E435" t="s">
-        <v>144</v>
-      </c>
-      <c r="F435" t="s">
-        <v>79</v>
-      </c>
-      <c r="G435" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="436" spans="1:8" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A436" t="s">
-        <v>61</v>
-      </c>
-      <c r="B436" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C436" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D436" t="s">
-        <v>67</v>
-      </c>
-      <c r="E436" t="s">
-        <v>144</v>
-      </c>
-      <c r="F436" t="s">
-        <v>118</v>
-      </c>
-      <c r="G436" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="437" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A437" t="s">
-        <v>61</v>
-      </c>
-      <c r="B437" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C437" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D437" t="s">
-        <v>67</v>
-      </c>
-      <c r="E437" t="s">
-        <v>144</v>
-      </c>
-      <c r="F437" t="s">
-        <v>79</v>
-      </c>
-      <c r="G437" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="438" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A438" t="s">
-        <v>61</v>
-      </c>
-      <c r="B438" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C438" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D438" t="s">
-        <v>67</v>
-      </c>
-      <c r="E438" t="s">
-        <v>144</v>
-      </c>
-      <c r="F438" t="s">
-        <v>118</v>
-      </c>
-      <c r="G438" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="439" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A439" t="s">
-        <v>111</v>
-      </c>
-      <c r="B439" t="s">
-        <v>11</v>
-      </c>
-      <c r="C439" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D439" t="s">
-        <v>67</v>
-      </c>
-      <c r="E439" t="s">
-        <v>144</v>
-      </c>
-      <c r="F439" t="s">
-        <v>79</v>
-      </c>
-      <c r="G439" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="440" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A440" t="s">
-        <v>111</v>
-      </c>
-      <c r="B440" t="s">
-        <v>11</v>
-      </c>
-      <c r="C440" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D440" t="s">
-        <v>67</v>
-      </c>
-      <c r="E440" t="s">
-        <v>144</v>
-      </c>
-      <c r="F440" t="s">
-        <v>118</v>
-      </c>
-      <c r="G440" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="441" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A441" t="s">
-        <v>89</v>
-      </c>
-      <c r="B441" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C441" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D441" t="s">
-        <v>22</v>
-      </c>
-      <c r="E441" t="s">
-        <v>67</v>
-      </c>
-      <c r="F441" t="s">
-        <v>144</v>
-      </c>
-      <c r="G441" t="s">
-        <v>79</v>
-      </c>
-      <c r="H441" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="442" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A442" t="s">
-        <v>89</v>
-      </c>
-      <c r="B442" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C442" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D442" t="s">
-        <v>22</v>
-      </c>
-      <c r="E442" t="s">
-        <v>67</v>
-      </c>
-      <c r="F442" t="s">
-        <v>144</v>
-      </c>
-      <c r="G442" t="s">
-        <v>118</v>
-      </c>
-      <c r="H442" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="443" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A443" t="s">
-        <v>49</v>
-      </c>
-      <c r="B443" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C443" t="s">
-        <v>22</v>
-      </c>
-      <c r="D443" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="E443" t="s">
-        <v>67</v>
-      </c>
-      <c r="F443" t="s">
-        <v>144</v>
-      </c>
-      <c r="G443" t="s">
-        <v>79</v>
-      </c>
-      <c r="H443" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="444" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A444" t="s">
-        <v>49</v>
-      </c>
-      <c r="B444" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C444" t="s">
-        <v>22</v>
-      </c>
-      <c r="D444" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="E444" t="s">
-        <v>67</v>
-      </c>
-      <c r="F444" t="s">
-        <v>144</v>
-      </c>
-      <c r="G444" t="s">
-        <v>118</v>
-      </c>
-      <c r="H444" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="445" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A445" t="s">
-        <v>63</v>
-      </c>
-      <c r="B445" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C445" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D445" t="s">
-        <v>22</v>
-      </c>
-      <c r="E445" t="s">
-        <v>67</v>
-      </c>
-      <c r="F445" t="s">
-        <v>144</v>
-      </c>
-      <c r="G445" t="s">
-        <v>79</v>
-      </c>
-      <c r="H445" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="446" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A446" t="s">
-        <v>63</v>
-      </c>
-      <c r="B446" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C446" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D446" t="s">
-        <v>22</v>
-      </c>
-      <c r="E446" t="s">
-        <v>67</v>
-      </c>
-      <c r="F446" t="s">
-        <v>144</v>
-      </c>
-      <c r="G446" t="s">
-        <v>118</v>
-      </c>
-      <c r="H446" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="447" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A447" t="s">
-        <v>94</v>
-      </c>
-      <c r="B447" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C447" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D447" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="E447" t="s">
-        <v>67</v>
-      </c>
-      <c r="F447" t="s">
-        <v>144</v>
-      </c>
-      <c r="G447" t="s">
-        <v>79</v>
-      </c>
-      <c r="H447" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="448" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A448" t="s">
-        <v>94</v>
-      </c>
-      <c r="B448" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C448" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D448" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="E448" t="s">
-        <v>67</v>
-      </c>
-      <c r="F448" t="s">
-        <v>144</v>
-      </c>
-      <c r="G448" t="s">
-        <v>118</v>
-      </c>
-      <c r="H448" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="449" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A449" t="s">
-        <v>95</v>
-      </c>
-      <c r="B449" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C449" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D449" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E449" t="s">
-        <v>67</v>
-      </c>
-      <c r="F449" t="s">
-        <v>144</v>
-      </c>
-      <c r="G449" t="s">
-        <v>79</v>
-      </c>
-      <c r="H449" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="450" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A450" t="s">
-        <v>95</v>
-      </c>
-      <c r="B450" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C450" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D450" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E450" t="s">
-        <v>67</v>
-      </c>
-      <c r="F450" t="s">
-        <v>144</v>
-      </c>
-      <c r="G450" t="s">
-        <v>118</v>
-      </c>
-      <c r="H450" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="451" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A451" t="s">
-        <v>104</v>
-      </c>
-      <c r="B451" t="s">
-        <v>11</v>
-      </c>
-      <c r="C451" t="s">
-        <v>69</v>
-      </c>
-      <c r="D451" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E451" t="s">
-        <v>67</v>
-      </c>
-      <c r="F451" t="s">
-        <v>144</v>
-      </c>
-      <c r="G451" t="s">
-        <v>79</v>
-      </c>
-      <c r="H451" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="452" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A452" t="s">
-        <v>104</v>
-      </c>
-      <c r="B452" t="s">
-        <v>11</v>
-      </c>
-      <c r="C452" t="s">
-        <v>69</v>
-      </c>
-      <c r="D452" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E452" t="s">
-        <v>67</v>
-      </c>
-      <c r="F452" t="s">
-        <v>144</v>
-      </c>
-      <c r="G452" t="s">
-        <v>118</v>
-      </c>
-      <c r="H452" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="453" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A453" t="s">
-        <v>61</v>
-      </c>
-      <c r="B453" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C453" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D453" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="E453" t="s">
-        <v>67</v>
-      </c>
-      <c r="F453" t="s">
-        <v>144</v>
-      </c>
-      <c r="G453" t="s">
-        <v>79</v>
-      </c>
-      <c r="H453" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="454" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A454" t="s">
-        <v>61</v>
-      </c>
-      <c r="B454" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C454" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D454" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="E454" t="s">
-        <v>67</v>
-      </c>
-      <c r="F454" t="s">
-        <v>144</v>
-      </c>
-      <c r="G454" t="s">
-        <v>118</v>
-      </c>
-      <c r="H454" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="455" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A455" t="s">
-        <v>112</v>
-      </c>
-      <c r="B455" t="s">
-        <v>11</v>
-      </c>
-      <c r="C455" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D455" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E455" t="s">
-        <v>67</v>
-      </c>
-      <c r="F455" t="s">
-        <v>144</v>
-      </c>
-      <c r="G455" t="s">
-        <v>79</v>
-      </c>
-      <c r="H455" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="456" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A456" t="s">
-        <v>112</v>
-      </c>
-      <c r="B456" t="s">
-        <v>11</v>
-      </c>
-      <c r="C456" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D456" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E456" t="s">
-        <v>67</v>
-      </c>
-      <c r="F456" t="s">
-        <v>144</v>
-      </c>
-      <c r="G456" t="s">
-        <v>118</v>
-      </c>
-      <c r="H456" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="457" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A457" t="s">
-        <v>111</v>
-      </c>
-      <c r="B457" t="s">
-        <v>11</v>
-      </c>
-      <c r="C457" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D457" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="E457" t="s">
-        <v>67</v>
-      </c>
-      <c r="F457" t="s">
-        <v>144</v>
-      </c>
-      <c r="G457" t="s">
-        <v>79</v>
-      </c>
-      <c r="H457" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="458" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A458" t="s">
-        <v>111</v>
-      </c>
-      <c r="B458" t="s">
-        <v>11</v>
-      </c>
-      <c r="C458" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D458" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="E458" t="s">
-        <v>67</v>
-      </c>
-      <c r="F458" t="s">
-        <v>144</v>
-      </c>
-      <c r="G458" t="s">
-        <v>118</v>
-      </c>
-      <c r="H458" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="459" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A459" t="s">
-        <v>89</v>
-      </c>
-      <c r="B459" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C459" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D459" t="s">
-        <v>22</v>
-      </c>
-      <c r="E459" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="F459" t="s">
-        <v>67</v>
-      </c>
-      <c r="G459" t="s">
-        <v>144</v>
-      </c>
-      <c r="H459" t="s">
-        <v>79</v>
-      </c>
-      <c r="I459" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="460" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A460" t="s">
-        <v>89</v>
-      </c>
-      <c r="B460" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C460" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D460" t="s">
-        <v>22</v>
-      </c>
-      <c r="E460" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="F460" t="s">
-        <v>67</v>
-      </c>
-      <c r="G460" t="s">
-        <v>144</v>
-      </c>
-      <c r="H460" t="s">
-        <v>118</v>
-      </c>
-      <c r="I460" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="461" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A461" t="s">
-        <v>90</v>
-      </c>
-      <c r="B461" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C461" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D461" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E461" t="s">
-        <v>22</v>
-      </c>
-      <c r="F461" t="s">
-        <v>67</v>
-      </c>
-      <c r="G461" t="s">
-        <v>144</v>
-      </c>
-      <c r="H461" t="s">
-        <v>79</v>
-      </c>
-      <c r="I461" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="462" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A462" t="s">
-        <v>90</v>
-      </c>
-      <c r="B462" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C462" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D462" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E462" t="s">
-        <v>22</v>
-      </c>
-      <c r="F462" t="s">
-        <v>67</v>
-      </c>
-      <c r="G462" t="s">
-        <v>144</v>
-      </c>
-      <c r="H462" t="s">
-        <v>118</v>
-      </c>
-      <c r="I462" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="463" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A463" t="s">
-        <v>63</v>
-      </c>
-      <c r="B463" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C463" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D463" t="s">
-        <v>22</v>
-      </c>
-      <c r="E463" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="F463" t="s">
-        <v>67</v>
-      </c>
-      <c r="G463" t="s">
-        <v>144</v>
-      </c>
-      <c r="H463" t="s">
-        <v>79</v>
-      </c>
-      <c r="I463" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="464" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A464" t="s">
-        <v>63</v>
-      </c>
-      <c r="B464" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C464" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D464" t="s">
-        <v>22</v>
-      </c>
-      <c r="E464" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="F464" t="s">
-        <v>67</v>
-      </c>
-      <c r="G464" t="s">
-        <v>144</v>
-      </c>
-      <c r="H464" t="s">
-        <v>118</v>
-      </c>
-      <c r="I464" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="465" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A465" t="s">
-        <v>95</v>
-      </c>
-      <c r="B465" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C465" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D465" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E465" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="F465" t="s">
-        <v>67</v>
-      </c>
-      <c r="G465" t="s">
-        <v>144</v>
-      </c>
-      <c r="H465" t="s">
-        <v>118</v>
-      </c>
-      <c r="I465" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="466" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A466" t="s">
-        <v>95</v>
-      </c>
-      <c r="B466" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C466" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D466" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E466" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="F466" t="s">
-        <v>67</v>
-      </c>
-      <c r="G466" t="s">
-        <v>144</v>
-      </c>
-      <c r="H466" t="s">
-        <v>79</v>
-      </c>
-      <c r="I466" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="467" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A467" t="s">
-        <v>105</v>
-      </c>
-      <c r="B467" t="s">
-        <v>11</v>
-      </c>
-      <c r="C467" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D467" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E467" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F467" t="s">
-        <v>67</v>
-      </c>
-      <c r="G467" t="s">
-        <v>144</v>
-      </c>
-      <c r="H467" t="s">
-        <v>79</v>
-      </c>
-      <c r="I467" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="468" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A468" t="s">
-        <v>105</v>
-      </c>
-      <c r="B468" t="s">
-        <v>11</v>
-      </c>
-      <c r="C468" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D468" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E468" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F468" t="s">
-        <v>67</v>
-      </c>
-      <c r="G468" t="s">
-        <v>144</v>
-      </c>
-      <c r="H468" t="s">
-        <v>118</v>
-      </c>
-      <c r="I468" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="469" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A469" t="s">
-        <v>104</v>
-      </c>
-      <c r="B469" t="s">
-        <v>11</v>
-      </c>
-      <c r="C469" t="s">
-        <v>69</v>
-      </c>
-      <c r="D469" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E469" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="F469" t="s">
-        <v>67</v>
-      </c>
-      <c r="G469" t="s">
-        <v>144</v>
-      </c>
-      <c r="H469" t="s">
-        <v>79</v>
-      </c>
-      <c r="I469" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="470" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A470" t="s">
-        <v>104</v>
-      </c>
-      <c r="B470" t="s">
-        <v>11</v>
-      </c>
-      <c r="C470" t="s">
-        <v>69</v>
-      </c>
-      <c r="D470" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E470" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="F470" t="s">
-        <v>67</v>
-      </c>
-      <c r="G470" t="s">
-        <v>144</v>
-      </c>
-      <c r="H470" t="s">
-        <v>118</v>
-      </c>
-      <c r="I470" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="471" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A471" t="s">
-        <v>112</v>
-      </c>
-      <c r="B471" t="s">
-        <v>11</v>
-      </c>
-      <c r="C471" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D471" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E471" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="F471" t="s">
-        <v>67</v>
-      </c>
-      <c r="G471" t="s">
-        <v>144</v>
-      </c>
-      <c r="H471" t="s">
-        <v>79</v>
-      </c>
-      <c r="I471" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="472" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A472" t="s">
-        <v>112</v>
-      </c>
-      <c r="B472" t="s">
-        <v>11</v>
-      </c>
-      <c r="C472" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D472" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E472" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="F472" t="s">
-        <v>67</v>
-      </c>
-      <c r="G472" t="s">
-        <v>144</v>
-      </c>
-      <c r="H472" t="s">
-        <v>118</v>
-      </c>
-      <c r="I472" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="473" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A473" t="s">
-        <v>105</v>
-      </c>
-      <c r="B473" t="s">
-        <v>11</v>
-      </c>
-      <c r="C473" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D473" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E473" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F473" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="G473" t="s">
-        <v>67</v>
-      </c>
-      <c r="H473" t="s">
-        <v>144</v>
-      </c>
-      <c r="I473" t="s">
-        <v>79</v>
-      </c>
-      <c r="J473" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="474" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A474" t="s">
-        <v>105</v>
-      </c>
-      <c r="B474" t="s">
-        <v>11</v>
-      </c>
-      <c r="C474" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D474" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E474" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F474" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="G474" t="s">
-        <v>67</v>
-      </c>
-      <c r="H474" t="s">
-        <v>144</v>
-      </c>
-      <c r="I474" t="s">
-        <v>118</v>
-      </c>
-      <c r="J474" t="s">
-        <v>119</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:J474" xr:uid="{107DD696-A5A6-CB45-B2DD-8D2A6C9062E3}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:J428">
-    <sortCondition ref="A1:A428"/>
-    <sortCondition ref="B1:B428"/>
-    <sortCondition ref="C1:C428"/>
-    <sortCondition ref="D1:D428"/>
-    <sortCondition ref="E1:E428"/>
-    <sortCondition ref="F1:F428"/>
-    <sortCondition ref="G1:G428"/>
-    <sortCondition ref="H1:H428"/>
+  <autoFilter ref="A1:J435" xr:uid="{107DD696-A5A6-CB45-B2DD-8D2A6C9062E3}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:J389">
+    <sortCondition ref="A1:A389"/>
+    <sortCondition ref="B1:B389"/>
+    <sortCondition ref="C1:C389"/>
+    <sortCondition ref="D1:D389"/>
+    <sortCondition ref="E1:E389"/>
+    <sortCondition ref="F1:F389"/>
+    <sortCondition ref="G1:G389"/>
+    <sortCondition ref="H1:H389"/>
   </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/DSBot/kb.xlsx
+++ b/DSBot/kb.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sarapido/Desktop/DSBot/DSBot/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F30F92A7-CE0A-4B4B-8B04-2765750BD568}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C0C8272-9C9B-F34B-9FE8-887FB04E037D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2980" yWindow="500" windowWidth="28040" windowHeight="17440" activeTab="2" xr2:uid="{B2A427CD-3A3B-AB4F-8475-A6742BF1F99B}"/>
   </bookViews>
@@ -21,7 +21,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Foglio2!$A$1:$J$435</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Foglio4!$A$1:$J$595</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Foglio4!$A$1:$J$672</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7640" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8236" uniqueCount="129">
   <si>
     <t>ds</t>
   </si>
@@ -427,6 +427,9 @@
   <si>
     <t>autoClassification</t>
   </si>
+  <si>
+    <t>autoRegression</t>
+  </si>
 </sst>
 </file>
 
@@ -11809,10 +11812,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7D2990A-F429-0248-9892-0EF6030E3150}">
-  <dimension ref="A1:J595"/>
+  <dimension ref="A1:J672"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H592" sqref="H592:H595"/>
+    <sheetView tabSelected="1" topLeftCell="A569" workbookViewId="0">
+      <selection activeCell="H675" sqref="H675"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -25735,7 +25738,1950 @@
         <v>37</v>
       </c>
     </row>
+    <row r="596" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A596" t="s">
+        <v>25</v>
+      </c>
+      <c r="B596" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C596" t="s">
+        <v>48</v>
+      </c>
+      <c r="D596" t="s">
+        <v>128</v>
+      </c>
+      <c r="E596" t="s">
+        <v>60</v>
+      </c>
+      <c r="F596" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="597" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A597" t="s">
+        <v>25</v>
+      </c>
+      <c r="B597" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C597" t="s">
+        <v>48</v>
+      </c>
+      <c r="D597" t="s">
+        <v>128</v>
+      </c>
+      <c r="E597" t="s">
+        <v>99</v>
+      </c>
+      <c r="F597" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="598" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A598" t="s">
+        <v>35</v>
+      </c>
+      <c r="B598" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C598" t="s">
+        <v>48</v>
+      </c>
+      <c r="D598" t="s">
+        <v>128</v>
+      </c>
+      <c r="E598" t="s">
+        <v>60</v>
+      </c>
+      <c r="F598" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="599" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A599" t="s">
+        <v>35</v>
+      </c>
+      <c r="B599" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C599" t="s">
+        <v>48</v>
+      </c>
+      <c r="D599" t="s">
+        <v>128</v>
+      </c>
+      <c r="E599" t="s">
+        <v>99</v>
+      </c>
+      <c r="F599" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="600" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A600" t="s">
+        <v>42</v>
+      </c>
+      <c r="B600" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C600" t="s">
+        <v>48</v>
+      </c>
+      <c r="D600" t="s">
+        <v>128</v>
+      </c>
+      <c r="E600" t="s">
+        <v>60</v>
+      </c>
+      <c r="F600" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="601" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A601" t="s">
+        <v>42</v>
+      </c>
+      <c r="B601" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C601" t="s">
+        <v>48</v>
+      </c>
+      <c r="D601" t="s">
+        <v>128</v>
+      </c>
+      <c r="E601" t="s">
+        <v>99</v>
+      </c>
+      <c r="F601" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="602" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A602" t="s">
+        <v>89</v>
+      </c>
+      <c r="B602" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C602" t="s">
+        <v>48</v>
+      </c>
+      <c r="D602" t="s">
+        <v>128</v>
+      </c>
+      <c r="E602" t="s">
+        <v>60</v>
+      </c>
+      <c r="F602" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="603" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A603" t="s">
+        <v>89</v>
+      </c>
+      <c r="B603" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C603" t="s">
+        <v>48</v>
+      </c>
+      <c r="D603" t="s">
+        <v>128</v>
+      </c>
+      <c r="E603" t="s">
+        <v>99</v>
+      </c>
+      <c r="F603" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="604" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A604" t="s">
+        <v>26</v>
+      </c>
+      <c r="B604" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C604" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D604" t="s">
+        <v>48</v>
+      </c>
+      <c r="E604" t="s">
+        <v>128</v>
+      </c>
+      <c r="F604" t="s">
+        <v>60</v>
+      </c>
+      <c r="G604" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="605" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A605" t="s">
+        <v>26</v>
+      </c>
+      <c r="B605" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C605" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D605" t="s">
+        <v>48</v>
+      </c>
+      <c r="E605" t="s">
+        <v>128</v>
+      </c>
+      <c r="F605" t="s">
+        <v>99</v>
+      </c>
+      <c r="G605" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="606" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A606" t="s">
+        <v>36</v>
+      </c>
+      <c r="B606" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C606" t="s">
+        <v>22</v>
+      </c>
+      <c r="D606" t="s">
+        <v>48</v>
+      </c>
+      <c r="E606" t="s">
+        <v>128</v>
+      </c>
+      <c r="F606" t="s">
+        <v>60</v>
+      </c>
+      <c r="G606" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="607" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A607" t="s">
+        <v>36</v>
+      </c>
+      <c r="B607" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C607" t="s">
+        <v>22</v>
+      </c>
+      <c r="D607" t="s">
+        <v>48</v>
+      </c>
+      <c r="E607" t="s">
+        <v>128</v>
+      </c>
+      <c r="F607" t="s">
+        <v>99</v>
+      </c>
+      <c r="G607" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="608" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A608" t="s">
+        <v>74</v>
+      </c>
+      <c r="B608" t="s">
+        <v>50</v>
+      </c>
+      <c r="C608" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D608" t="s">
+        <v>48</v>
+      </c>
+      <c r="E608" t="s">
+        <v>128</v>
+      </c>
+      <c r="F608" t="s">
+        <v>60</v>
+      </c>
+      <c r="G608" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="609" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A609" t="s">
+        <v>74</v>
+      </c>
+      <c r="B609" t="s">
+        <v>50</v>
+      </c>
+      <c r="C609" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D609" t="s">
+        <v>48</v>
+      </c>
+      <c r="E609" t="s">
+        <v>128</v>
+      </c>
+      <c r="F609" t="s">
+        <v>99</v>
+      </c>
+      <c r="G609" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="610" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A610" t="s">
+        <v>75</v>
+      </c>
+      <c r="B610" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C610" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D610" t="s">
+        <v>48</v>
+      </c>
+      <c r="E610" t="s">
+        <v>128</v>
+      </c>
+      <c r="F610" t="s">
+        <v>60</v>
+      </c>
+      <c r="G610" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="611" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A611" t="s">
+        <v>75</v>
+      </c>
+      <c r="B611" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C611" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D611" t="s">
+        <v>48</v>
+      </c>
+      <c r="E611" t="s">
+        <v>128</v>
+      </c>
+      <c r="F611" t="s">
+        <v>99</v>
+      </c>
+      <c r="G611" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="612" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A612" t="s">
+        <v>35</v>
+      </c>
+      <c r="B612" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C612" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D612" t="s">
+        <v>48</v>
+      </c>
+      <c r="E612" t="s">
+        <v>128</v>
+      </c>
+      <c r="F612" t="s">
+        <v>60</v>
+      </c>
+      <c r="G612" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="613" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A613" t="s">
+        <v>35</v>
+      </c>
+      <c r="B613" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C613" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D613" t="s">
+        <v>48</v>
+      </c>
+      <c r="E613" t="s">
+        <v>128</v>
+      </c>
+      <c r="F613" t="s">
+        <v>99</v>
+      </c>
+      <c r="G613" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="614" spans="1:7" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A614" t="s">
+        <v>42</v>
+      </c>
+      <c r="B614" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C614" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D614" t="s">
+        <v>48</v>
+      </c>
+      <c r="E614" t="s">
+        <v>128</v>
+      </c>
+      <c r="F614" t="s">
+        <v>60</v>
+      </c>
+      <c r="G614" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="615" spans="1:7" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A615" t="s">
+        <v>42</v>
+      </c>
+      <c r="B615" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C615" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D615" t="s">
+        <v>48</v>
+      </c>
+      <c r="E615" t="s">
+        <v>128</v>
+      </c>
+      <c r="F615" t="s">
+        <v>99</v>
+      </c>
+      <c r="G615" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="616" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A616" t="s">
+        <v>42</v>
+      </c>
+      <c r="B616" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C616" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D616" t="s">
+        <v>48</v>
+      </c>
+      <c r="E616" t="s">
+        <v>128</v>
+      </c>
+      <c r="F616" t="s">
+        <v>60</v>
+      </c>
+      <c r="G616" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="617" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A617" t="s">
+        <v>42</v>
+      </c>
+      <c r="B617" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C617" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D617" t="s">
+        <v>48</v>
+      </c>
+      <c r="E617" t="s">
+        <v>128</v>
+      </c>
+      <c r="F617" t="s">
+        <v>99</v>
+      </c>
+      <c r="G617" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="618" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A618" t="s">
+        <v>92</v>
+      </c>
+      <c r="B618" t="s">
+        <v>11</v>
+      </c>
+      <c r="C618" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D618" t="s">
+        <v>48</v>
+      </c>
+      <c r="E618" t="s">
+        <v>128</v>
+      </c>
+      <c r="F618" t="s">
+        <v>60</v>
+      </c>
+      <c r="G618" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="619" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A619" t="s">
+        <v>92</v>
+      </c>
+      <c r="B619" t="s">
+        <v>11</v>
+      </c>
+      <c r="C619" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D619" t="s">
+        <v>48</v>
+      </c>
+      <c r="E619" t="s">
+        <v>128</v>
+      </c>
+      <c r="F619" t="s">
+        <v>99</v>
+      </c>
+      <c r="G619" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="620" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A620" t="s">
+        <v>38</v>
+      </c>
+      <c r="B620" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C620" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D620" t="s">
+        <v>48</v>
+      </c>
+      <c r="E620" t="s">
+        <v>128</v>
+      </c>
+      <c r="F620" t="s">
+        <v>60</v>
+      </c>
+      <c r="G620" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="621" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A621" t="s">
+        <v>38</v>
+      </c>
+      <c r="B621" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C621" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D621" t="s">
+        <v>48</v>
+      </c>
+      <c r="E621" t="s">
+        <v>128</v>
+      </c>
+      <c r="F621" t="s">
+        <v>99</v>
+      </c>
+      <c r="G621" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="622" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A622" t="s">
+        <v>89</v>
+      </c>
+      <c r="B622" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C622" t="s">
+        <v>28</v>
+      </c>
+      <c r="D622" t="s">
+        <v>48</v>
+      </c>
+      <c r="E622" t="s">
+        <v>128</v>
+      </c>
+      <c r="F622" t="s">
+        <v>60</v>
+      </c>
+      <c r="G622" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="623" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A623" t="s">
+        <v>89</v>
+      </c>
+      <c r="B623" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C623" t="s">
+        <v>28</v>
+      </c>
+      <c r="D623" t="s">
+        <v>48</v>
+      </c>
+      <c r="E623" t="s">
+        <v>128</v>
+      </c>
+      <c r="F623" t="s">
+        <v>99</v>
+      </c>
+      <c r="G623" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="624" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A624" t="s">
+        <v>94</v>
+      </c>
+      <c r="B624" t="s">
+        <v>11</v>
+      </c>
+      <c r="C624" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D624" t="s">
+        <v>48</v>
+      </c>
+      <c r="E624" t="s">
+        <v>128</v>
+      </c>
+      <c r="F624" t="s">
+        <v>60</v>
+      </c>
+      <c r="G624" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="625" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A625" t="s">
+        <v>94</v>
+      </c>
+      <c r="B625" t="s">
+        <v>11</v>
+      </c>
+      <c r="C625" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D625" t="s">
+        <v>48</v>
+      </c>
+      <c r="E625" t="s">
+        <v>128</v>
+      </c>
+      <c r="F625" t="s">
+        <v>99</v>
+      </c>
+      <c r="G625" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="626" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A626" t="s">
+        <v>91</v>
+      </c>
+      <c r="B626" t="s">
+        <v>11</v>
+      </c>
+      <c r="C626" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D626" t="s">
+        <v>48</v>
+      </c>
+      <c r="E626" t="s">
+        <v>128</v>
+      </c>
+      <c r="F626" t="s">
+        <v>60</v>
+      </c>
+      <c r="G626" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="627" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A627" t="s">
+        <v>91</v>
+      </c>
+      <c r="B627" t="s">
+        <v>11</v>
+      </c>
+      <c r="C627" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D627" t="s">
+        <v>48</v>
+      </c>
+      <c r="E627" t="s">
+        <v>128</v>
+      </c>
+      <c r="F627" t="s">
+        <v>99</v>
+      </c>
+      <c r="G627" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="628" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A628" t="s">
+        <v>69</v>
+      </c>
+      <c r="B628" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C628" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D628" t="s">
+        <v>22</v>
+      </c>
+      <c r="E628" t="s">
+        <v>48</v>
+      </c>
+      <c r="F628" t="s">
+        <v>128</v>
+      </c>
+      <c r="G628" t="s">
+        <v>99</v>
+      </c>
+      <c r="H628" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="629" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A629" t="s">
+        <v>70</v>
+      </c>
+      <c r="B629" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C629" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D629" t="s">
+        <v>22</v>
+      </c>
+      <c r="E629" t="s">
+        <v>48</v>
+      </c>
+      <c r="F629" t="s">
+        <v>128</v>
+      </c>
+      <c r="G629" t="s">
+        <v>60</v>
+      </c>
+      <c r="H629" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="630" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A630" t="s">
+        <v>70</v>
+      </c>
+      <c r="B630" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C630" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D630" t="s">
+        <v>22</v>
+      </c>
+      <c r="E630" t="s">
+        <v>48</v>
+      </c>
+      <c r="F630" t="s">
+        <v>128</v>
+      </c>
+      <c r="G630" t="s">
+        <v>99</v>
+      </c>
+      <c r="H630" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="631" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A631" t="s">
+        <v>36</v>
+      </c>
+      <c r="B631" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C631" t="s">
+        <v>22</v>
+      </c>
+      <c r="D631" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E631" t="s">
+        <v>48</v>
+      </c>
+      <c r="F631" t="s">
+        <v>128</v>
+      </c>
+      <c r="G631" t="s">
+        <v>60</v>
+      </c>
+      <c r="H631" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="632" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A632" t="s">
+        <v>36</v>
+      </c>
+      <c r="B632" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C632" t="s">
+        <v>22</v>
+      </c>
+      <c r="D632" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E632" t="s">
+        <v>48</v>
+      </c>
+      <c r="F632" t="s">
+        <v>128</v>
+      </c>
+      <c r="G632" t="s">
+        <v>99</v>
+      </c>
+      <c r="H632" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="633" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A633" t="s">
+        <v>44</v>
+      </c>
+      <c r="B633" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C633" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D633" t="s">
+        <v>22</v>
+      </c>
+      <c r="E633" t="s">
+        <v>48</v>
+      </c>
+      <c r="F633" t="s">
+        <v>128</v>
+      </c>
+      <c r="G633" t="s">
+        <v>60</v>
+      </c>
+      <c r="H633" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="634" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A634" t="s">
+        <v>44</v>
+      </c>
+      <c r="B634" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C634" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D634" t="s">
+        <v>22</v>
+      </c>
+      <c r="E634" t="s">
+        <v>48</v>
+      </c>
+      <c r="F634" t="s">
+        <v>128</v>
+      </c>
+      <c r="G634" t="s">
+        <v>99</v>
+      </c>
+      <c r="H634" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="635" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A635" t="s">
+        <v>75</v>
+      </c>
+      <c r="B635" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C635" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D635" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E635" t="s">
+        <v>48</v>
+      </c>
+      <c r="F635" t="s">
+        <v>128</v>
+      </c>
+      <c r="G635" t="s">
+        <v>60</v>
+      </c>
+      <c r="H635" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="636" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A636" t="s">
+        <v>75</v>
+      </c>
+      <c r="B636" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C636" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D636" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E636" t="s">
+        <v>48</v>
+      </c>
+      <c r="F636" t="s">
+        <v>128</v>
+      </c>
+      <c r="G636" t="s">
+        <v>99</v>
+      </c>
+      <c r="H636" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="637" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A637" t="s">
+        <v>76</v>
+      </c>
+      <c r="B637" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C637" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D637" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E637" t="s">
+        <v>48</v>
+      </c>
+      <c r="F637" t="s">
+        <v>128</v>
+      </c>
+      <c r="G637" t="s">
+        <v>60</v>
+      </c>
+      <c r="H637" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="638" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A638" t="s">
+        <v>76</v>
+      </c>
+      <c r="B638" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C638" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D638" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E638" t="s">
+        <v>48</v>
+      </c>
+      <c r="F638" t="s">
+        <v>128</v>
+      </c>
+      <c r="G638" t="s">
+        <v>99</v>
+      </c>
+      <c r="H638" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="639" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A639" t="s">
+        <v>85</v>
+      </c>
+      <c r="B639" t="s">
+        <v>11</v>
+      </c>
+      <c r="C639" t="s">
+        <v>50</v>
+      </c>
+      <c r="D639" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E639" t="s">
+        <v>48</v>
+      </c>
+      <c r="F639" t="s">
+        <v>128</v>
+      </c>
+      <c r="G639" t="s">
+        <v>60</v>
+      </c>
+      <c r="H639" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="640" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A640" t="s">
+        <v>85</v>
+      </c>
+      <c r="B640" t="s">
+        <v>11</v>
+      </c>
+      <c r="C640" t="s">
+        <v>50</v>
+      </c>
+      <c r="D640" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E640" t="s">
+        <v>48</v>
+      </c>
+      <c r="F640" t="s">
+        <v>128</v>
+      </c>
+      <c r="G640" t="s">
+        <v>99</v>
+      </c>
+      <c r="H640" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="641" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A641" t="s">
+        <v>77</v>
+      </c>
+      <c r="B641" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C641" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D641" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E641" t="s">
+        <v>48</v>
+      </c>
+      <c r="F641" t="s">
+        <v>128</v>
+      </c>
+      <c r="G641" t="s">
+        <v>60</v>
+      </c>
+      <c r="H641" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="642" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A642" t="s">
+        <v>77</v>
+      </c>
+      <c r="B642" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C642" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D642" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E642" t="s">
+        <v>48</v>
+      </c>
+      <c r="F642" t="s">
+        <v>128</v>
+      </c>
+      <c r="G642" t="s">
+        <v>99</v>
+      </c>
+      <c r="H642" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="643" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A643" t="s">
+        <v>78</v>
+      </c>
+      <c r="B643" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C643" t="s">
+        <v>11</v>
+      </c>
+      <c r="D643" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E643" t="s">
+        <v>48</v>
+      </c>
+      <c r="F643" t="s">
+        <v>128</v>
+      </c>
+      <c r="G643" t="s">
+        <v>60</v>
+      </c>
+      <c r="H643" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="644" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A644" t="s">
+        <v>78</v>
+      </c>
+      <c r="B644" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C644" t="s">
+        <v>11</v>
+      </c>
+      <c r="D644" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E644" t="s">
+        <v>48</v>
+      </c>
+      <c r="F644" t="s">
+        <v>128</v>
+      </c>
+      <c r="G644" t="s">
+        <v>99</v>
+      </c>
+      <c r="H644" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="645" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A645" t="s">
+        <v>78</v>
+      </c>
+      <c r="B645" t="s">
+        <v>11</v>
+      </c>
+      <c r="C645" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D645" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E645" t="s">
+        <v>48</v>
+      </c>
+      <c r="F645" t="s">
+        <v>128</v>
+      </c>
+      <c r="G645" t="s">
+        <v>60</v>
+      </c>
+      <c r="H645" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="646" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A646" t="s">
+        <v>78</v>
+      </c>
+      <c r="B646" t="s">
+        <v>11</v>
+      </c>
+      <c r="C646" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D646" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E646" t="s">
+        <v>48</v>
+      </c>
+      <c r="F646" t="s">
+        <v>128</v>
+      </c>
+      <c r="G646" t="s">
+        <v>99</v>
+      </c>
+      <c r="H646" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="647" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A647" t="s">
+        <v>42</v>
+      </c>
+      <c r="B647" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C647" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D647" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E647" t="s">
+        <v>48</v>
+      </c>
+      <c r="F647" t="s">
+        <v>128</v>
+      </c>
+      <c r="G647" t="s">
+        <v>60</v>
+      </c>
+      <c r="H647" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="648" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A648" t="s">
+        <v>42</v>
+      </c>
+      <c r="B648" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C648" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D648" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E648" t="s">
+        <v>48</v>
+      </c>
+      <c r="F648" t="s">
+        <v>128</v>
+      </c>
+      <c r="G648" t="s">
+        <v>99</v>
+      </c>
+      <c r="H648" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="649" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A649" t="s">
+        <v>93</v>
+      </c>
+      <c r="B649" t="s">
+        <v>11</v>
+      </c>
+      <c r="C649" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D649" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E649" t="s">
+        <v>48</v>
+      </c>
+      <c r="F649" t="s">
+        <v>128</v>
+      </c>
+      <c r="G649" t="s">
+        <v>60</v>
+      </c>
+      <c r="H649" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="650" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A650" t="s">
+        <v>93</v>
+      </c>
+      <c r="B650" t="s">
+        <v>11</v>
+      </c>
+      <c r="C650" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D650" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E650" t="s">
+        <v>48</v>
+      </c>
+      <c r="F650" t="s">
+        <v>128</v>
+      </c>
+      <c r="G650" t="s">
+        <v>99</v>
+      </c>
+      <c r="H650" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="651" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A651" t="s">
+        <v>92</v>
+      </c>
+      <c r="B651" t="s">
+        <v>11</v>
+      </c>
+      <c r="C651" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D651" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E651" t="s">
+        <v>48</v>
+      </c>
+      <c r="F651" t="s">
+        <v>128</v>
+      </c>
+      <c r="G651" t="s">
+        <v>60</v>
+      </c>
+      <c r="H651" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="652" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A652" t="s">
+        <v>92</v>
+      </c>
+      <c r="B652" t="s">
+        <v>11</v>
+      </c>
+      <c r="C652" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D652" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E652" t="s">
+        <v>48</v>
+      </c>
+      <c r="F652" t="s">
+        <v>128</v>
+      </c>
+      <c r="G652" t="s">
+        <v>99</v>
+      </c>
+      <c r="H652" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="653" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A653" t="s">
+        <v>94</v>
+      </c>
+      <c r="B653" t="s">
+        <v>11</v>
+      </c>
+      <c r="C653" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D653" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E653" t="s">
+        <v>48</v>
+      </c>
+      <c r="F653" t="s">
+        <v>128</v>
+      </c>
+      <c r="G653" t="s">
+        <v>60</v>
+      </c>
+      <c r="H653" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="654" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A654" t="s">
+        <v>94</v>
+      </c>
+      <c r="B654" t="s">
+        <v>11</v>
+      </c>
+      <c r="C654" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D654" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E654" t="s">
+        <v>48</v>
+      </c>
+      <c r="F654" t="s">
+        <v>128</v>
+      </c>
+      <c r="G654" t="s">
+        <v>99</v>
+      </c>
+      <c r="H654" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="655" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A655" t="s">
+        <v>70</v>
+      </c>
+      <c r="B655" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C655" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D655" t="s">
+        <v>22</v>
+      </c>
+      <c r="E655" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F655" t="s">
+        <v>48</v>
+      </c>
+      <c r="G655" t="s">
+        <v>128</v>
+      </c>
+      <c r="H655" t="s">
+        <v>60</v>
+      </c>
+      <c r="I655" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="656" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A656" t="s">
+        <v>70</v>
+      </c>
+      <c r="B656" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C656" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D656" t="s">
+        <v>22</v>
+      </c>
+      <c r="E656" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F656" t="s">
+        <v>48</v>
+      </c>
+      <c r="G656" t="s">
+        <v>128</v>
+      </c>
+      <c r="H656" t="s">
+        <v>99</v>
+      </c>
+      <c r="I656" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="657" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A657" t="s">
+        <v>71</v>
+      </c>
+      <c r="B657" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C657" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D657" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E657" t="s">
+        <v>22</v>
+      </c>
+      <c r="F657" t="s">
+        <v>48</v>
+      </c>
+      <c r="G657" t="s">
+        <v>128</v>
+      </c>
+      <c r="H657" t="s">
+        <v>60</v>
+      </c>
+      <c r="I657" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="658" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A658" t="s">
+        <v>71</v>
+      </c>
+      <c r="B658" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C658" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D658" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E658" t="s">
+        <v>22</v>
+      </c>
+      <c r="F658" t="s">
+        <v>48</v>
+      </c>
+      <c r="G658" t="s">
+        <v>128</v>
+      </c>
+      <c r="H658" t="s">
+        <v>99</v>
+      </c>
+      <c r="I658" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="659" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A659" t="s">
+        <v>44</v>
+      </c>
+      <c r="B659" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C659" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D659" t="s">
+        <v>22</v>
+      </c>
+      <c r="E659" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F659" t="s">
+        <v>48</v>
+      </c>
+      <c r="G659" t="s">
+        <v>128</v>
+      </c>
+      <c r="H659" t="s">
+        <v>60</v>
+      </c>
+      <c r="I659" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="660" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A660" t="s">
+        <v>44</v>
+      </c>
+      <c r="B660" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C660" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D660" t="s">
+        <v>22</v>
+      </c>
+      <c r="E660" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F660" t="s">
+        <v>48</v>
+      </c>
+      <c r="G660" t="s">
+        <v>128</v>
+      </c>
+      <c r="H660" t="s">
+        <v>99</v>
+      </c>
+      <c r="I660" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="661" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A661" t="s">
+        <v>76</v>
+      </c>
+      <c r="B661" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C661" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D661" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E661" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F661" t="s">
+        <v>48</v>
+      </c>
+      <c r="G661" t="s">
+        <v>128</v>
+      </c>
+      <c r="H661" t="s">
+        <v>99</v>
+      </c>
+      <c r="I661" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="662" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A662" t="s">
+        <v>76</v>
+      </c>
+      <c r="B662" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C662" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D662" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E662" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F662" t="s">
+        <v>48</v>
+      </c>
+      <c r="G662" t="s">
+        <v>128</v>
+      </c>
+      <c r="H662" t="s">
+        <v>60</v>
+      </c>
+      <c r="I662" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="663" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A663" t="s">
+        <v>86</v>
+      </c>
+      <c r="B663" t="s">
+        <v>11</v>
+      </c>
+      <c r="C663" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D663" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E663" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F663" t="s">
+        <v>48</v>
+      </c>
+      <c r="G663" t="s">
+        <v>128</v>
+      </c>
+      <c r="H663" t="s">
+        <v>60</v>
+      </c>
+      <c r="I663" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="664" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A664" t="s">
+        <v>86</v>
+      </c>
+      <c r="B664" t="s">
+        <v>11</v>
+      </c>
+      <c r="C664" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D664" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E664" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F664" t="s">
+        <v>48</v>
+      </c>
+      <c r="G664" t="s">
+        <v>128</v>
+      </c>
+      <c r="H664" t="s">
+        <v>99</v>
+      </c>
+      <c r="I664" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="665" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A665" t="s">
+        <v>85</v>
+      </c>
+      <c r="B665" t="s">
+        <v>11</v>
+      </c>
+      <c r="C665" t="s">
+        <v>50</v>
+      </c>
+      <c r="D665" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E665" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F665" t="s">
+        <v>48</v>
+      </c>
+      <c r="G665" t="s">
+        <v>128</v>
+      </c>
+      <c r="H665" t="s">
+        <v>60</v>
+      </c>
+      <c r="I665" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="666" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A666" t="s">
+        <v>85</v>
+      </c>
+      <c r="B666" t="s">
+        <v>11</v>
+      </c>
+      <c r="C666" t="s">
+        <v>50</v>
+      </c>
+      <c r="D666" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E666" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F666" t="s">
+        <v>48</v>
+      </c>
+      <c r="G666" t="s">
+        <v>128</v>
+      </c>
+      <c r="H666" t="s">
+        <v>99</v>
+      </c>
+      <c r="I666" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="667" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A667" t="s">
+        <v>87</v>
+      </c>
+      <c r="B667" t="s">
+        <v>11</v>
+      </c>
+      <c r="C667" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D667" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E667" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F667" t="s">
+        <v>48</v>
+      </c>
+      <c r="G667" t="s">
+        <v>128</v>
+      </c>
+      <c r="H667" t="s">
+        <v>60</v>
+      </c>
+      <c r="I667" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="668" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A668" t="s">
+        <v>87</v>
+      </c>
+      <c r="B668" t="s">
+        <v>11</v>
+      </c>
+      <c r="C668" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D668" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E668" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F668" t="s">
+        <v>48</v>
+      </c>
+      <c r="G668" t="s">
+        <v>128</v>
+      </c>
+      <c r="H668" t="s">
+        <v>99</v>
+      </c>
+      <c r="I668" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="669" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A669" t="s">
+        <v>93</v>
+      </c>
+      <c r="B669" t="s">
+        <v>11</v>
+      </c>
+      <c r="C669" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D669" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E669" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F669" t="s">
+        <v>48</v>
+      </c>
+      <c r="G669" t="s">
+        <v>128</v>
+      </c>
+      <c r="H669" t="s">
+        <v>60</v>
+      </c>
+      <c r="I669" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="670" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A670" t="s">
+        <v>93</v>
+      </c>
+      <c r="B670" t="s">
+        <v>11</v>
+      </c>
+      <c r="C670" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D670" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E670" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F670" t="s">
+        <v>48</v>
+      </c>
+      <c r="G670" t="s">
+        <v>128</v>
+      </c>
+      <c r="H670" t="s">
+        <v>99</v>
+      </c>
+      <c r="I670" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="671" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A671" t="s">
+        <v>86</v>
+      </c>
+      <c r="B671" t="s">
+        <v>11</v>
+      </c>
+      <c r="C671" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D671" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E671" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F671" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G671" t="s">
+        <v>48</v>
+      </c>
+      <c r="H671" t="s">
+        <v>128</v>
+      </c>
+      <c r="I671" t="s">
+        <v>60</v>
+      </c>
+      <c r="J671" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="672" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A672" t="s">
+        <v>86</v>
+      </c>
+      <c r="B672" t="s">
+        <v>11</v>
+      </c>
+      <c r="C672" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D672" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E672" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F672" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G672" t="s">
+        <v>48</v>
+      </c>
+      <c r="H672" t="s">
+        <v>128</v>
+      </c>
+      <c r="I672" t="s">
+        <v>99</v>
+      </c>
+      <c r="J672" t="s">
+        <v>100</v>
+      </c>
+    </row>
   </sheetData>
+  <autoFilter ref="A1:J672" xr:uid="{C7D2990A-F429-0248-9892-0EF6030E3150}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/DSBot/kb.xlsx
+++ b/DSBot/kb.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sarapido/Desktop/DSBot/DSBot/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12A2338E-8C61-6743-B5B0-C63A146B4FB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{046066B9-3E44-C04F-8F4E-41916DAA49F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2980" yWindow="500" windowWidth="28040" windowHeight="17440" activeTab="3" xr2:uid="{B2A427CD-3A3B-AB4F-8475-A6742BF1F99B}"/>
+    <workbookView xWindow="2980" yWindow="500" windowWidth="28040" windowHeight="17440" activeTab="2" xr2:uid="{B2A427CD-3A3B-AB4F-8475-A6742BF1F99B}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Foglio2!$A$1:$J$435</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Foglio4!$A$1:$J$672</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Foglio4!$A$1:$J$746</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13008" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13540" uniqueCount="123">
   <si>
     <t>ds</t>
   </si>
@@ -408,6 +408,9 @@
   </si>
   <si>
     <t>IRGenericMissingValues</t>
+  </si>
+  <si>
+    <t>userFeatureSelection</t>
   </si>
 </sst>
 </file>
@@ -11791,10 +11794,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7D2990A-F429-0248-9892-0EF6030E3150}">
-  <dimension ref="A1:J672"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:J746"/>
   <sheetViews>
-    <sheetView topLeftCell="A362" workbookViewId="0">
-      <selection activeCell="A391" sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G748" sqref="G748"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11831,7 +11835,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>21</v>
       </c>
@@ -11851,7 +11855,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>21</v>
       </c>
@@ -11865,7 +11869,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>26</v>
       </c>
@@ -11888,7 +11892,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>26</v>
       </c>
@@ -11911,7 +11915,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>26</v>
       </c>
@@ -11934,7 +11938,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>26</v>
       </c>
@@ -11957,7 +11961,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>93</v>
       </c>
@@ -11980,7 +11984,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>93</v>
       </c>
@@ -12000,7 +12004,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>93</v>
       </c>
@@ -12023,7 +12027,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>93</v>
       </c>
@@ -12043,7 +12047,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>93</v>
       </c>
@@ -12066,7 +12070,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>93</v>
       </c>
@@ -12086,7 +12090,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>26</v>
       </c>
@@ -12103,7 +12107,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>26</v>
       </c>
@@ -12195,7 +12199,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>94</v>
       </c>
@@ -12244,7 +12248,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>61</v>
       </c>
@@ -12368,7 +12372,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>95</v>
       </c>
@@ -12417,7 +12421,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>62</v>
       </c>
@@ -12446,7 +12450,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>62</v>
       </c>
@@ -12475,7 +12479,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>62</v>
       </c>
@@ -12498,7 +12502,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>62</v>
       </c>
@@ -12518,7 +12522,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>62</v>
       </c>
@@ -12547,7 +12551,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>62</v>
       </c>
@@ -12576,7 +12580,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>95</v>
       </c>
@@ -12605,7 +12609,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>95</v>
       </c>
@@ -12631,7 +12635,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>72</v>
       </c>
@@ -12654,7 +12658,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>63</v>
       </c>
@@ -12726,7 +12730,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>63</v>
       </c>
@@ -12755,7 +12759,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>63</v>
       </c>
@@ -12784,7 +12788,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>63</v>
       </c>
@@ -12807,7 +12811,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="43" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:10" ht="17" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>63</v>
       </c>
@@ -12836,7 +12840,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="44" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:10" ht="17" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>63</v>
       </c>
@@ -12865,7 +12869,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="45" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:10" ht="17" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>96</v>
       </c>
@@ -12894,7 +12898,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>96</v>
       </c>
@@ -12920,7 +12924,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>63</v>
       </c>
@@ -12949,7 +12953,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>63</v>
       </c>
@@ -12981,7 +12985,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>63</v>
       </c>
@@ -13001,7 +13005,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>71</v>
       </c>
@@ -13024,7 +13028,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>74</v>
       </c>
@@ -13047,7 +13051,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>35</v>
       </c>
@@ -13070,7 +13074,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>35</v>
       </c>
@@ -13093,7 +13097,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>35</v>
       </c>
@@ -13116,7 +13120,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>97</v>
       </c>
@@ -13139,7 +13143,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>97</v>
       </c>
@@ -13159,7 +13163,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>35</v>
       </c>
@@ -13234,7 +13238,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>35</v>
       </c>
@@ -13254,7 +13258,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>35</v>
       </c>
@@ -13349,7 +13353,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>97</v>
       </c>
@@ -13372,7 +13376,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>58</v>
       </c>
@@ -13393,7 +13397,7 @@
       </c>
       <c r="G66" s="1"/>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>58</v>
       </c>
@@ -13520,7 +13524,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="72" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:9" ht="17" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>98</v>
       </c>
@@ -13569,7 +13573,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="74" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:9" ht="17" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>43</v>
       </c>
@@ -13598,7 +13602,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="75" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:9" ht="17" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>43</v>
       </c>
@@ -13627,7 +13631,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="76" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:9" ht="17" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>43</v>
       </c>
@@ -13650,7 +13654,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="77" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:9" ht="17" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>43</v>
       </c>
@@ -13670,7 +13674,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>43</v>
       </c>
@@ -13699,7 +13703,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>43</v>
       </c>
@@ -13728,7 +13732,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>98</v>
       </c>
@@ -13757,7 +13761,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>98</v>
       </c>
@@ -13783,7 +13787,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>60</v>
       </c>
@@ -13806,7 +13810,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>60</v>
       </c>
@@ -13829,7 +13833,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>60</v>
       </c>
@@ -13846,7 +13850,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>88</v>
       </c>
@@ -13869,7 +13873,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>88</v>
       </c>
@@ -13944,7 +13948,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>88</v>
       </c>
@@ -13964,7 +13968,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>88</v>
       </c>
@@ -13981,7 +13985,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>65</v>
       </c>
@@ -13995,7 +13999,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>65</v>
       </c>
@@ -14012,7 +14016,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
         <v>76</v>
       </c>
@@ -14087,7 +14091,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>76</v>
       </c>
@@ -14116,7 +14120,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>76</v>
       </c>
@@ -14145,7 +14149,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>76</v>
       </c>
@@ -14168,7 +14172,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>76</v>
       </c>
@@ -14188,7 +14192,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>64</v>
       </c>
@@ -14206,7 +14210,7 @@
       </c>
       <c r="F100" s="1"/>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
         <v>73</v>
       </c>
@@ -14229,7 +14233,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>33</v>
       </c>
@@ -14249,7 +14253,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>33</v>
       </c>
@@ -14269,7 +14273,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>33</v>
       </c>
@@ -14292,7 +14296,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>33</v>
       </c>
@@ -14315,7 +14319,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>33</v>
       </c>
@@ -14332,7 +14336,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>33</v>
       </c>
@@ -14346,7 +14350,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>59</v>
       </c>
@@ -14364,7 +14368,7 @@
       </c>
       <c r="G108" s="1"/>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>59</v>
       </c>
@@ -14378,7 +14382,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>54</v>
       </c>
@@ -14393,7 +14397,7 @@
       </c>
       <c r="E110" s="1"/>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>0</v>
       </c>
@@ -14411,7 +14415,7 @@
       </c>
       <c r="F111" s="1"/>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>0</v>
       </c>
@@ -14429,7 +14433,7 @@
       </c>
       <c r="F112" s="1"/>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>0</v>
       </c>
@@ -14441,7 +14445,7 @@
       </c>
       <c r="E113" s="1"/>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>25</v>
       </c>
@@ -14461,7 +14465,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>25</v>
       </c>
@@ -14481,7 +14485,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>25</v>
       </c>
@@ -14501,7 +14505,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>99</v>
       </c>
@@ -14521,7 +14525,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>99</v>
       </c>
@@ -14538,7 +14542,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>25</v>
       </c>
@@ -14558,7 +14562,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>25</v>
       </c>
@@ -14573,7 +14577,7 @@
       </c>
       <c r="E120" s="1"/>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>66</v>
       </c>
@@ -14596,7 +14600,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>66</v>
       </c>
@@ -14619,7 +14623,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>66</v>
       </c>
@@ -14642,7 +14646,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>100</v>
       </c>
@@ -14665,7 +14669,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>100</v>
       </c>
@@ -14685,7 +14689,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>66</v>
       </c>
@@ -14708,7 +14712,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>66</v>
       </c>
@@ -14725,7 +14729,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>67</v>
       </c>
@@ -14748,7 +14752,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>67</v>
       </c>
@@ -14823,7 +14827,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>67</v>
       </c>
@@ -14846,7 +14850,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>67</v>
       </c>
@@ -14869,7 +14873,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>101</v>
       </c>
@@ -14892,7 +14896,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>101</v>
       </c>
@@ -14912,7 +14916,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>67</v>
       </c>
@@ -14932,7 +14936,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>67</v>
       </c>
@@ -15028,7 +15032,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>101</v>
       </c>
@@ -15051,7 +15055,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A142" s="1" t="s">
         <v>68</v>
       </c>
@@ -15178,7 +15182,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>102</v>
       </c>
@@ -15227,7 +15231,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>68</v>
       </c>
@@ -15256,7 +15260,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>68</v>
       </c>
@@ -15285,7 +15289,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>68</v>
       </c>
@@ -15309,7 +15313,7 @@
       </c>
       <c r="H151" s="1"/>
     </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>68</v>
       </c>
@@ -15330,7 +15334,7 @@
       </c>
       <c r="G152" s="1"/>
     </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>68</v>
       </c>
@@ -15359,7 +15363,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>68</v>
       </c>
@@ -15388,7 +15392,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>102</v>
       </c>
@@ -15417,7 +15421,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>102</v>
       </c>
@@ -15443,7 +15447,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>78</v>
       </c>
@@ -15472,7 +15476,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>78</v>
       </c>
@@ -15501,7 +15505,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>78</v>
       </c>
@@ -15530,7 +15534,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>103</v>
       </c>
@@ -15559,7 +15563,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="161" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>103</v>
       </c>
@@ -15585,7 +15589,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="162" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>78</v>
       </c>
@@ -15646,7 +15650,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="164" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>78</v>
       </c>
@@ -15704,7 +15708,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="166" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>78</v>
       </c>
@@ -15791,7 +15795,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="169" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>78</v>
       </c>
@@ -15823,7 +15827,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="170" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>78</v>
       </c>
@@ -15982,7 +15986,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="176" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>77</v>
       </c>
@@ -16011,7 +16015,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>77</v>
       </c>
@@ -16040,7 +16044,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>77</v>
       </c>
@@ -16063,7 +16067,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>77</v>
       </c>
@@ -16083,7 +16087,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>77</v>
       </c>
@@ -16112,7 +16116,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>77</v>
       </c>
@@ -16141,7 +16145,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>104</v>
       </c>
@@ -16170,7 +16174,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>104</v>
       </c>
@@ -16193,7 +16197,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>105</v>
       </c>
@@ -16219,7 +16223,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A185" s="1" t="s">
         <v>69</v>
       </c>
@@ -16346,7 +16350,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="190" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>106</v>
       </c>
@@ -16395,7 +16399,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="192" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>69</v>
       </c>
@@ -16416,7 +16420,7 @@
       </c>
       <c r="G192" s="1"/>
     </row>
-    <row r="193" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>79</v>
       </c>
@@ -16445,7 +16449,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="194" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>79</v>
       </c>
@@ -16474,7 +16478,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="195" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>79</v>
       </c>
@@ -16503,7 +16507,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="196" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>107</v>
       </c>
@@ -16532,7 +16536,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="197" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>107</v>
       </c>
@@ -16558,7 +16562,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="198" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>79</v>
       </c>
@@ -16587,7 +16591,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="199" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>79</v>
       </c>
@@ -16714,7 +16718,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="204" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>108</v>
       </c>
@@ -16763,7 +16767,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="206" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>70</v>
       </c>
@@ -16888,7 +16892,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="211" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
         <v>108</v>
       </c>
@@ -16937,7 +16941,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="213" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
         <v>70</v>
       </c>
@@ -16957,7 +16961,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="214" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
         <v>34</v>
       </c>
@@ -16977,7 +16981,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="215" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
         <v>34</v>
       </c>
@@ -16997,7 +17001,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="216" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
         <v>34</v>
       </c>
@@ -17017,7 +17021,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="217" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
         <v>109</v>
       </c>
@@ -17037,7 +17041,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="218" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
         <v>109</v>
       </c>
@@ -17054,7 +17058,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="219" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
         <v>34</v>
       </c>
@@ -17074,7 +17078,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="220" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
         <v>34</v>
       </c>
@@ -17097,7 +17101,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="221" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
         <v>34</v>
       </c>
@@ -17120,7 +17124,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="222" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
         <v>34</v>
       </c>
@@ -17137,7 +17141,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="223" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
         <v>34</v>
       </c>
@@ -17151,7 +17155,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="224" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
         <v>34</v>
       </c>
@@ -17174,7 +17178,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="225" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
         <v>34</v>
       </c>
@@ -17197,7 +17201,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="226" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
         <v>109</v>
       </c>
@@ -17220,7 +17224,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="227" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
         <v>109</v>
       </c>
@@ -17240,7 +17244,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="228" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
         <v>41</v>
       </c>
@@ -17260,7 +17264,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="229" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
         <v>41</v>
       </c>
@@ -17280,7 +17284,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="230" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
         <v>41</v>
       </c>
@@ -17300,7 +17304,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="231" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
         <v>110</v>
       </c>
@@ -17320,7 +17324,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="232" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:7" ht="17" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
         <v>110</v>
       </c>
@@ -17337,7 +17341,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="233" spans="1:7" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:7" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
         <v>41</v>
       </c>
@@ -17357,7 +17361,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="234" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
         <v>41</v>
       </c>
@@ -17380,7 +17384,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="235" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:7" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
         <v>41</v>
       </c>
@@ -17403,7 +17407,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="236" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
         <v>41</v>
       </c>
@@ -17420,7 +17424,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="237" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:7" ht="17" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
         <v>41</v>
       </c>
@@ -17443,7 +17447,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="238" spans="1:7" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:7" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
         <v>41</v>
       </c>
@@ -17466,7 +17470,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="239" spans="1:7" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:7" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
         <v>41</v>
       </c>
@@ -17489,7 +17493,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="240" spans="1:7" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:7" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
         <v>110</v>
       </c>
@@ -17512,7 +17516,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="241" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:8" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
         <v>110</v>
       </c>
@@ -17532,7 +17536,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="242" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:8" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
         <v>41</v>
       </c>
@@ -17607,7 +17611,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="245" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
         <v>41</v>
       </c>
@@ -17627,7 +17631,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="246" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
         <v>41</v>
       </c>
@@ -17722,7 +17726,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="250" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
         <v>110</v>
       </c>
@@ -17745,7 +17749,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="251" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
         <v>41</v>
       </c>
@@ -17759,7 +17763,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="252" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
         <v>41</v>
       </c>
@@ -17782,7 +17786,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="253" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
         <v>41</v>
       </c>
@@ -17805,7 +17809,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="254" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
         <v>41</v>
       </c>
@@ -17828,7 +17832,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="255" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
         <v>110</v>
       </c>
@@ -17851,7 +17855,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="256" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
         <v>110</v>
       </c>
@@ -17871,7 +17875,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="257" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
         <v>41</v>
       </c>
@@ -17946,7 +17950,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="260" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
         <v>41</v>
       </c>
@@ -17966,7 +17970,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="261" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
         <v>41</v>
       </c>
@@ -17983,7 +17987,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="262" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:9" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
         <v>85</v>
       </c>
@@ -18107,7 +18111,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="267" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
         <v>111</v>
       </c>
@@ -18156,7 +18160,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="269" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
         <v>85</v>
       </c>
@@ -18185,7 +18189,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="270" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
         <v>85</v>
       </c>
@@ -18214,7 +18218,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="271" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
         <v>85</v>
       </c>
@@ -18237,7 +18241,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="272" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
         <v>85</v>
       </c>
@@ -18257,7 +18261,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="273" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
         <v>85</v>
       </c>
@@ -18286,7 +18290,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="274" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
         <v>85</v>
       </c>
@@ -18315,7 +18319,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="275" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
         <v>111</v>
       </c>
@@ -18344,7 +18348,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="276" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
         <v>111</v>
       </c>
@@ -18370,7 +18374,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="277" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
         <v>85</v>
       </c>
@@ -18387,7 +18391,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="278" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
         <v>84</v>
       </c>
@@ -18410,7 +18414,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="279" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
         <v>84</v>
       </c>
@@ -18433,7 +18437,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="280" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
         <v>84</v>
       </c>
@@ -18456,7 +18460,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="281" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
         <v>112</v>
       </c>
@@ -18479,7 +18483,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="282" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
         <v>112</v>
       </c>
@@ -18499,7 +18503,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="283" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
         <v>84</v>
       </c>
@@ -18574,7 +18578,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="286" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
         <v>84</v>
       </c>
@@ -18672,7 +18676,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="290" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
         <v>112</v>
       </c>
@@ -18695,7 +18699,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="291" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
         <v>37</v>
       </c>
@@ -18718,7 +18722,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="292" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
         <v>37</v>
       </c>
@@ -18741,7 +18745,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="293" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
         <v>37</v>
       </c>
@@ -18764,7 +18768,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="294" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
         <v>113</v>
       </c>
@@ -18787,7 +18791,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="295" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
         <v>113</v>
       </c>
@@ -18807,7 +18811,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="296" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
         <v>37</v>
       </c>
@@ -18830,7 +18834,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="297" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
         <v>37</v>
       </c>
@@ -18847,7 +18851,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="298" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
         <v>81</v>
       </c>
@@ -18867,7 +18871,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="299" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
         <v>81</v>
       </c>
@@ -18887,7 +18891,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="300" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
         <v>81</v>
       </c>
@@ -18907,7 +18911,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="301" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
         <v>114</v>
       </c>
@@ -18927,7 +18931,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="302" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
         <v>113</v>
       </c>
@@ -18944,7 +18948,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="303" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
         <v>81</v>
       </c>
@@ -18965,7 +18969,7 @@
       </c>
       <c r="G303" s="1"/>
     </row>
-    <row r="304" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
         <v>81</v>
       </c>
@@ -18988,7 +18992,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="305" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
         <v>81</v>
       </c>
@@ -19011,7 +19015,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="306" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
         <v>81</v>
       </c>
@@ -19034,7 +19038,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="307" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
         <v>114</v>
       </c>
@@ -19057,7 +19061,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="308" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
         <v>114</v>
       </c>
@@ -19077,7 +19081,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="309" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
         <v>81</v>
       </c>
@@ -19100,7 +19104,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="310" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A310" t="s">
         <v>81</v>
       </c>
@@ -19117,7 +19121,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="311" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
         <v>81</v>
       </c>
@@ -19131,7 +19135,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="312" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
         <v>86</v>
       </c>
@@ -19154,7 +19158,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="313" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
         <v>86</v>
       </c>
@@ -19177,7 +19181,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="314" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A314" t="s">
         <v>86</v>
       </c>
@@ -19200,7 +19204,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="315" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
         <v>115</v>
       </c>
@@ -19223,7 +19227,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="316" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
         <v>115</v>
       </c>
@@ -19243,7 +19247,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="317" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A317" t="s">
         <v>86</v>
       </c>
@@ -19266,7 +19270,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="318" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
         <v>86</v>
       </c>
@@ -19393,7 +19397,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="323" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A323" t="s">
         <v>115</v>
       </c>
@@ -19442,7 +19446,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="325" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A325" t="s">
         <v>86</v>
       </c>
@@ -19462,7 +19466,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="326" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A326" t="s">
         <v>86</v>
       </c>
@@ -19479,7 +19483,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="327" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A327" t="s">
         <v>83</v>
       </c>
@@ -19502,7 +19506,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="328" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A328" t="s">
         <v>83</v>
       </c>
@@ -19525,7 +19529,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="329" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A329" t="s">
         <v>83</v>
       </c>
@@ -19548,7 +19552,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="330" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A330" t="s">
         <v>116</v>
       </c>
@@ -19571,7 +19575,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="331" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A331" t="s">
         <v>116</v>
       </c>
@@ -19591,7 +19595,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="332" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A332" t="s">
         <v>83</v>
       </c>
@@ -19614,7 +19618,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="333" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A333" t="s">
         <v>83</v>
       </c>
@@ -19631,7 +19635,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="334" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A334" t="s">
         <v>14</v>
       </c>
@@ -19651,7 +19655,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="335" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A335" t="s">
         <v>14</v>
       </c>
@@ -19671,7 +19675,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="336" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A336" t="s">
         <v>14</v>
       </c>
@@ -19685,7 +19689,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="337" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A337" t="s">
         <v>31</v>
       </c>
@@ -19702,7 +19706,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="338" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A338" t="s">
         <v>31</v>
       </c>
@@ -19716,7 +19720,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="339" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A339" t="s">
         <v>31</v>
       </c>
@@ -19736,7 +19740,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="340" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A340" t="s">
         <v>31</v>
       </c>
@@ -19756,7 +19760,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="341" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A341" t="s">
         <v>31</v>
       </c>
@@ -19779,7 +19783,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="342" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A342" t="s">
         <v>31</v>
       </c>
@@ -19802,7 +19806,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="343" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A343" s="1" t="s">
         <v>75</v>
       </c>
@@ -19823,7 +19827,7 @@
       </c>
       <c r="G343" s="1"/>
     </row>
-    <row r="344" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A344" t="s">
         <v>80</v>
       </c>
@@ -19846,7 +19850,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="345" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A345" t="s">
         <v>80</v>
       </c>
@@ -19921,7 +19925,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="348" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A348" t="s">
         <v>80</v>
       </c>
@@ -19941,7 +19945,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="349" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A349" t="s">
         <v>80</v>
       </c>
@@ -19958,7 +19962,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="350" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A350" s="1" t="s">
         <v>51</v>
       </c>
@@ -19978,7 +19982,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="351" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A351" t="s">
         <v>16</v>
       </c>
@@ -20001,7 +20005,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="352" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A352" t="s">
         <v>16</v>
       </c>
@@ -20024,7 +20028,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="353" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A353" t="s">
         <v>16</v>
       </c>
@@ -20042,7 +20046,7 @@
       </c>
       <c r="F353" s="1"/>
     </row>
-    <row r="354" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A354" t="s">
         <v>32</v>
       </c>
@@ -20060,7 +20064,7 @@
       </c>
       <c r="F354" s="1"/>
     </row>
-    <row r="355" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A355" t="s">
         <v>32</v>
       </c>
@@ -20078,7 +20082,7 @@
       </c>
       <c r="F355" s="1"/>
     </row>
-    <row r="356" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A356" t="s">
         <v>32</v>
       </c>
@@ -20098,7 +20102,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="357" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A357" t="s">
         <v>32</v>
       </c>
@@ -20118,7 +20122,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="358" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A358" t="s">
         <v>32</v>
       </c>
@@ -20133,7 +20137,7 @@
       </c>
       <c r="E358" s="1"/>
     </row>
-    <row r="359" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A359" t="s">
         <v>32</v>
       </c>
@@ -20145,7 +20149,7 @@
       </c>
       <c r="D359" s="1"/>
     </row>
-    <row r="360" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A360" t="s">
         <v>82</v>
       </c>
@@ -20162,7 +20166,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="361" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A361" t="s">
         <v>82</v>
       </c>
@@ -20179,7 +20183,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="362" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A362" t="s">
         <v>82</v>
       </c>
@@ -20199,7 +20203,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="363" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A363" t="s">
         <v>82</v>
       </c>
@@ -20219,7 +20223,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="364" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A364" t="s">
         <v>82</v>
       </c>
@@ -20239,7 +20243,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="365" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A365" t="s">
         <v>82</v>
       </c>
@@ -20253,7 +20257,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="366" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A366" t="s">
         <v>82</v>
       </c>
@@ -20270,7 +20274,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="367" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A367" t="s">
         <v>82</v>
       </c>
@@ -20290,7 +20294,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="368" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A368" t="s">
         <v>82</v>
       </c>
@@ -20310,7 +20314,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="369" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A369" t="s">
         <v>82</v>
       </c>
@@ -20333,7 +20337,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="370" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A370" t="s">
         <v>82</v>
       </c>
@@ -20356,7 +20360,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="371" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A371" t="s">
         <v>82</v>
       </c>
@@ -20373,7 +20377,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="372" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A372" t="s">
         <v>82</v>
       </c>
@@ -20387,7 +20391,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="373" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A373" t="s">
         <v>82</v>
       </c>
@@ -20398,7 +20402,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="374" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A374" t="s">
         <v>87</v>
       </c>
@@ -20418,7 +20422,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="375" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A375" t="s">
         <v>87</v>
       </c>
@@ -20438,7 +20442,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="376" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A376" t="s">
         <v>87</v>
       </c>
@@ -20461,7 +20465,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="377" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A377" t="s">
         <v>87</v>
       </c>
@@ -20484,7 +20488,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="378" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A378" t="s">
         <v>87</v>
       </c>
@@ -20501,7 +20505,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="379" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A379" t="s">
         <v>87</v>
       </c>
@@ -20515,7 +20519,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="380" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A380" t="s">
         <v>17</v>
       </c>
@@ -20532,7 +20536,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="381" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A381" t="s">
         <v>17</v>
       </c>
@@ -20549,7 +20553,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="382" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A382" t="s">
         <v>17</v>
       </c>
@@ -20566,7 +20570,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="383" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A383" t="s">
         <v>17</v>
       </c>
@@ -20586,7 +20590,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="384" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A384" t="s">
         <v>17</v>
       </c>
@@ -20606,7 +20610,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="385" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A385" t="s">
         <v>17</v>
       </c>
@@ -20620,7 +20624,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="386" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A386" t="s">
         <v>17</v>
       </c>
@@ -20631,7 +20635,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="387" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A387" t="s">
         <v>15</v>
       </c>
@@ -20651,7 +20655,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="388" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A388" t="s">
         <v>15</v>
       </c>
@@ -20671,7 +20675,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="389" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A389" t="s">
         <v>15</v>
       </c>
@@ -20685,7 +20689,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="390" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A390" t="s">
         <v>34</v>
       </c>
@@ -20705,7 +20709,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="391" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A391" t="s">
         <v>34</v>
       </c>
@@ -20725,7 +20729,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="392" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A392" t="s">
         <v>41</v>
       </c>
@@ -20745,7 +20749,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="393" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A393" t="s">
         <v>41</v>
       </c>
@@ -20765,7 +20769,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="394" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A394" t="s">
         <v>35</v>
       </c>
@@ -20788,7 +20792,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="395" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A395" t="s">
         <v>35</v>
       </c>
@@ -20811,7 +20815,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="396" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:7" ht="17" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A396" t="s">
         <v>67</v>
       </c>
@@ -20834,7 +20838,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="397" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:7" ht="17" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A397" t="s">
         <v>67</v>
       </c>
@@ -20857,7 +20861,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="398" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A398" t="s">
         <v>34</v>
       </c>
@@ -20880,7 +20884,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="399" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A399" t="s">
         <v>34</v>
       </c>
@@ -20903,7 +20907,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="400" spans="1:7" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:7" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A400" t="s">
         <v>41</v>
       </c>
@@ -20926,7 +20930,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="401" spans="1:8" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:8" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A401" t="s">
         <v>41</v>
       </c>
@@ -20949,7 +20953,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="402" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A402" t="s">
         <v>41</v>
       </c>
@@ -20972,7 +20976,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="403" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A403" t="s">
         <v>41</v>
       </c>
@@ -20995,7 +20999,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="404" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A404" t="s">
         <v>84</v>
       </c>
@@ -21018,7 +21022,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="405" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A405" t="s">
         <v>84</v>
       </c>
@@ -21509,7 +21513,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="424" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A424" t="s">
         <v>62</v>
       </c>
@@ -21538,7 +21542,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="425" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A425" t="s">
         <v>62</v>
       </c>
@@ -21567,7 +21571,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="426" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:9" ht="17" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A426" t="s">
         <v>63</v>
       </c>
@@ -21596,7 +21600,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="427" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:9" ht="17" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A427" t="s">
         <v>63</v>
       </c>
@@ -21625,7 +21629,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="428" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A428" t="s">
         <v>43</v>
       </c>
@@ -21654,7 +21658,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="429" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A429" t="s">
         <v>43</v>
       </c>
@@ -21683,7 +21687,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="430" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A430" t="s">
         <v>68</v>
       </c>
@@ -21712,7 +21716,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="431" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A431" t="s">
         <v>68</v>
       </c>
@@ -21741,7 +21745,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="432" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A432" t="s">
         <v>78</v>
       </c>
@@ -21770,7 +21774,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="433" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A433" t="s">
         <v>78</v>
       </c>
@@ -21799,7 +21803,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="434" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A434" t="s">
         <v>77</v>
       </c>
@@ -21828,7 +21832,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="435" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A435" t="s">
         <v>77</v>
       </c>
@@ -21857,7 +21861,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="436" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A436" t="s">
         <v>85</v>
       </c>
@@ -21886,7 +21890,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="437" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A437" t="s">
         <v>85</v>
       </c>
@@ -21915,7 +21919,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="438" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A438" t="s">
         <v>78</v>
       </c>
@@ -21947,7 +21951,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="439" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A439" t="s">
         <v>78</v>
       </c>
@@ -21979,7 +21983,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="440" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A440" t="s">
         <v>99</v>
       </c>
@@ -21999,7 +22003,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="441" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A441" t="s">
         <v>99</v>
       </c>
@@ -22016,7 +22020,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="442" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A442" t="s">
         <v>109</v>
       </c>
@@ -22036,7 +22040,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="443" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A443" t="s">
         <v>109</v>
       </c>
@@ -22053,7 +22057,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="444" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A444" t="s">
         <v>110</v>
       </c>
@@ -22073,7 +22077,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="445" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:10" ht="17" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A445" t="s">
         <v>110</v>
       </c>
@@ -22090,7 +22094,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="446" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A446" t="s">
         <v>114</v>
       </c>
@@ -22110,7 +22114,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="447" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A447" t="s">
         <v>113</v>
       </c>
@@ -22127,7 +22131,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="448" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A448" t="s">
         <v>99</v>
       </c>
@@ -22147,7 +22151,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="449" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A449" t="s">
         <v>99</v>
       </c>
@@ -22164,7 +22168,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="450" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A450" t="s">
         <v>109</v>
       </c>
@@ -22184,7 +22188,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="451" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A451" t="s">
         <v>109</v>
       </c>
@@ -22201,7 +22205,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="452" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A452" t="s">
         <v>110</v>
       </c>
@@ -22221,7 +22225,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="453" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:7" ht="17" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A453" t="s">
         <v>110</v>
       </c>
@@ -22238,7 +22242,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="454" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A454" t="s">
         <v>114</v>
       </c>
@@ -22258,7 +22262,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="455" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A455" t="s">
         <v>113</v>
       </c>
@@ -22275,7 +22279,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="456" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A456" t="s">
         <v>97</v>
       </c>
@@ -22298,7 +22302,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="457" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A457" t="s">
         <v>97</v>
       </c>
@@ -22318,7 +22322,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="458" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A458" t="s">
         <v>100</v>
       </c>
@@ -22341,7 +22345,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="459" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A459" t="s">
         <v>100</v>
       </c>
@@ -22361,7 +22365,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="460" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A460" t="s">
         <v>101</v>
       </c>
@@ -22384,7 +22388,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="461" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A461" t="s">
         <v>101</v>
       </c>
@@ -22404,7 +22408,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="462" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A462" t="s">
         <v>109</v>
       </c>
@@ -22427,7 +22431,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="463" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A463" t="s">
         <v>109</v>
       </c>
@@ -22447,7 +22451,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="464" spans="1:7" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:7" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A464" t="s">
         <v>110</v>
       </c>
@@ -22470,7 +22474,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="465" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A465" t="s">
         <v>110</v>
       </c>
@@ -22490,7 +22494,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="466" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A466" t="s">
         <v>110</v>
       </c>
@@ -22513,7 +22517,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="467" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A467" t="s">
         <v>110</v>
       </c>
@@ -22533,7 +22537,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="468" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A468" t="s">
         <v>112</v>
       </c>
@@ -22556,7 +22560,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="469" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A469" t="s">
         <v>112</v>
       </c>
@@ -22576,7 +22580,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="470" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A470" t="s">
         <v>113</v>
       </c>
@@ -22599,7 +22603,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="471" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A471" t="s">
         <v>113</v>
       </c>
@@ -22619,7 +22623,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="472" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A472" t="s">
         <v>114</v>
       </c>
@@ -22642,7 +22646,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="473" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A473" t="s">
         <v>114</v>
       </c>
@@ -22662,7 +22666,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="474" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A474" t="s">
         <v>115</v>
       </c>
@@ -22685,7 +22689,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="475" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A475" t="s">
         <v>115</v>
       </c>
@@ -22705,7 +22709,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="476" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A476" t="s">
         <v>116</v>
       </c>
@@ -22728,7 +22732,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="477" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A477" t="s">
         <v>116</v>
       </c>
@@ -22748,7 +22752,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="478" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A478" t="s">
         <v>97</v>
       </c>
@@ -22771,7 +22775,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="479" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A479" t="s">
         <v>97</v>
       </c>
@@ -22791,7 +22795,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="480" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="480" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A480" t="s">
         <v>100</v>
       </c>
@@ -22814,7 +22818,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="481" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="481" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A481" t="s">
         <v>100</v>
       </c>
@@ -22834,7 +22838,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="482" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="482" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A482" t="s">
         <v>101</v>
       </c>
@@ -22857,7 +22861,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="483" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="483" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A483" t="s">
         <v>101</v>
       </c>
@@ -22877,7 +22881,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="484" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="484" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A484" t="s">
         <v>109</v>
       </c>
@@ -22900,7 +22904,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="485" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="485" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A485" t="s">
         <v>109</v>
       </c>
@@ -22920,7 +22924,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="486" spans="1:7" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="486" spans="1:7" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A486" t="s">
         <v>110</v>
       </c>
@@ -22943,7 +22947,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="487" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="487" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A487" t="s">
         <v>110</v>
       </c>
@@ -22963,7 +22967,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="488" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="488" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A488" t="s">
         <v>110</v>
       </c>
@@ -22986,7 +22990,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="489" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="489" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A489" t="s">
         <v>110</v>
       </c>
@@ -23006,7 +23010,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="490" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="490" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A490" t="s">
         <v>112</v>
       </c>
@@ -23029,7 +23033,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="491" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="491" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A491" t="s">
         <v>112</v>
       </c>
@@ -23049,7 +23053,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="492" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="492" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A492" t="s">
         <v>113</v>
       </c>
@@ -23072,7 +23076,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="493" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="493" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A493" t="s">
         <v>113</v>
       </c>
@@ -23092,7 +23096,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="494" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="494" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A494" t="s">
         <v>114</v>
       </c>
@@ -23115,7 +23119,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="495" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="495" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A495" t="s">
         <v>114</v>
       </c>
@@ -23135,7 +23139,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="496" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="496" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A496" t="s">
         <v>115</v>
       </c>
@@ -23158,7 +23162,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="497" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="497" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A497" t="s">
         <v>115</v>
       </c>
@@ -23178,7 +23182,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="498" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="498" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A498" t="s">
         <v>116</v>
       </c>
@@ -23201,7 +23205,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="499" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="499" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A499" t="s">
         <v>116</v>
       </c>
@@ -23247,7 +23251,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="501" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="501" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A501" t="s">
         <v>94</v>
       </c>
@@ -23296,7 +23300,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="503" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="503" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A503" t="s">
         <v>95</v>
       </c>
@@ -23345,7 +23349,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="505" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="505" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A505" t="s">
         <v>97</v>
       </c>
@@ -23394,7 +23398,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="507" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="507" spans="1:8" ht="17" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A507" t="s">
         <v>98</v>
       </c>
@@ -23443,7 +23447,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="509" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="509" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A509" t="s">
         <v>101</v>
       </c>
@@ -23492,7 +23496,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="511" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="511" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A511" t="s">
         <v>102</v>
       </c>
@@ -23541,7 +23545,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="513" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="513" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A513" t="s">
         <v>104</v>
       </c>
@@ -23590,7 +23594,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="515" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="515" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A515" t="s">
         <v>106</v>
       </c>
@@ -23639,7 +23643,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="517" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="517" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A517" t="s">
         <v>108</v>
       </c>
@@ -23688,7 +23692,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="519" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="519" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A519" t="s">
         <v>108</v>
       </c>
@@ -23737,7 +23741,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="521" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="521" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A521" t="s">
         <v>110</v>
       </c>
@@ -23786,7 +23790,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="523" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="523" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A523" t="s">
         <v>111</v>
       </c>
@@ -23835,7 +23839,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="525" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="525" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A525" t="s">
         <v>112</v>
       </c>
@@ -23884,7 +23888,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="527" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="527" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A527" t="s">
         <v>115</v>
       </c>
@@ -23933,7 +23937,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="529" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="529" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A529" t="s">
         <v>94</v>
       </c>
@@ -23982,7 +23986,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="531" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="531" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A531" t="s">
         <v>95</v>
       </c>
@@ -24031,7 +24035,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="533" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="533" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A533" t="s">
         <v>97</v>
       </c>
@@ -24080,7 +24084,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="535" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="535" spans="1:8" ht="17" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A535" t="s">
         <v>98</v>
       </c>
@@ -24129,7 +24133,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="537" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="537" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A537" t="s">
         <v>101</v>
       </c>
@@ -24178,7 +24182,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="539" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="539" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A539" t="s">
         <v>102</v>
       </c>
@@ -24227,7 +24231,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="541" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="541" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A541" t="s">
         <v>104</v>
       </c>
@@ -24276,7 +24280,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="543" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="543" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A543" t="s">
         <v>106</v>
       </c>
@@ -24325,7 +24329,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="545" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="545" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A545" t="s">
         <v>108</v>
       </c>
@@ -24374,7 +24378,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="547" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="547" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A547" t="s">
         <v>108</v>
       </c>
@@ -24423,7 +24427,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="549" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="549" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A549" t="s">
         <v>110</v>
       </c>
@@ -24472,7 +24476,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="551" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="551" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A551" t="s">
         <v>111</v>
       </c>
@@ -24521,7 +24525,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="553" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="553" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A553" t="s">
         <v>112</v>
       </c>
@@ -24570,7 +24574,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="555" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="555" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A555" t="s">
         <v>115</v>
       </c>
@@ -24593,7 +24597,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="556" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="556" spans="1:9" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A556" t="s">
         <v>95</v>
       </c>
@@ -24622,7 +24626,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="557" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="557" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A557" t="s">
         <v>95</v>
       </c>
@@ -24648,7 +24652,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="558" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="558" spans="1:9" ht="17" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A558" t="s">
         <v>96</v>
       </c>
@@ -24677,7 +24681,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="559" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="559" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A559" t="s">
         <v>96</v>
       </c>
@@ -24703,7 +24707,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="560" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="560" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A560" t="s">
         <v>98</v>
       </c>
@@ -24732,7 +24736,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="561" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="561" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A561" t="s">
         <v>98</v>
       </c>
@@ -24758,7 +24762,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="562" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="562" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A562" t="s">
         <v>102</v>
       </c>
@@ -24787,7 +24791,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="563" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="563" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A563" t="s">
         <v>102</v>
       </c>
@@ -24813,7 +24817,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="564" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="564" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A564" t="s">
         <v>103</v>
       </c>
@@ -24842,7 +24846,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="565" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="565" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A565" t="s">
         <v>103</v>
       </c>
@@ -24868,7 +24872,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="566" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="566" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A566" t="s">
         <v>104</v>
       </c>
@@ -24897,7 +24901,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="567" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="567" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A567" t="s">
         <v>105</v>
       </c>
@@ -24923,7 +24927,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="568" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="568" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A568" t="s">
         <v>107</v>
       </c>
@@ -24952,7 +24956,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="569" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="569" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A569" t="s">
         <v>107</v>
       </c>
@@ -24978,7 +24982,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="570" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="570" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A570" t="s">
         <v>111</v>
       </c>
@@ -25007,7 +25011,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="571" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="571" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A571" t="s">
         <v>111</v>
       </c>
@@ -25033,7 +25037,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="572" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="572" spans="1:9" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A572" t="s">
         <v>95</v>
       </c>
@@ -25062,7 +25066,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="573" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="573" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A573" t="s">
         <v>95</v>
       </c>
@@ -25088,7 +25092,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="574" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="574" spans="1:9" ht="17" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A574" t="s">
         <v>96</v>
       </c>
@@ -25117,7 +25121,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="575" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="575" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A575" t="s">
         <v>96</v>
       </c>
@@ -25143,7 +25147,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="576" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="576" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A576" t="s">
         <v>98</v>
       </c>
@@ -25172,7 +25176,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="577" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="577" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A577" t="s">
         <v>98</v>
       </c>
@@ -25198,7 +25202,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="578" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="578" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A578" t="s">
         <v>102</v>
       </c>
@@ -25227,7 +25231,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="579" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="579" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A579" t="s">
         <v>102</v>
       </c>
@@ -25253,7 +25257,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="580" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="580" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A580" t="s">
         <v>103</v>
       </c>
@@ -25282,7 +25286,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="581" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="581" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A581" t="s">
         <v>103</v>
       </c>
@@ -25308,7 +25312,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="582" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="582" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A582" t="s">
         <v>104</v>
       </c>
@@ -25337,7 +25341,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="583" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="583" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A583" t="s">
         <v>105</v>
       </c>
@@ -25363,7 +25367,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="584" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="584" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A584" t="s">
         <v>107</v>
       </c>
@@ -25392,7 +25396,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="585" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="585" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A585" t="s">
         <v>107</v>
       </c>
@@ -25418,7 +25422,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="586" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="586" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A586" t="s">
         <v>111</v>
       </c>
@@ -25447,7 +25451,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="587" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="587" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A587" t="s">
         <v>111</v>
       </c>
@@ -25717,7 +25721,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="596" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="596" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A596" t="s">
         <v>25</v>
       </c>
@@ -25737,7 +25741,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="597" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="597" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A597" t="s">
         <v>25</v>
       </c>
@@ -25757,7 +25761,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="598" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="598" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A598" t="s">
         <v>34</v>
       </c>
@@ -25777,7 +25781,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="599" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="599" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A599" t="s">
         <v>34</v>
       </c>
@@ -25797,7 +25801,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="600" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="600" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A600" t="s">
         <v>41</v>
       </c>
@@ -25817,7 +25821,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="601" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="601" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A601" t="s">
         <v>41</v>
       </c>
@@ -25837,7 +25841,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="602" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="602" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A602" t="s">
         <v>81</v>
       </c>
@@ -25857,7 +25861,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="603" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="603" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A603" t="s">
         <v>81</v>
       </c>
@@ -25877,7 +25881,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="604" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="604" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A604" t="s">
         <v>26</v>
       </c>
@@ -25900,7 +25904,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="605" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="605" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A605" t="s">
         <v>26</v>
       </c>
@@ -25923,7 +25927,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="606" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="606" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A606" t="s">
         <v>35</v>
       </c>
@@ -25946,7 +25950,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="607" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="607" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A607" t="s">
         <v>35</v>
       </c>
@@ -25969,7 +25973,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="608" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="608" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A608" t="s">
         <v>66</v>
       </c>
@@ -25992,7 +25996,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="609" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="609" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A609" t="s">
         <v>66</v>
       </c>
@@ -26015,7 +26019,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="610" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="610" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A610" t="s">
         <v>67</v>
       </c>
@@ -26038,7 +26042,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="611" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="611" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A611" t="s">
         <v>67</v>
       </c>
@@ -26061,7 +26065,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="612" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="612" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A612" t="s">
         <v>34</v>
       </c>
@@ -26084,7 +26088,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="613" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="613" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A613" t="s">
         <v>34</v>
       </c>
@@ -26107,7 +26111,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="614" spans="1:7" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="614" spans="1:7" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A614" t="s">
         <v>41</v>
       </c>
@@ -26130,7 +26134,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="615" spans="1:7" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="615" spans="1:7" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A615" t="s">
         <v>41</v>
       </c>
@@ -26153,7 +26157,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="616" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="616" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A616" t="s">
         <v>41</v>
       </c>
@@ -26176,7 +26180,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="617" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="617" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A617" t="s">
         <v>41</v>
       </c>
@@ -26199,7 +26203,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="618" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="618" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A618" t="s">
         <v>84</v>
       </c>
@@ -26222,7 +26226,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="619" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="619" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A619" t="s">
         <v>84</v>
       </c>
@@ -26245,7 +26249,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="620" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="620" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A620" t="s">
         <v>37</v>
       </c>
@@ -26268,7 +26272,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="621" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="621" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A621" t="s">
         <v>37</v>
       </c>
@@ -26291,7 +26295,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="622" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="622" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A622" t="s">
         <v>81</v>
       </c>
@@ -26314,7 +26318,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="623" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="623" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A623" t="s">
         <v>81</v>
       </c>
@@ -26337,7 +26341,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="624" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="624" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A624" t="s">
         <v>86</v>
       </c>
@@ -26360,7 +26364,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="625" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="625" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A625" t="s">
         <v>86</v>
       </c>
@@ -26383,7 +26387,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="626" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="626" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A626" t="s">
         <v>83</v>
       </c>
@@ -26406,7 +26410,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="627" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="627" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A627" t="s">
         <v>83</v>
       </c>
@@ -27131,7 +27135,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="655" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="655" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A655" t="s">
         <v>62</v>
       </c>
@@ -27160,7 +27164,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="656" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="656" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A656" t="s">
         <v>62</v>
       </c>
@@ -27189,7 +27193,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="657" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="657" spans="1:10" ht="17" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A657" t="s">
         <v>63</v>
       </c>
@@ -27218,7 +27222,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="658" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="658" spans="1:10" ht="17" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A658" t="s">
         <v>63</v>
       </c>
@@ -27247,7 +27251,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="659" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="659" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A659" t="s">
         <v>43</v>
       </c>
@@ -27276,7 +27280,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="660" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="660" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A660" t="s">
         <v>43</v>
       </c>
@@ -27305,7 +27309,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="661" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="661" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A661" t="s">
         <v>68</v>
       </c>
@@ -27334,7 +27338,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="662" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="662" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A662" t="s">
         <v>68</v>
       </c>
@@ -27363,7 +27367,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="663" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="663" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A663" t="s">
         <v>78</v>
       </c>
@@ -27392,7 +27396,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="664" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="664" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A664" t="s">
         <v>78</v>
       </c>
@@ -27421,7 +27425,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="665" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="665" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A665" t="s">
         <v>77</v>
       </c>
@@ -27450,7 +27454,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="666" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="666" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A666" t="s">
         <v>77</v>
       </c>
@@ -27479,7 +27483,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="667" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="667" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A667" t="s">
         <v>79</v>
       </c>
@@ -27508,7 +27512,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="668" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="668" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A668" t="s">
         <v>79</v>
       </c>
@@ -27537,7 +27541,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="669" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="669" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A669" t="s">
         <v>85</v>
       </c>
@@ -27566,7 +27570,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="670" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="670" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A670" t="s">
         <v>85</v>
       </c>
@@ -27595,7 +27599,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="671" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="671" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A671" t="s">
         <v>78</v>
       </c>
@@ -27627,7 +27631,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="672" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="672" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A672" t="s">
         <v>78</v>
       </c>
@@ -27659,8 +27663,1768 @@
         <v>92</v>
       </c>
     </row>
+    <row r="673" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A673" t="s">
+        <v>32</v>
+      </c>
+      <c r="B673" t="s">
+        <v>122</v>
+      </c>
+      <c r="C673" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D673" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E673" s="1"/>
+    </row>
+    <row r="674" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A674" t="s">
+        <v>82</v>
+      </c>
+      <c r="B674" t="s">
+        <v>122</v>
+      </c>
+      <c r="C674" t="s">
+        <v>19</v>
+      </c>
+      <c r="D674" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="675" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A675" t="s">
+        <v>65</v>
+      </c>
+      <c r="B675" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C675" t="s">
+        <v>122</v>
+      </c>
+      <c r="D675" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E675" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="676" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A676" t="s">
+        <v>33</v>
+      </c>
+      <c r="B676" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C676" t="s">
+        <v>122</v>
+      </c>
+      <c r="D676" t="s">
+        <v>19</v>
+      </c>
+      <c r="E676" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="677" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A677" t="s">
+        <v>59</v>
+      </c>
+      <c r="B677" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C677" t="s">
+        <v>122</v>
+      </c>
+      <c r="D677" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E677" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G677" s="1"/>
+    </row>
+    <row r="678" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A678" t="s">
+        <v>34</v>
+      </c>
+      <c r="B678" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C678" t="s">
+        <v>122</v>
+      </c>
+      <c r="D678" t="s">
+        <v>19</v>
+      </c>
+      <c r="E678" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="679" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A679" t="s">
+        <v>41</v>
+      </c>
+      <c r="B679" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C679" t="s">
+        <v>122</v>
+      </c>
+      <c r="D679" t="s">
+        <v>19</v>
+      </c>
+      <c r="E679" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="680" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A680" t="s">
+        <v>31</v>
+      </c>
+      <c r="B680" t="s">
+        <v>48</v>
+      </c>
+      <c r="C680" t="s">
+        <v>122</v>
+      </c>
+      <c r="D680" t="s">
+        <v>19</v>
+      </c>
+      <c r="E680" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="681" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A681" t="s">
+        <v>32</v>
+      </c>
+      <c r="B681" t="s">
+        <v>90</v>
+      </c>
+      <c r="C681" t="s">
+        <v>122</v>
+      </c>
+      <c r="D681" t="s">
+        <v>24</v>
+      </c>
+      <c r="E681" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F681" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="682" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A682" t="s">
+        <v>32</v>
+      </c>
+      <c r="B682" t="s">
+        <v>90</v>
+      </c>
+      <c r="C682" t="s">
+        <v>122</v>
+      </c>
+      <c r="D682" t="s">
+        <v>6</v>
+      </c>
+      <c r="E682" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F682" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="683" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A683" t="s">
+        <v>82</v>
+      </c>
+      <c r="B683" t="s">
+        <v>90</v>
+      </c>
+      <c r="C683" t="s">
+        <v>122</v>
+      </c>
+      <c r="D683" t="s">
+        <v>24</v>
+      </c>
+      <c r="E683" t="s">
+        <v>18</v>
+      </c>
+      <c r="F683" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="684" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A684" t="s">
+        <v>82</v>
+      </c>
+      <c r="B684" t="s">
+        <v>90</v>
+      </c>
+      <c r="C684" t="s">
+        <v>122</v>
+      </c>
+      <c r="D684" t="s">
+        <v>6</v>
+      </c>
+      <c r="E684" t="s">
+        <v>18</v>
+      </c>
+      <c r="F684" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="685" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A685" t="s">
+        <v>82</v>
+      </c>
+      <c r="B685" t="s">
+        <v>90</v>
+      </c>
+      <c r="C685" t="s">
+        <v>122</v>
+      </c>
+      <c r="D685" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E685" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F685" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="686" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A686" t="s">
+        <v>82</v>
+      </c>
+      <c r="B686" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C686" t="s">
+        <v>122</v>
+      </c>
+      <c r="D686" t="s">
+        <v>19</v>
+      </c>
+      <c r="E686" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="687" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A687" t="s">
+        <v>87</v>
+      </c>
+      <c r="B687" t="s">
+        <v>11</v>
+      </c>
+      <c r="C687" t="s">
+        <v>122</v>
+      </c>
+      <c r="D687" t="s">
+        <v>19</v>
+      </c>
+      <c r="E687" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="688" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A688" t="s">
+        <v>35</v>
+      </c>
+      <c r="B688" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C688" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D688" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="E688" t="s">
+        <v>19</v>
+      </c>
+      <c r="F688" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="689" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A689" t="s">
+        <v>58</v>
+      </c>
+      <c r="B689" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C689" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D689" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="E689" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="F689" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G689" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="690" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A690" t="s">
+        <v>88</v>
+      </c>
+      <c r="B690" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C690" t="s">
+        <v>22</v>
+      </c>
+      <c r="D690" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="E690" t="s">
+        <v>19</v>
+      </c>
+      <c r="F690" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="691" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A691" t="s">
+        <v>33</v>
+      </c>
+      <c r="B691" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C691" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D691" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="E691" t="s">
+        <v>24</v>
+      </c>
+      <c r="F691" t="s">
+        <v>18</v>
+      </c>
+      <c r="G691" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="692" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A692" t="s">
+        <v>33</v>
+      </c>
+      <c r="B692" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C692" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D692" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="E692" t="s">
+        <v>6</v>
+      </c>
+      <c r="F692" t="s">
+        <v>18</v>
+      </c>
+      <c r="G692" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="693" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A693" t="s">
+        <v>67</v>
+      </c>
+      <c r="B693" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C693" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D693" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="E693" t="s">
+        <v>19</v>
+      </c>
+      <c r="F693" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="694" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A694" t="s">
+        <v>34</v>
+      </c>
+      <c r="B694" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C694" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D694" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="E694" t="s">
+        <v>24</v>
+      </c>
+      <c r="F694" t="s">
+        <v>18</v>
+      </c>
+      <c r="G694" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="695" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A695" t="s">
+        <v>34</v>
+      </c>
+      <c r="B695" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C695" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D695" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="E695" t="s">
+        <v>6</v>
+      </c>
+      <c r="F695" t="s">
+        <v>18</v>
+      </c>
+      <c r="G695" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="696" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A696" t="s">
+        <v>41</v>
+      </c>
+      <c r="B696" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C696" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D696" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="E696" t="s">
+        <v>24</v>
+      </c>
+      <c r="F696" t="s">
+        <v>18</v>
+      </c>
+      <c r="G696" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="697" spans="1:7" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A697" t="s">
+        <v>41</v>
+      </c>
+      <c r="B697" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C697" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D697" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="E697" t="s">
+        <v>6</v>
+      </c>
+      <c r="F697" t="s">
+        <v>18</v>
+      </c>
+      <c r="G697" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="698" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A698" t="s">
+        <v>41</v>
+      </c>
+      <c r="B698" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C698" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D698" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="E698" t="s">
+        <v>19</v>
+      </c>
+      <c r="F698" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="699" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A699" t="s">
+        <v>41</v>
+      </c>
+      <c r="B699" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C699" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D699" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="E699" t="s">
+        <v>19</v>
+      </c>
+      <c r="F699" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="700" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A700" t="s">
+        <v>85</v>
+      </c>
+      <c r="B700" t="s">
+        <v>11</v>
+      </c>
+      <c r="C700" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D700" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="E700" t="s">
+        <v>19</v>
+      </c>
+      <c r="F700" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="701" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A701" t="s">
+        <v>84</v>
+      </c>
+      <c r="B701" t="s">
+        <v>11</v>
+      </c>
+      <c r="C701" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D701" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="E701" t="s">
+        <v>19</v>
+      </c>
+      <c r="F701" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="702" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A702" t="s">
+        <v>31</v>
+      </c>
+      <c r="B702" t="s">
+        <v>49</v>
+      </c>
+      <c r="C702" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D702" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="E702" t="s">
+        <v>24</v>
+      </c>
+      <c r="F702" t="s">
+        <v>18</v>
+      </c>
+      <c r="G702" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="703" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A703" t="s">
+        <v>31</v>
+      </c>
+      <c r="B703" t="s">
+        <v>49</v>
+      </c>
+      <c r="C703" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D703" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="E703" t="s">
+        <v>6</v>
+      </c>
+      <c r="F703" t="s">
+        <v>18</v>
+      </c>
+      <c r="G703" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="704" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A704" t="s">
+        <v>80</v>
+      </c>
+      <c r="B704" t="s">
+        <v>11</v>
+      </c>
+      <c r="C704" t="s">
+        <v>49</v>
+      </c>
+      <c r="D704" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="E704" t="s">
+        <v>19</v>
+      </c>
+      <c r="F704" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="705" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A705" t="s">
+        <v>82</v>
+      </c>
+      <c r="B705" t="s">
+        <v>90</v>
+      </c>
+      <c r="C705" t="s">
+        <v>28</v>
+      </c>
+      <c r="D705" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="E705" t="s">
+        <v>24</v>
+      </c>
+      <c r="F705" t="s">
+        <v>18</v>
+      </c>
+      <c r="G705" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="706" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A706" t="s">
+        <v>82</v>
+      </c>
+      <c r="B706" t="s">
+        <v>90</v>
+      </c>
+      <c r="C706" t="s">
+        <v>28</v>
+      </c>
+      <c r="D706" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="E706" t="s">
+        <v>6</v>
+      </c>
+      <c r="F706" t="s">
+        <v>18</v>
+      </c>
+      <c r="G706" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="707" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A707" t="s">
+        <v>87</v>
+      </c>
+      <c r="B707" t="s">
+        <v>11</v>
+      </c>
+      <c r="C707" t="s">
+        <v>90</v>
+      </c>
+      <c r="D707" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="E707" t="s">
+        <v>24</v>
+      </c>
+      <c r="F707" t="s">
+        <v>18</v>
+      </c>
+      <c r="G707" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="708" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A708" t="s">
+        <v>87</v>
+      </c>
+      <c r="B708" t="s">
+        <v>11</v>
+      </c>
+      <c r="C708" t="s">
+        <v>90</v>
+      </c>
+      <c r="D708" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="E708" t="s">
+        <v>6</v>
+      </c>
+      <c r="F708" t="s">
+        <v>18</v>
+      </c>
+      <c r="G708" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="709" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A709" t="s">
+        <v>62</v>
+      </c>
+      <c r="B709" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C709" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D709" t="s">
+        <v>22</v>
+      </c>
+      <c r="E709" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="F709" t="s">
+        <v>19</v>
+      </c>
+      <c r="G709" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="710" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A710" t="s">
+        <v>63</v>
+      </c>
+      <c r="B710" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C710" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D710" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E710" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="F710" t="s">
+        <v>19</v>
+      </c>
+      <c r="G710" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="711" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A711" t="s">
+        <v>35</v>
+      </c>
+      <c r="B711" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C711" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D711" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E711" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="F711" t="s">
+        <v>24</v>
+      </c>
+      <c r="G711" t="s">
+        <v>18</v>
+      </c>
+      <c r="H711" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="712" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A712" t="s">
+        <v>35</v>
+      </c>
+      <c r="B712" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C712" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D712" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E712" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="F712" t="s">
+        <v>6</v>
+      </c>
+      <c r="G712" t="s">
+        <v>18</v>
+      </c>
+      <c r="H712" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="713" spans="1:8" ht="17" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A713" t="s">
+        <v>43</v>
+      </c>
+      <c r="B713" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C713" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D713" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E713" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="F713" t="s">
+        <v>19</v>
+      </c>
+      <c r="G713" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="714" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A714" t="s">
+        <v>88</v>
+      </c>
+      <c r="B714" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C714" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D714" t="s">
+        <v>22</v>
+      </c>
+      <c r="E714" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="F714" t="s">
+        <v>24</v>
+      </c>
+      <c r="G714" t="s">
+        <v>18</v>
+      </c>
+      <c r="H714" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="715" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A715" t="s">
+        <v>88</v>
+      </c>
+      <c r="B715" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C715" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D715" t="s">
+        <v>22</v>
+      </c>
+      <c r="E715" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="F715" t="s">
+        <v>6</v>
+      </c>
+      <c r="G715" t="s">
+        <v>18</v>
+      </c>
+      <c r="H715" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="716" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A716" t="s">
+        <v>76</v>
+      </c>
+      <c r="B716" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C716" t="s">
+        <v>28</v>
+      </c>
+      <c r="D716" t="s">
+        <v>22</v>
+      </c>
+      <c r="E716" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="F716" t="s">
+        <v>19</v>
+      </c>
+      <c r="G716" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="717" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A717" t="s">
+        <v>67</v>
+      </c>
+      <c r="B717" t="s">
+        <v>49</v>
+      </c>
+      <c r="C717" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D717" t="s">
+        <v>90</v>
+      </c>
+      <c r="E717" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="F717" t="s">
+        <v>24</v>
+      </c>
+      <c r="G717" t="s">
+        <v>18</v>
+      </c>
+      <c r="H717" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="718" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A718" t="s">
+        <v>67</v>
+      </c>
+      <c r="B718" t="s">
+        <v>49</v>
+      </c>
+      <c r="C718" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D718" t="s">
+        <v>90</v>
+      </c>
+      <c r="E718" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="F718" t="s">
+        <v>6</v>
+      </c>
+      <c r="G718" t="s">
+        <v>18</v>
+      </c>
+      <c r="H718" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="719" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A719" t="s">
+        <v>68</v>
+      </c>
+      <c r="B719" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C719" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D719" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E719" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="F719" t="s">
+        <v>19</v>
+      </c>
+      <c r="G719" t="s">
+        <v>20</v>
+      </c>
+      <c r="H719" s="1"/>
+    </row>
+    <row r="720" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A720" t="s">
+        <v>77</v>
+      </c>
+      <c r="B720" t="s">
+        <v>11</v>
+      </c>
+      <c r="C720" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D720" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E720" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="F720" t="s">
+        <v>19</v>
+      </c>
+      <c r="G720" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="721" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A721" t="s">
+        <v>41</v>
+      </c>
+      <c r="B721" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C721" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D721" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E721" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="F721" t="s">
+        <v>24</v>
+      </c>
+      <c r="G721" t="s">
+        <v>18</v>
+      </c>
+      <c r="H721" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="722" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A722" t="s">
+        <v>41</v>
+      </c>
+      <c r="B722" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C722" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D722" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E722" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="F722" t="s">
+        <v>6</v>
+      </c>
+      <c r="G722" t="s">
+        <v>18</v>
+      </c>
+      <c r="H722" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="723" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A723" t="s">
+        <v>41</v>
+      </c>
+      <c r="B723" t="s">
+        <v>28</v>
+      </c>
+      <c r="C723" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D723" t="s">
+        <v>90</v>
+      </c>
+      <c r="E723" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="F723" t="s">
+        <v>24</v>
+      </c>
+      <c r="G723" t="s">
+        <v>18</v>
+      </c>
+      <c r="H723" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="724" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A724" t="s">
+        <v>41</v>
+      </c>
+      <c r="B724" t="s">
+        <v>28</v>
+      </c>
+      <c r="C724" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D724" t="s">
+        <v>90</v>
+      </c>
+      <c r="E724" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="F724" t="s">
+        <v>6</v>
+      </c>
+      <c r="G724" t="s">
+        <v>18</v>
+      </c>
+      <c r="H724" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="725" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A725" t="s">
+        <v>85</v>
+      </c>
+      <c r="B725" t="s">
+        <v>11</v>
+      </c>
+      <c r="C725" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D725" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E725" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="F725" t="s">
+        <v>19</v>
+      </c>
+      <c r="G725" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="726" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A726" t="s">
+        <v>84</v>
+      </c>
+      <c r="B726" t="s">
+        <v>11</v>
+      </c>
+      <c r="C726" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D726" t="s">
+        <v>90</v>
+      </c>
+      <c r="E726" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="F726" t="s">
+        <v>24</v>
+      </c>
+      <c r="G726" t="s">
+        <v>18</v>
+      </c>
+      <c r="H726" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="727" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A727" t="s">
+        <v>84</v>
+      </c>
+      <c r="B727" t="s">
+        <v>11</v>
+      </c>
+      <c r="C727" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D727" t="s">
+        <v>90</v>
+      </c>
+      <c r="E727" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="F727" t="s">
+        <v>6</v>
+      </c>
+      <c r="G727" t="s">
+        <v>18</v>
+      </c>
+      <c r="H727" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="728" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A728" t="s">
+        <v>80</v>
+      </c>
+      <c r="B728" t="s">
+        <v>11</v>
+      </c>
+      <c r="C728" t="s">
+        <v>49</v>
+      </c>
+      <c r="D728" t="s">
+        <v>90</v>
+      </c>
+      <c r="E728" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="F728" t="s">
+        <v>24</v>
+      </c>
+      <c r="G728" t="s">
+        <v>18</v>
+      </c>
+      <c r="H728" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="729" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A729" t="s">
+        <v>80</v>
+      </c>
+      <c r="B729" t="s">
+        <v>11</v>
+      </c>
+      <c r="C729" t="s">
+        <v>49</v>
+      </c>
+      <c r="D729" t="s">
+        <v>90</v>
+      </c>
+      <c r="E729" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="F729" t="s">
+        <v>6</v>
+      </c>
+      <c r="G729" t="s">
+        <v>18</v>
+      </c>
+      <c r="H729" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="730" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A730" t="s">
+        <v>62</v>
+      </c>
+      <c r="B730" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C730" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D730" t="s">
+        <v>90</v>
+      </c>
+      <c r="E730" t="s">
+        <v>22</v>
+      </c>
+      <c r="F730" t="s">
+        <v>122</v>
+      </c>
+      <c r="G730" t="s">
+        <v>24</v>
+      </c>
+      <c r="H730" t="s">
+        <v>18</v>
+      </c>
+      <c r="I730" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="731" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A731" t="s">
+        <v>62</v>
+      </c>
+      <c r="B731" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C731" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D731" t="s">
+        <v>90</v>
+      </c>
+      <c r="E731" t="s">
+        <v>22</v>
+      </c>
+      <c r="F731" t="s">
+        <v>122</v>
+      </c>
+      <c r="G731" t="s">
+        <v>6</v>
+      </c>
+      <c r="H731" t="s">
+        <v>18</v>
+      </c>
+      <c r="I731" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="732" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A732" t="s">
+        <v>63</v>
+      </c>
+      <c r="B732" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C732" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D732" t="s">
+        <v>90</v>
+      </c>
+      <c r="E732" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F732" t="s">
+        <v>122</v>
+      </c>
+      <c r="G732" t="s">
+        <v>24</v>
+      </c>
+      <c r="H732" t="s">
+        <v>18</v>
+      </c>
+      <c r="I732" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="733" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A733" t="s">
+        <v>63</v>
+      </c>
+      <c r="B733" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C733" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D733" t="s">
+        <v>90</v>
+      </c>
+      <c r="E733" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F733" t="s">
+        <v>122</v>
+      </c>
+      <c r="G733" t="s">
+        <v>6</v>
+      </c>
+      <c r="H733" t="s">
+        <v>18</v>
+      </c>
+      <c r="I733" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="734" spans="1:9" ht="17" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A734" t="s">
+        <v>43</v>
+      </c>
+      <c r="B734" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C734" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D734" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E734" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F734" t="s">
+        <v>122</v>
+      </c>
+      <c r="G734" t="s">
+        <v>24</v>
+      </c>
+      <c r="H734" t="s">
+        <v>18</v>
+      </c>
+      <c r="I734" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="735" spans="1:9" ht="17" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A735" t="s">
+        <v>43</v>
+      </c>
+      <c r="B735" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C735" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D735" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E735" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F735" t="s">
+        <v>122</v>
+      </c>
+      <c r="G735" t="s">
+        <v>6</v>
+      </c>
+      <c r="H735" t="s">
+        <v>18</v>
+      </c>
+      <c r="I735" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="736" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A736" t="s">
+        <v>76</v>
+      </c>
+      <c r="B736" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C736" t="s">
+        <v>90</v>
+      </c>
+      <c r="D736" t="s">
+        <v>28</v>
+      </c>
+      <c r="E736" t="s">
+        <v>22</v>
+      </c>
+      <c r="F736" t="s">
+        <v>122</v>
+      </c>
+      <c r="G736" t="s">
+        <v>24</v>
+      </c>
+      <c r="H736" t="s">
+        <v>18</v>
+      </c>
+      <c r="I736" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="737" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A737" t="s">
+        <v>76</v>
+      </c>
+      <c r="B737" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C737" t="s">
+        <v>90</v>
+      </c>
+      <c r="D737" t="s">
+        <v>28</v>
+      </c>
+      <c r="E737" t="s">
+        <v>22</v>
+      </c>
+      <c r="F737" t="s">
+        <v>122</v>
+      </c>
+      <c r="G737" t="s">
+        <v>45</v>
+      </c>
+      <c r="H737" t="s">
+        <v>18</v>
+      </c>
+      <c r="I737" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="738" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A738" t="s">
+        <v>68</v>
+      </c>
+      <c r="B738" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C738" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D738" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E738" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F738" t="s">
+        <v>122</v>
+      </c>
+      <c r="G738" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H738" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I738" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="739" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A739" t="s">
+        <v>68</v>
+      </c>
+      <c r="B739" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C739" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D739" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E739" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F739" t="s">
+        <v>122</v>
+      </c>
+      <c r="G739" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H739" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I739" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="740" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A740" t="s">
+        <v>78</v>
+      </c>
+      <c r="B740" t="s">
+        <v>11</v>
+      </c>
+      <c r="C740" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D740" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E740" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F740" t="s">
+        <v>122</v>
+      </c>
+      <c r="G740" t="s">
+        <v>19</v>
+      </c>
+      <c r="H740" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="741" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A741" t="s">
+        <v>77</v>
+      </c>
+      <c r="B741" t="s">
+        <v>11</v>
+      </c>
+      <c r="C741" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D741" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E741" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="F741" t="s">
+        <v>122</v>
+      </c>
+      <c r="G741" t="s">
+        <v>24</v>
+      </c>
+      <c r="H741" t="s">
+        <v>18</v>
+      </c>
+      <c r="I741" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="742" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A742" t="s">
+        <v>77</v>
+      </c>
+      <c r="B742" t="s">
+        <v>11</v>
+      </c>
+      <c r="C742" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D742" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E742" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="F742" t="s">
+        <v>122</v>
+      </c>
+      <c r="G742" t="s">
+        <v>6</v>
+      </c>
+      <c r="H742" t="s">
+        <v>18</v>
+      </c>
+      <c r="I742" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="743" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A743" t="s">
+        <v>85</v>
+      </c>
+      <c r="B743" t="s">
+        <v>11</v>
+      </c>
+      <c r="C743" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D743" t="s">
+        <v>90</v>
+      </c>
+      <c r="E743" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F743" t="s">
+        <v>122</v>
+      </c>
+      <c r="G743" t="s">
+        <v>24</v>
+      </c>
+      <c r="H743" t="s">
+        <v>18</v>
+      </c>
+      <c r="I743" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="744" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A744" t="s">
+        <v>85</v>
+      </c>
+      <c r="B744" t="s">
+        <v>11</v>
+      </c>
+      <c r="C744" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D744" t="s">
+        <v>90</v>
+      </c>
+      <c r="E744" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F744" t="s">
+        <v>122</v>
+      </c>
+      <c r="G744" t="s">
+        <v>6</v>
+      </c>
+      <c r="H744" t="s">
+        <v>18</v>
+      </c>
+      <c r="I744" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="745" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A745" t="s">
+        <v>78</v>
+      </c>
+      <c r="B745" t="s">
+        <v>11</v>
+      </c>
+      <c r="C745" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D745" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E745" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="F745" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G745" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="H745" t="s">
+        <v>24</v>
+      </c>
+      <c r="I745" t="s">
+        <v>18</v>
+      </c>
+      <c r="J745" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="746" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A746" t="s">
+        <v>78</v>
+      </c>
+      <c r="B746" t="s">
+        <v>11</v>
+      </c>
+      <c r="C746" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D746" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E746" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="F746" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G746" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="H746" t="s">
+        <v>6</v>
+      </c>
+      <c r="I746" t="s">
+        <v>18</v>
+      </c>
+      <c r="J746" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:J672" xr:uid="{C7D2990A-F429-0248-9892-0EF6030E3150}"/>
+  <autoFilter ref="A1:J746" xr:uid="{C7D2990A-F429-0248-9892-0EF6030E3150}">
+    <filterColumn colId="7">
+      <filters>
+        <filter val="agglomerativeClustering"/>
+        <filter val="autoClassification"/>
+        <filter val="clustermap"/>
+        <filter val="featureImportancePlot"/>
+        <filter val="linearRegression"/>
+        <filter val="logisticRegression"/>
+        <filter val="scatterplot"/>
+        <filter val="tableRegression"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -27669,7 +29433,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87FAA623-A1BD-4D43-86F2-BAAF15CFDB2B}">
   <dimension ref="A1:J672"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>

--- a/DSBot/kb.xlsx
+++ b/DSBot/kb.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sarapido/Desktop/DSBot/DSBot/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{046066B9-3E44-C04F-8F4E-41916DAA49F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BDB2E58-2CBB-684A-B41A-5C08CD6131C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2980" yWindow="500" windowWidth="28040" windowHeight="17440" activeTab="2" xr2:uid="{B2A427CD-3A3B-AB4F-8475-A6742BF1F99B}"/>
+    <workbookView xWindow="220" yWindow="500" windowWidth="28040" windowHeight="17440" activeTab="2" xr2:uid="{B2A427CD-3A3B-AB4F-8475-A6742BF1F99B}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13540" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13882" uniqueCount="125">
   <si>
     <t>ds</t>
   </si>
@@ -411,6 +411,12 @@
   </si>
   <si>
     <t>userFeatureSelection</t>
+  </si>
+  <si>
+    <t>lasso</t>
+  </si>
+  <si>
+    <t>lassoPlot</t>
   </si>
 </sst>
 </file>
@@ -1674,7 +1680,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{107DD696-A5A6-CB45-B2DD-8D2A6C9062E3}">
   <dimension ref="A1:J435"/>
   <sheetViews>
-    <sheetView topLeftCell="A363" zoomScale="99" workbookViewId="0">
+    <sheetView topLeftCell="A364" zoomScale="99" workbookViewId="0">
       <selection activeCell="A386" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -11795,15 +11801,15 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7D2990A-F429-0248-9892-0EF6030E3150}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:J746"/>
+  <dimension ref="A1:J1042"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G748" sqref="G748"/>
+    <sheetView tabSelected="1" topLeftCell="A763" workbookViewId="0">
+      <selection activeCell="D800" sqref="D800"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="64.5" customWidth="1"/>
+    <col min="1" max="1" width="69.33203125" customWidth="1"/>
     <col min="2" max="2" width="24" customWidth="1"/>
     <col min="3" max="3" width="26.5" customWidth="1"/>
     <col min="4" max="4" width="24.1640625" customWidth="1"/>
@@ -12121,7 +12127,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>61</v>
       </c>
@@ -12147,7 +12153,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>61</v>
       </c>
@@ -12173,7 +12179,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>94</v>
       </c>
@@ -12222,7 +12228,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>61</v>
       </c>
@@ -12372,7 +12378,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="26" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>95</v>
       </c>
@@ -12421,7 +12427,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>62</v>
       </c>
@@ -12450,7 +12456,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>62</v>
       </c>
@@ -12479,7 +12485,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>62</v>
       </c>
@@ -12502,7 +12508,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="31" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>62</v>
       </c>
@@ -12522,7 +12528,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="32" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>62</v>
       </c>
@@ -12551,7 +12557,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="33" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>62</v>
       </c>
@@ -12580,7 +12586,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="34" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>95</v>
       </c>
@@ -12609,7 +12615,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="35" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>95</v>
       </c>
@@ -12635,7 +12641,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="36" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>72</v>
       </c>
@@ -12658,7 +12664,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="37" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>63</v>
       </c>
@@ -12730,7 +12736,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="40" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>63</v>
       </c>
@@ -12759,7 +12765,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="41" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>63</v>
       </c>
@@ -12788,7 +12794,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="42" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>63</v>
       </c>
@@ -12811,7 +12817,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="43" spans="1:10" ht="17" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>63</v>
       </c>
@@ -12840,7 +12846,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="44" spans="1:10" ht="17" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>63</v>
       </c>
@@ -12869,7 +12875,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="45" spans="1:10" ht="17" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>96</v>
       </c>
@@ -12898,7 +12904,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="46" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>96</v>
       </c>
@@ -12924,7 +12930,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="47" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>63</v>
       </c>
@@ -12953,7 +12959,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="48" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>63</v>
       </c>
@@ -12985,7 +12991,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="49" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>63</v>
       </c>
@@ -13051,7 +13057,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="52" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>35</v>
       </c>
@@ -13074,7 +13080,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="53" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>35</v>
       </c>
@@ -13097,7 +13103,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="54" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>35</v>
       </c>
@@ -13120,7 +13126,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="55" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>97</v>
       </c>
@@ -13143,7 +13149,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="56" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>97</v>
       </c>
@@ -13163,7 +13169,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="57" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>35</v>
       </c>
@@ -13238,7 +13244,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="60" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>35</v>
       </c>
@@ -13258,7 +13264,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="61" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>35</v>
       </c>
@@ -13353,7 +13359,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="65" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>97</v>
       </c>
@@ -13376,7 +13382,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="66" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>58</v>
       </c>
@@ -13397,7 +13403,7 @@
       </c>
       <c r="G66" s="1"/>
     </row>
-    <row r="67" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>58</v>
       </c>
@@ -13524,7 +13530,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="72" spans="1:9" ht="17" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>98</v>
       </c>
@@ -13573,7 +13579,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="74" spans="1:9" ht="17" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>43</v>
       </c>
@@ -13602,7 +13608,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="75" spans="1:9" ht="17" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>43</v>
       </c>
@@ -13631,7 +13637,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="76" spans="1:9" ht="17" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>43</v>
       </c>
@@ -13654,7 +13660,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="77" spans="1:9" ht="17" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>43</v>
       </c>
@@ -13674,7 +13680,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="78" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>43</v>
       </c>
@@ -13703,7 +13709,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="79" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>43</v>
       </c>
@@ -13732,7 +13738,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="80" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>98</v>
       </c>
@@ -13761,7 +13767,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="81" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>98</v>
       </c>
@@ -13850,7 +13856,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="85" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>88</v>
       </c>
@@ -13873,7 +13879,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="86" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>88</v>
       </c>
@@ -13948,7 +13954,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="89" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>88</v>
       </c>
@@ -13968,7 +13974,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="90" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>88</v>
       </c>
@@ -13985,7 +13991,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="91" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>65</v>
       </c>
@@ -13999,7 +14005,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="92" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>65</v>
       </c>
@@ -14016,7 +14022,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="93" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
         <v>76</v>
       </c>
@@ -14091,7 +14097,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="96" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>76</v>
       </c>
@@ -14120,7 +14126,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="97" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>76</v>
       </c>
@@ -14149,7 +14155,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="98" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>76</v>
       </c>
@@ -14172,7 +14178,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="99" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>76</v>
       </c>
@@ -14233,7 +14239,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="102" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>33</v>
       </c>
@@ -14253,7 +14259,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="103" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>33</v>
       </c>
@@ -14273,7 +14279,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="104" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>33</v>
       </c>
@@ -14296,7 +14302,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="105" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>33</v>
       </c>
@@ -14319,7 +14325,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="106" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>33</v>
       </c>
@@ -14336,7 +14342,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="107" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>33</v>
       </c>
@@ -14350,7 +14356,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="108" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>59</v>
       </c>
@@ -14368,7 +14374,7 @@
       </c>
       <c r="G108" s="1"/>
     </row>
-    <row r="109" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>59</v>
       </c>
@@ -14729,7 +14735,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="128" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>67</v>
       </c>
@@ -14752,7 +14758,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="129" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>67</v>
       </c>
@@ -14827,7 +14833,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="132" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>67</v>
       </c>
@@ -14850,7 +14856,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="133" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>67</v>
       </c>
@@ -14873,7 +14879,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="134" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>101</v>
       </c>
@@ -14896,7 +14902,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="135" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>101</v>
       </c>
@@ -14916,7 +14922,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="136" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>67</v>
       </c>
@@ -14936,7 +14942,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="137" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>67</v>
       </c>
@@ -15032,7 +15038,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="141" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>101</v>
       </c>
@@ -15055,7 +15061,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="142" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A142" s="1" t="s">
         <v>68</v>
       </c>
@@ -15182,7 +15188,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="147" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>102</v>
       </c>
@@ -15231,7 +15237,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="149" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>68</v>
       </c>
@@ -15260,7 +15266,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="150" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>68</v>
       </c>
@@ -15289,7 +15295,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="151" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>68</v>
       </c>
@@ -15313,7 +15319,7 @@
       </c>
       <c r="H151" s="1"/>
     </row>
-    <row r="152" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>68</v>
       </c>
@@ -15334,7 +15340,7 @@
       </c>
       <c r="G152" s="1"/>
     </row>
-    <row r="153" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>68</v>
       </c>
@@ -15363,7 +15369,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="154" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>68</v>
       </c>
@@ -15392,7 +15398,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="155" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>102</v>
       </c>
@@ -15421,7 +15427,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="156" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>102</v>
       </c>
@@ -15447,7 +15453,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="157" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>78</v>
       </c>
@@ -15476,7 +15482,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="158" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>78</v>
       </c>
@@ -15505,7 +15511,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="159" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>78</v>
       </c>
@@ -15534,7 +15540,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="160" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>103</v>
       </c>
@@ -15563,7 +15569,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="161" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>103</v>
       </c>
@@ -15589,7 +15595,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="162" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>78</v>
       </c>
@@ -15650,7 +15656,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="164" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>78</v>
       </c>
@@ -15708,7 +15714,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="166" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>78</v>
       </c>
@@ -15795,7 +15801,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="169" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>78</v>
       </c>
@@ -15827,7 +15833,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="170" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>78</v>
       </c>
@@ -15986,7 +15992,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="176" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>77</v>
       </c>
@@ -16015,7 +16021,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="177" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>77</v>
       </c>
@@ -16044,7 +16050,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="178" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>77</v>
       </c>
@@ -16067,7 +16073,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="179" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>77</v>
       </c>
@@ -16087,7 +16093,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="180" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>77</v>
       </c>
@@ -16116,7 +16122,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="181" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>77</v>
       </c>
@@ -16145,7 +16151,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="182" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>104</v>
       </c>
@@ -16174,7 +16180,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="183" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>104</v>
       </c>
@@ -16197,7 +16203,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="184" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>105</v>
       </c>
@@ -16246,7 +16252,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>69</v>
       </c>
@@ -16272,7 +16278,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="187" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>69</v>
       </c>
@@ -16298,7 +16304,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="188" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>69</v>
       </c>
@@ -16324,7 +16330,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="189" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>106</v>
       </c>
@@ -16373,7 +16379,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="191" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>69</v>
       </c>
@@ -16614,7 +16620,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="200" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>70</v>
       </c>
@@ -16640,7 +16646,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="201" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>70</v>
       </c>
@@ -16666,7 +16672,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="202" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>70</v>
       </c>
@@ -16692,7 +16698,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="203" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>108</v>
       </c>
@@ -16741,7 +16747,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="205" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>70</v>
       </c>
@@ -16788,7 +16794,7 @@
       </c>
       <c r="G206" s="1"/>
     </row>
-    <row r="207" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
         <v>70</v>
       </c>
@@ -16814,7 +16820,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="208" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
         <v>70</v>
       </c>
@@ -16840,7 +16846,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="209" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>70</v>
       </c>
@@ -16866,7 +16872,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="210" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>108</v>
       </c>
@@ -16915,7 +16921,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="212" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
         <v>70</v>
       </c>
@@ -16961,7 +16967,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="214" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
         <v>34</v>
       </c>
@@ -16981,7 +16987,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="215" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
         <v>34</v>
       </c>
@@ -17001,7 +17007,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="216" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
         <v>34</v>
       </c>
@@ -17021,7 +17027,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="217" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
         <v>109</v>
       </c>
@@ -17041,7 +17047,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="218" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
         <v>109</v>
       </c>
@@ -17058,7 +17064,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="219" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
         <v>34</v>
       </c>
@@ -17078,7 +17084,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="220" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
         <v>34</v>
       </c>
@@ -17101,7 +17107,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="221" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
         <v>34</v>
       </c>
@@ -17124,7 +17130,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="222" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
         <v>34</v>
       </c>
@@ -17141,7 +17147,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="223" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
         <v>34</v>
       </c>
@@ -17155,7 +17161,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="224" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
         <v>34</v>
       </c>
@@ -17178,7 +17184,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="225" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
         <v>34</v>
       </c>
@@ -17201,7 +17207,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="226" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
         <v>109</v>
       </c>
@@ -17224,7 +17230,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="227" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
         <v>109</v>
       </c>
@@ -17244,7 +17250,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="228" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
         <v>41</v>
       </c>
@@ -17264,7 +17270,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="229" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
         <v>41</v>
       </c>
@@ -17284,7 +17290,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="230" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
         <v>41</v>
       </c>
@@ -17304,7 +17310,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="231" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
         <v>110</v>
       </c>
@@ -17324,7 +17330,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="232" spans="1:7" ht="17" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
         <v>110</v>
       </c>
@@ -17341,7 +17347,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="233" spans="1:7" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:7" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
         <v>41</v>
       </c>
@@ -17361,7 +17367,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="234" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
         <v>41</v>
       </c>
@@ -17384,7 +17390,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="235" spans="1:7" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
         <v>41</v>
       </c>
@@ -17407,7 +17413,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="236" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
         <v>41</v>
       </c>
@@ -17424,7 +17430,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="237" spans="1:7" ht="17" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
         <v>41</v>
       </c>
@@ -17447,7 +17453,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="238" spans="1:7" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:7" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
         <v>41</v>
       </c>
@@ -17470,7 +17476,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="239" spans="1:7" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:7" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
         <v>41</v>
       </c>
@@ -17493,7 +17499,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="240" spans="1:7" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:7" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
         <v>110</v>
       </c>
@@ -17516,7 +17522,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="241" spans="1:8" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
         <v>110</v>
       </c>
@@ -17536,7 +17542,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="242" spans="1:8" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
         <v>41</v>
       </c>
@@ -17611,7 +17617,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="245" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
         <v>41</v>
       </c>
@@ -17631,7 +17637,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="246" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
         <v>41</v>
       </c>
@@ -17726,7 +17732,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="250" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
         <v>110</v>
       </c>
@@ -17749,7 +17755,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="251" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
         <v>41</v>
       </c>
@@ -17763,7 +17769,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="252" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
         <v>41</v>
       </c>
@@ -17786,7 +17792,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="253" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
         <v>41</v>
       </c>
@@ -17809,7 +17815,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="254" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
         <v>41</v>
       </c>
@@ -17832,7 +17838,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="255" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
         <v>110</v>
       </c>
@@ -17855,7 +17861,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="256" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
         <v>110</v>
       </c>
@@ -17875,7 +17881,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="257" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
         <v>41</v>
       </c>
@@ -17950,7 +17956,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="260" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
         <v>41</v>
       </c>
@@ -17970,7 +17976,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="261" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
         <v>41</v>
       </c>
@@ -17987,7 +17993,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="262" spans="1:9" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
         <v>85</v>
       </c>
@@ -18111,7 +18117,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="267" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
         <v>111</v>
       </c>
@@ -18160,7 +18166,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="269" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
         <v>85</v>
       </c>
@@ -18189,7 +18195,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="270" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
         <v>85</v>
       </c>
@@ -18218,7 +18224,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="271" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
         <v>85</v>
       </c>
@@ -18241,7 +18247,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="272" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
         <v>85</v>
       </c>
@@ -18261,7 +18267,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="273" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
         <v>85</v>
       </c>
@@ -18290,7 +18296,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="274" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
         <v>85</v>
       </c>
@@ -18319,7 +18325,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="275" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
         <v>111</v>
       </c>
@@ -18348,7 +18354,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="276" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
         <v>111</v>
       </c>
@@ -18374,7 +18380,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="277" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
         <v>85</v>
       </c>
@@ -18391,7 +18397,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="278" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
         <v>84</v>
       </c>
@@ -18414,7 +18420,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="279" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
         <v>84</v>
       </c>
@@ -18437,7 +18443,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="280" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
         <v>84</v>
       </c>
@@ -18460,7 +18466,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="281" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
         <v>112</v>
       </c>
@@ -18483,7 +18489,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="282" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
         <v>112</v>
       </c>
@@ -18503,7 +18509,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="283" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
         <v>84</v>
       </c>
@@ -18578,7 +18584,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="286" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
         <v>84</v>
       </c>
@@ -18676,7 +18682,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="290" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
         <v>112</v>
       </c>
@@ -19293,7 +19299,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="319" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A319" t="s">
         <v>86</v>
       </c>
@@ -19319,7 +19325,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="320" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A320" t="s">
         <v>86</v>
       </c>
@@ -19345,7 +19351,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="321" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A321" t="s">
         <v>86</v>
       </c>
@@ -19371,7 +19377,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="322" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A322" t="s">
         <v>115</v>
       </c>
@@ -19420,7 +19426,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="324" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A324" t="s">
         <v>86</v>
       </c>
@@ -19689,7 +19695,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="337" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A337" t="s">
         <v>31</v>
       </c>
@@ -19706,7 +19712,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="338" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A338" t="s">
         <v>31</v>
       </c>
@@ -19720,7 +19726,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="339" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A339" t="s">
         <v>31</v>
       </c>
@@ -19740,7 +19746,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="340" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A340" t="s">
         <v>31</v>
       </c>
@@ -19760,7 +19766,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="341" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A341" t="s">
         <v>31</v>
       </c>
@@ -19783,7 +19789,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="342" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A342" t="s">
         <v>31</v>
       </c>
@@ -19806,7 +19812,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="343" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A343" s="1" t="s">
         <v>75</v>
       </c>
@@ -19827,7 +19833,7 @@
       </c>
       <c r="G343" s="1"/>
     </row>
-    <row r="344" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A344" t="s">
         <v>80</v>
       </c>
@@ -19850,7 +19856,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="345" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A345" t="s">
         <v>80</v>
       </c>
@@ -19925,7 +19931,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="348" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A348" t="s">
         <v>80</v>
       </c>
@@ -19945,7 +19951,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="349" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A349" t="s">
         <v>80</v>
       </c>
@@ -20046,7 +20052,7 @@
       </c>
       <c r="F353" s="1"/>
     </row>
-    <row r="354" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A354" t="s">
         <v>32</v>
       </c>
@@ -20064,7 +20070,7 @@
       </c>
       <c r="F354" s="1"/>
     </row>
-    <row r="355" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A355" t="s">
         <v>32</v>
       </c>
@@ -20082,7 +20088,7 @@
       </c>
       <c r="F355" s="1"/>
     </row>
-    <row r="356" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A356" t="s">
         <v>32</v>
       </c>
@@ -20102,7 +20108,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="357" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A357" t="s">
         <v>32</v>
       </c>
@@ -20122,7 +20128,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="358" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A358" t="s">
         <v>32</v>
       </c>
@@ -20137,7 +20143,7 @@
       </c>
       <c r="E358" s="1"/>
     </row>
-    <row r="359" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A359" t="s">
         <v>32</v>
       </c>
@@ -20149,7 +20155,7 @@
       </c>
       <c r="D359" s="1"/>
     </row>
-    <row r="360" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A360" t="s">
         <v>82</v>
       </c>
@@ -20166,7 +20172,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="361" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A361" t="s">
         <v>82</v>
       </c>
@@ -20183,7 +20189,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="362" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A362" t="s">
         <v>82</v>
       </c>
@@ -20203,7 +20209,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="363" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A363" t="s">
         <v>82</v>
       </c>
@@ -20223,7 +20229,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="364" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A364" t="s">
         <v>82</v>
       </c>
@@ -20243,7 +20249,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="365" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A365" t="s">
         <v>82</v>
       </c>
@@ -20257,7 +20263,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="366" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A366" t="s">
         <v>82</v>
       </c>
@@ -20274,7 +20280,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="367" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A367" t="s">
         <v>82</v>
       </c>
@@ -20294,7 +20300,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="368" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A368" t="s">
         <v>82</v>
       </c>
@@ -20314,7 +20320,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="369" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A369" t="s">
         <v>82</v>
       </c>
@@ -20337,7 +20343,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="370" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A370" t="s">
         <v>82</v>
       </c>
@@ -20360,7 +20366,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="371" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A371" t="s">
         <v>82</v>
       </c>
@@ -20377,7 +20383,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="372" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A372" t="s">
         <v>82</v>
       </c>
@@ -20391,7 +20397,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="373" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A373" t="s">
         <v>82</v>
       </c>
@@ -20402,7 +20408,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="374" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A374" t="s">
         <v>87</v>
       </c>
@@ -20422,7 +20428,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="375" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A375" t="s">
         <v>87</v>
       </c>
@@ -20442,7 +20448,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="376" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A376" t="s">
         <v>87</v>
       </c>
@@ -20465,7 +20471,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="377" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A377" t="s">
         <v>87</v>
       </c>
@@ -20488,7 +20494,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="378" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A378" t="s">
         <v>87</v>
       </c>
@@ -20505,7 +20511,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="379" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A379" t="s">
         <v>87</v>
       </c>
@@ -20689,7 +20695,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="390" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A390" t="s">
         <v>34</v>
       </c>
@@ -20709,7 +20715,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="391" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A391" t="s">
         <v>34</v>
       </c>
@@ -20729,7 +20735,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="392" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A392" t="s">
         <v>41</v>
       </c>
@@ -20749,7 +20755,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="393" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A393" t="s">
         <v>41</v>
       </c>
@@ -20769,7 +20775,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="394" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A394" t="s">
         <v>35</v>
       </c>
@@ -20792,7 +20798,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="395" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A395" t="s">
         <v>35</v>
       </c>
@@ -20815,7 +20821,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="396" spans="1:7" ht="17" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A396" t="s">
         <v>67</v>
       </c>
@@ -20838,7 +20844,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="397" spans="1:7" ht="17" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A397" t="s">
         <v>67</v>
       </c>
@@ -20861,7 +20867,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="398" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A398" t="s">
         <v>34</v>
       </c>
@@ -20884,7 +20890,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="399" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A399" t="s">
         <v>34</v>
       </c>
@@ -20907,7 +20913,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="400" spans="1:7" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:7" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A400" t="s">
         <v>41</v>
       </c>
@@ -20930,7 +20936,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="401" spans="1:8" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:8" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A401" t="s">
         <v>41</v>
       </c>
@@ -20953,7 +20959,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="402" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A402" t="s">
         <v>41</v>
       </c>
@@ -20976,7 +20982,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="403" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A403" t="s">
         <v>41</v>
       </c>
@@ -20999,7 +21005,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="404" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A404" t="s">
         <v>84</v>
       </c>
@@ -21022,7 +21028,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="405" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A405" t="s">
         <v>84</v>
       </c>
@@ -21513,7 +21519,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="424" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A424" t="s">
         <v>62</v>
       </c>
@@ -21542,7 +21548,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="425" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A425" t="s">
         <v>62</v>
       </c>
@@ -21571,7 +21577,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="426" spans="1:9" ht="17" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A426" t="s">
         <v>63</v>
       </c>
@@ -21600,7 +21606,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="427" spans="1:9" ht="17" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A427" t="s">
         <v>63</v>
       </c>
@@ -21629,7 +21635,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="428" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A428" t="s">
         <v>43</v>
       </c>
@@ -21658,7 +21664,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="429" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A429" t="s">
         <v>43</v>
       </c>
@@ -21687,7 +21693,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="430" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A430" t="s">
         <v>68</v>
       </c>
@@ -21716,7 +21722,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="431" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A431" t="s">
         <v>68</v>
       </c>
@@ -21745,7 +21751,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="432" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A432" t="s">
         <v>78</v>
       </c>
@@ -21774,7 +21780,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="433" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A433" t="s">
         <v>78</v>
       </c>
@@ -21803,7 +21809,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="434" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A434" t="s">
         <v>77</v>
       </c>
@@ -21832,7 +21838,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="435" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A435" t="s">
         <v>77</v>
       </c>
@@ -21861,7 +21867,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="436" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A436" t="s">
         <v>85</v>
       </c>
@@ -21890,7 +21896,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="437" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A437" t="s">
         <v>85</v>
       </c>
@@ -21919,7 +21925,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="438" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A438" t="s">
         <v>78</v>
       </c>
@@ -21951,7 +21957,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="439" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A439" t="s">
         <v>78</v>
       </c>
@@ -22020,7 +22026,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="442" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A442" t="s">
         <v>109</v>
       </c>
@@ -22040,7 +22046,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="443" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A443" t="s">
         <v>109</v>
       </c>
@@ -22057,7 +22063,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="444" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A444" t="s">
         <v>110</v>
       </c>
@@ -22077,7 +22083,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="445" spans="1:10" ht="17" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A445" t="s">
         <v>110</v>
       </c>
@@ -22168,7 +22174,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="450" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A450" t="s">
         <v>109</v>
       </c>
@@ -22188,7 +22194,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="451" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A451" t="s">
         <v>109</v>
       </c>
@@ -22205,7 +22211,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="452" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A452" t="s">
         <v>110</v>
       </c>
@@ -22225,7 +22231,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="453" spans="1:7" ht="17" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A453" t="s">
         <v>110</v>
       </c>
@@ -22279,7 +22285,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="456" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A456" t="s">
         <v>97</v>
       </c>
@@ -22302,7 +22308,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="457" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A457" t="s">
         <v>97</v>
       </c>
@@ -22365,7 +22371,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="460" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A460" t="s">
         <v>101</v>
       </c>
@@ -22388,7 +22394,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="461" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A461" t="s">
         <v>101</v>
       </c>
@@ -22408,7 +22414,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="462" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A462" t="s">
         <v>109</v>
       </c>
@@ -22431,7 +22437,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="463" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A463" t="s">
         <v>109</v>
       </c>
@@ -22451,7 +22457,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="464" spans="1:7" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:7" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A464" t="s">
         <v>110</v>
       </c>
@@ -22474,7 +22480,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="465" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A465" t="s">
         <v>110</v>
       </c>
@@ -22494,7 +22500,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="466" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A466" t="s">
         <v>110</v>
       </c>
@@ -22517,7 +22523,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="467" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A467" t="s">
         <v>110</v>
       </c>
@@ -22537,7 +22543,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="468" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A468" t="s">
         <v>112</v>
       </c>
@@ -22560,7 +22566,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="469" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A469" t="s">
         <v>112</v>
       </c>
@@ -22752,7 +22758,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="478" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A478" t="s">
         <v>97</v>
       </c>
@@ -22775,7 +22781,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="479" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A479" t="s">
         <v>97</v>
       </c>
@@ -22838,7 +22844,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="482" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="482" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A482" t="s">
         <v>101</v>
       </c>
@@ -22861,7 +22867,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="483" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="483" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A483" t="s">
         <v>101</v>
       </c>
@@ -22881,7 +22887,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="484" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="484" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A484" t="s">
         <v>109</v>
       </c>
@@ -22904,7 +22910,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="485" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="485" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A485" t="s">
         <v>109</v>
       </c>
@@ -22924,7 +22930,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="486" spans="1:7" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="486" spans="1:7" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A486" t="s">
         <v>110</v>
       </c>
@@ -22947,7 +22953,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="487" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="487" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A487" t="s">
         <v>110</v>
       </c>
@@ -22967,7 +22973,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="488" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="488" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A488" t="s">
         <v>110</v>
       </c>
@@ -22990,7 +22996,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="489" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="489" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A489" t="s">
         <v>110</v>
       </c>
@@ -23010,7 +23016,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="490" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="490" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A490" t="s">
         <v>112</v>
       </c>
@@ -23033,7 +23039,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="491" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="491" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A491" t="s">
         <v>112</v>
       </c>
@@ -23225,7 +23231,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="500" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="500" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A500" t="s">
         <v>94</v>
       </c>
@@ -23300,7 +23306,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="503" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="503" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A503" t="s">
         <v>95</v>
       </c>
@@ -23349,7 +23355,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="505" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="505" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A505" t="s">
         <v>97</v>
       </c>
@@ -23398,7 +23404,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="507" spans="1:8" ht="17" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="507" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A507" t="s">
         <v>98</v>
       </c>
@@ -23447,7 +23453,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="509" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="509" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A509" t="s">
         <v>101</v>
       </c>
@@ -23496,7 +23502,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="511" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="511" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A511" t="s">
         <v>102</v>
       </c>
@@ -23545,7 +23551,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="513" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="513" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A513" t="s">
         <v>104</v>
       </c>
@@ -23568,7 +23574,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="514" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="514" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A514" t="s">
         <v>106</v>
       </c>
@@ -23617,7 +23623,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="516" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="516" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A516" t="s">
         <v>108</v>
       </c>
@@ -23666,7 +23672,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="518" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="518" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A518" t="s">
         <v>108</v>
       </c>
@@ -23741,7 +23747,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="521" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="521" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A521" t="s">
         <v>110</v>
       </c>
@@ -23790,7 +23796,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="523" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="523" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A523" t="s">
         <v>111</v>
       </c>
@@ -23839,7 +23845,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="525" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="525" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A525" t="s">
         <v>112</v>
       </c>
@@ -23862,7 +23868,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="526" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="526" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A526" t="s">
         <v>115</v>
       </c>
@@ -23911,7 +23917,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="528" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="528" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A528" t="s">
         <v>94</v>
       </c>
@@ -23986,7 +23992,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="531" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="531" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A531" t="s">
         <v>95</v>
       </c>
@@ -24035,7 +24041,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="533" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="533" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A533" t="s">
         <v>97</v>
       </c>
@@ -24084,7 +24090,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="535" spans="1:8" ht="17" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="535" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A535" t="s">
         <v>98</v>
       </c>
@@ -24133,7 +24139,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="537" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="537" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A537" t="s">
         <v>101</v>
       </c>
@@ -24182,7 +24188,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="539" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="539" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A539" t="s">
         <v>102</v>
       </c>
@@ -24231,7 +24237,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="541" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="541" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A541" t="s">
         <v>104</v>
       </c>
@@ -24254,7 +24260,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="542" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="542" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A542" t="s">
         <v>106</v>
       </c>
@@ -24303,7 +24309,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="544" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="544" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A544" t="s">
         <v>108</v>
       </c>
@@ -24352,7 +24358,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="546" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="546" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A546" t="s">
         <v>108</v>
       </c>
@@ -24427,7 +24433,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="549" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="549" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A549" t="s">
         <v>110</v>
       </c>
@@ -24476,7 +24482,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="551" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="551" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A551" t="s">
         <v>111</v>
       </c>
@@ -24525,7 +24531,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="553" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="553" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A553" t="s">
         <v>112</v>
       </c>
@@ -24548,7 +24554,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="554" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="554" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A554" t="s">
         <v>115</v>
       </c>
@@ -24597,7 +24603,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="556" spans="1:9" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="556" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A556" t="s">
         <v>95</v>
       </c>
@@ -24626,7 +24632,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="557" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="557" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A557" t="s">
         <v>95</v>
       </c>
@@ -24652,7 +24658,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="558" spans="1:9" ht="17" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="558" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A558" t="s">
         <v>96</v>
       </c>
@@ -24681,7 +24687,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="559" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="559" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A559" t="s">
         <v>96</v>
       </c>
@@ -24707,7 +24713,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="560" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="560" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A560" t="s">
         <v>98</v>
       </c>
@@ -24736,7 +24742,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="561" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="561" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A561" t="s">
         <v>98</v>
       </c>
@@ -24762,7 +24768,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="562" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="562" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A562" t="s">
         <v>102</v>
       </c>
@@ -24791,7 +24797,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="563" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="563" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A563" t="s">
         <v>102</v>
       </c>
@@ -24817,7 +24823,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="564" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="564" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A564" t="s">
         <v>103</v>
       </c>
@@ -24846,7 +24852,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="565" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="565" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A565" t="s">
         <v>103</v>
       </c>
@@ -24872,7 +24878,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="566" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="566" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A566" t="s">
         <v>104</v>
       </c>
@@ -24901,7 +24907,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="567" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="567" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A567" t="s">
         <v>105</v>
       </c>
@@ -24982,7 +24988,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="570" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="570" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A570" t="s">
         <v>111</v>
       </c>
@@ -25011,7 +25017,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="571" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="571" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A571" t="s">
         <v>111</v>
       </c>
@@ -25037,7 +25043,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="572" spans="1:9" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="572" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A572" t="s">
         <v>95</v>
       </c>
@@ -25066,7 +25072,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="573" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="573" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A573" t="s">
         <v>95</v>
       </c>
@@ -25092,7 +25098,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="574" spans="1:9" ht="17" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="574" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A574" t="s">
         <v>96</v>
       </c>
@@ -25121,7 +25127,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="575" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="575" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A575" t="s">
         <v>96</v>
       </c>
@@ -25147,7 +25153,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="576" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="576" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A576" t="s">
         <v>98</v>
       </c>
@@ -25176,7 +25182,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="577" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="577" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A577" t="s">
         <v>98</v>
       </c>
@@ -25202,7 +25208,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="578" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="578" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A578" t="s">
         <v>102</v>
       </c>
@@ -25231,7 +25237,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="579" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="579" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A579" t="s">
         <v>102</v>
       </c>
@@ -25257,7 +25263,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="580" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="580" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A580" t="s">
         <v>103</v>
       </c>
@@ -25286,7 +25292,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="581" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="581" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A581" t="s">
         <v>103</v>
       </c>
@@ -25312,7 +25318,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="582" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="582" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A582" t="s">
         <v>104</v>
       </c>
@@ -25341,7 +25347,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="583" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="583" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A583" t="s">
         <v>105</v>
       </c>
@@ -25422,7 +25428,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="586" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="586" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A586" t="s">
         <v>111</v>
       </c>
@@ -25451,7 +25457,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="587" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="587" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A587" t="s">
         <v>111</v>
       </c>
@@ -25761,7 +25767,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="598" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="598" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A598" t="s">
         <v>34</v>
       </c>
@@ -25781,7 +25787,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="599" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="599" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A599" t="s">
         <v>34</v>
       </c>
@@ -25801,7 +25807,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="600" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="600" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A600" t="s">
         <v>41</v>
       </c>
@@ -25821,7 +25827,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="601" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="601" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A601" t="s">
         <v>41</v>
       </c>
@@ -25927,7 +25933,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="606" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="606" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A606" t="s">
         <v>35</v>
       </c>
@@ -25950,7 +25956,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="607" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="607" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A607" t="s">
         <v>35</v>
       </c>
@@ -26019,7 +26025,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="610" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="610" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A610" t="s">
         <v>67</v>
       </c>
@@ -26042,7 +26048,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="611" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="611" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A611" t="s">
         <v>67</v>
       </c>
@@ -26065,7 +26071,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="612" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="612" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A612" t="s">
         <v>34</v>
       </c>
@@ -26088,7 +26094,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="613" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="613" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A613" t="s">
         <v>34</v>
       </c>
@@ -26111,7 +26117,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="614" spans="1:7" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="614" spans="1:7" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A614" t="s">
         <v>41</v>
       </c>
@@ -26134,7 +26140,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="615" spans="1:7" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="615" spans="1:7" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A615" t="s">
         <v>41</v>
       </c>
@@ -26157,7 +26163,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="616" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="616" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A616" t="s">
         <v>41</v>
       </c>
@@ -26180,7 +26186,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="617" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="617" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A617" t="s">
         <v>41</v>
       </c>
@@ -26203,7 +26209,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="618" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="618" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A618" t="s">
         <v>84</v>
       </c>
@@ -26226,7 +26232,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="619" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="619" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A619" t="s">
         <v>84</v>
       </c>
@@ -26433,7 +26439,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="628" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="628" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A628" t="s">
         <v>61</v>
       </c>
@@ -26771,7 +26777,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="641" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="641" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A641" t="s">
         <v>69</v>
       </c>
@@ -26797,7 +26803,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="642" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="642" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A642" t="s">
         <v>69</v>
       </c>
@@ -26823,7 +26829,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="643" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="643" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A643" t="s">
         <v>70</v>
       </c>
@@ -26849,7 +26855,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="644" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="644" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A644" t="s">
         <v>70</v>
       </c>
@@ -26875,7 +26881,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="645" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="645" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A645" t="s">
         <v>70</v>
       </c>
@@ -26901,7 +26907,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="646" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="646" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A646" t="s">
         <v>70</v>
       </c>
@@ -27083,7 +27089,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="653" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="653" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A653" t="s">
         <v>86</v>
       </c>
@@ -27109,7 +27115,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="654" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="654" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A654" t="s">
         <v>86</v>
       </c>
@@ -27135,7 +27141,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="655" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="655" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A655" t="s">
         <v>62</v>
       </c>
@@ -27164,7 +27170,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="656" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="656" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A656" t="s">
         <v>62</v>
       </c>
@@ -27193,7 +27199,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="657" spans="1:10" ht="17" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="657" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A657" t="s">
         <v>63</v>
       </c>
@@ -27222,7 +27228,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="658" spans="1:10" ht="17" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="658" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A658" t="s">
         <v>63</v>
       </c>
@@ -27251,7 +27257,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="659" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="659" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A659" t="s">
         <v>43</v>
       </c>
@@ -27280,7 +27286,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="660" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="660" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A660" t="s">
         <v>43</v>
       </c>
@@ -27309,7 +27315,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="661" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="661" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A661" t="s">
         <v>68</v>
       </c>
@@ -27338,7 +27344,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="662" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="662" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A662" t="s">
         <v>68</v>
       </c>
@@ -27367,7 +27373,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="663" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="663" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A663" t="s">
         <v>78</v>
       </c>
@@ -27396,7 +27402,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="664" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="664" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A664" t="s">
         <v>78</v>
       </c>
@@ -27425,7 +27431,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="665" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="665" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A665" t="s">
         <v>77</v>
       </c>
@@ -27454,7 +27460,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="666" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="666" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A666" t="s">
         <v>77</v>
       </c>
@@ -27541,7 +27547,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="669" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="669" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A669" t="s">
         <v>85</v>
       </c>
@@ -27570,7 +27576,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="670" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="670" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A670" t="s">
         <v>85</v>
       </c>
@@ -27599,7 +27605,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="671" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="671" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A671" t="s">
         <v>78</v>
       </c>
@@ -27631,7 +27637,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="672" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="672" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A672" t="s">
         <v>78</v>
       </c>
@@ -27663,7 +27669,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="673" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="673" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A673" t="s">
         <v>32</v>
       </c>
@@ -27678,7 +27684,7 @@
       </c>
       <c r="E673" s="1"/>
     </row>
-    <row r="674" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="674" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A674" t="s">
         <v>82</v>
       </c>
@@ -27692,7 +27698,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="675" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="675" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A675" t="s">
         <v>65</v>
       </c>
@@ -27709,7 +27715,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="676" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="676" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A676" t="s">
         <v>33</v>
       </c>
@@ -27726,7 +27732,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="677" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="677" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A677" t="s">
         <v>59</v>
       </c>
@@ -27744,7 +27750,7 @@
       </c>
       <c r="G677" s="1"/>
     </row>
-    <row r="678" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="678" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A678" t="s">
         <v>34</v>
       </c>
@@ -27761,7 +27767,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="679" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="679" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A679" t="s">
         <v>41</v>
       </c>
@@ -27778,7 +27784,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="680" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="680" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A680" t="s">
         <v>31</v>
       </c>
@@ -27795,7 +27801,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="681" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="681" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A681" t="s">
         <v>32</v>
       </c>
@@ -27815,7 +27821,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="682" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="682" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A682" t="s">
         <v>32</v>
       </c>
@@ -27835,7 +27841,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="683" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="683" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A683" t="s">
         <v>82</v>
       </c>
@@ -27855,7 +27861,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="684" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="684" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A684" t="s">
         <v>82</v>
       </c>
@@ -27875,7 +27881,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="685" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="685" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A685" t="s">
         <v>82</v>
       </c>
@@ -27895,7 +27901,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="686" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="686" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A686" t="s">
         <v>82</v>
       </c>
@@ -27912,7 +27918,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="687" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="687" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A687" t="s">
         <v>87</v>
       </c>
@@ -27929,7 +27935,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="688" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="688" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A688" t="s">
         <v>35</v>
       </c>
@@ -27949,7 +27955,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="689" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="689" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A689" t="s">
         <v>58</v>
       </c>
@@ -27972,7 +27978,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="690" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="690" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A690" t="s">
         <v>88</v>
       </c>
@@ -27992,7 +27998,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="691" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="691" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A691" t="s">
         <v>33</v>
       </c>
@@ -28015,7 +28021,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="692" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="692" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A692" t="s">
         <v>33</v>
       </c>
@@ -28038,7 +28044,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="693" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="693" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A693" t="s">
         <v>67</v>
       </c>
@@ -28058,7 +28064,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="694" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="694" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A694" t="s">
         <v>34</v>
       </c>
@@ -28081,7 +28087,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="695" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="695" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A695" t="s">
         <v>34</v>
       </c>
@@ -28104,7 +28110,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="696" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="696" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A696" t="s">
         <v>41</v>
       </c>
@@ -28127,7 +28133,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="697" spans="1:7" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="697" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A697" t="s">
         <v>41</v>
       </c>
@@ -28150,7 +28156,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="698" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="698" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A698" t="s">
         <v>41</v>
       </c>
@@ -28170,7 +28176,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="699" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="699" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A699" t="s">
         <v>41</v>
       </c>
@@ -28190,7 +28196,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="700" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="700" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A700" t="s">
         <v>85</v>
       </c>
@@ -28210,7 +28216,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="701" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="701" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A701" t="s">
         <v>84</v>
       </c>
@@ -28230,7 +28236,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="702" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="702" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A702" t="s">
         <v>31</v>
       </c>
@@ -28253,7 +28259,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="703" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="703" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A703" t="s">
         <v>31</v>
       </c>
@@ -28276,7 +28282,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="704" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="704" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A704" t="s">
         <v>80</v>
       </c>
@@ -28296,7 +28302,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="705" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="705" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A705" t="s">
         <v>82</v>
       </c>
@@ -28319,7 +28325,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="706" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="706" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A706" t="s">
         <v>82</v>
       </c>
@@ -28342,7 +28348,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="707" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="707" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A707" t="s">
         <v>87</v>
       </c>
@@ -28365,7 +28371,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="708" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="708" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A708" t="s">
         <v>87</v>
       </c>
@@ -28388,7 +28394,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="709" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="709" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A709" t="s">
         <v>62</v>
       </c>
@@ -28411,7 +28417,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="710" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="710" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A710" t="s">
         <v>63</v>
       </c>
@@ -28486,7 +28492,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="713" spans="1:8" ht="17" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="713" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A713" t="s">
         <v>43</v>
       </c>
@@ -28561,7 +28567,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="716" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="716" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A716" t="s">
         <v>76</v>
       </c>
@@ -28636,7 +28642,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="719" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="719" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A719" t="s">
         <v>68</v>
       </c>
@@ -28660,7 +28666,7 @@
       </c>
       <c r="H719" s="1"/>
     </row>
-    <row r="720" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="720" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A720" t="s">
         <v>77</v>
       </c>
@@ -28787,7 +28793,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="725" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="725" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A725" t="s">
         <v>85</v>
       </c>
@@ -28914,7 +28920,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="730" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="730" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A730" t="s">
         <v>62</v>
       </c>
@@ -28943,7 +28949,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="731" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="731" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A731" t="s">
         <v>62</v>
       </c>
@@ -28972,7 +28978,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="732" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="732" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A732" t="s">
         <v>63</v>
       </c>
@@ -29001,7 +29007,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="733" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="733" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A733" t="s">
         <v>63</v>
       </c>
@@ -29030,7 +29036,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="734" spans="1:9" ht="17" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="734" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A734" t="s">
         <v>43</v>
       </c>
@@ -29059,7 +29065,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="735" spans="1:9" ht="17" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="735" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A735" t="s">
         <v>43</v>
       </c>
@@ -29088,7 +29094,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="736" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="736" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A736" t="s">
         <v>76</v>
       </c>
@@ -29117,7 +29123,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="737" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="737" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A737" t="s">
         <v>76</v>
       </c>
@@ -29146,7 +29152,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="738" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="738" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A738" t="s">
         <v>68</v>
       </c>
@@ -29175,7 +29181,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="739" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="739" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A739" t="s">
         <v>68</v>
       </c>
@@ -29230,7 +29236,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="741" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="741" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A741" t="s">
         <v>77</v>
       </c>
@@ -29259,7 +29265,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="742" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="742" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A742" t="s">
         <v>77</v>
       </c>
@@ -29288,7 +29294,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="743" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="743" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A743" t="s">
         <v>85</v>
       </c>
@@ -29317,7 +29323,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="744" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="744" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A744" t="s">
         <v>85</v>
       </c>
@@ -29378,7 +29384,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="746" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="746" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A746" t="s">
         <v>78</v>
       </c>
@@ -29410,18 +29416,2262 @@
         <v>5</v>
       </c>
     </row>
+    <row r="747" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A747" t="s">
+        <v>62</v>
+      </c>
+      <c r="B747" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C747" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D747" t="s">
+        <v>90</v>
+      </c>
+      <c r="E747" t="s">
+        <v>22</v>
+      </c>
+      <c r="F747" t="s">
+        <v>90</v>
+      </c>
+      <c r="G747" t="s">
+        <v>123</v>
+      </c>
+      <c r="H747" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="748" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A748" t="s">
+        <v>95</v>
+      </c>
+      <c r="B748" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C748" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D748" t="s">
+        <v>22</v>
+      </c>
+      <c r="E748" t="s">
+        <v>90</v>
+      </c>
+      <c r="F748" t="s">
+        <v>123</v>
+      </c>
+      <c r="G748" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="749" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A749" t="s">
+        <v>62</v>
+      </c>
+      <c r="B749" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C749" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D749" t="s">
+        <v>90</v>
+      </c>
+      <c r="E749" t="s">
+        <v>22</v>
+      </c>
+      <c r="F749" t="s">
+        <v>90</v>
+      </c>
+      <c r="G749" t="s">
+        <v>123</v>
+      </c>
+      <c r="H749" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="750" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A750" t="s">
+        <v>95</v>
+      </c>
+      <c r="B750" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C750" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D750" t="s">
+        <v>22</v>
+      </c>
+      <c r="E750" t="s">
+        <v>90</v>
+      </c>
+      <c r="F750" t="s">
+        <v>123</v>
+      </c>
+      <c r="G750" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="751" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A751" t="s">
+        <v>72</v>
+      </c>
+      <c r="B751" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C751" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D751" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E751" t="s">
+        <v>90</v>
+      </c>
+      <c r="F751" t="s">
+        <v>123</v>
+      </c>
+      <c r="G751" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="752" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A752" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B752" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C752" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D752" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E752" t="s">
+        <v>90</v>
+      </c>
+      <c r="F752" t="s">
+        <v>123</v>
+      </c>
+      <c r="G752" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="753" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A753" t="s">
+        <v>96</v>
+      </c>
+      <c r="B753" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C753" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D753" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E753" t="s">
+        <v>22</v>
+      </c>
+      <c r="F753" t="s">
+        <v>90</v>
+      </c>
+      <c r="G753" t="s">
+        <v>123</v>
+      </c>
+      <c r="H753" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="754" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A754" t="s">
+        <v>63</v>
+      </c>
+      <c r="B754" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C754" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D754" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E754" t="s">
+        <v>22</v>
+      </c>
+      <c r="F754" t="s">
+        <v>90</v>
+      </c>
+      <c r="G754" t="s">
+        <v>123</v>
+      </c>
+      <c r="H754" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="755" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A755" t="s">
+        <v>35</v>
+      </c>
+      <c r="B755" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C755" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D755" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E755" t="s">
+        <v>90</v>
+      </c>
+      <c r="F755" t="s">
+        <v>123</v>
+      </c>
+      <c r="G755" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="756" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A756" t="s">
+        <v>97</v>
+      </c>
+      <c r="B756" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C756" t="s">
+        <v>22</v>
+      </c>
+      <c r="D756" t="s">
+        <v>90</v>
+      </c>
+      <c r="E756" t="s">
+        <v>123</v>
+      </c>
+      <c r="F756" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="757" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A757" t="s">
+        <v>35</v>
+      </c>
+      <c r="B757" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C757" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D757" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E757" t="s">
+        <v>90</v>
+      </c>
+      <c r="F757" t="s">
+        <v>123</v>
+      </c>
+      <c r="G757" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="758" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A758" t="s">
+        <v>97</v>
+      </c>
+      <c r="B758" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C758" t="s">
+        <v>22</v>
+      </c>
+      <c r="D758" t="s">
+        <v>90</v>
+      </c>
+      <c r="E758" t="s">
+        <v>123</v>
+      </c>
+      <c r="F758" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="759" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A759" t="s">
+        <v>58</v>
+      </c>
+      <c r="B759" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C759" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D759" t="s">
+        <v>90</v>
+      </c>
+      <c r="E759" t="s">
+        <v>123</v>
+      </c>
+      <c r="F759" t="s">
+        <v>124</v>
+      </c>
+      <c r="G759" s="1"/>
+    </row>
+    <row r="760" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A760" t="s">
+        <v>43</v>
+      </c>
+      <c r="B760" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C760" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D760" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E760" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F760" t="s">
+        <v>90</v>
+      </c>
+      <c r="G760" t="s">
+        <v>123</v>
+      </c>
+      <c r="H760" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="761" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A761" t="s">
+        <v>98</v>
+      </c>
+      <c r="B761" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C761" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D761" t="s">
+        <v>22</v>
+      </c>
+      <c r="E761" t="s">
+        <v>90</v>
+      </c>
+      <c r="F761" t="s">
+        <v>123</v>
+      </c>
+      <c r="G761" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="762" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A762" t="s">
+        <v>43</v>
+      </c>
+      <c r="B762" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C762" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D762" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E762" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F762" t="s">
+        <v>90</v>
+      </c>
+      <c r="G762" t="s">
+        <v>123</v>
+      </c>
+      <c r="H762" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="763" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A763" t="s">
+        <v>98</v>
+      </c>
+      <c r="B763" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C763" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D763" t="s">
+        <v>22</v>
+      </c>
+      <c r="E763" t="s">
+        <v>90</v>
+      </c>
+      <c r="F763" t="s">
+        <v>123</v>
+      </c>
+      <c r="G763" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="764" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A764" t="s">
+        <v>88</v>
+      </c>
+      <c r="B764" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C764" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D764" t="s">
+        <v>22</v>
+      </c>
+      <c r="E764" t="s">
+        <v>90</v>
+      </c>
+      <c r="F764" t="s">
+        <v>123</v>
+      </c>
+      <c r="G764" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="765" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A765" t="s">
+        <v>65</v>
+      </c>
+      <c r="B765" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C765" t="s">
+        <v>90</v>
+      </c>
+      <c r="D765" t="s">
+        <v>123</v>
+      </c>
+      <c r="E765" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="766" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A766" t="s">
+        <v>76</v>
+      </c>
+      <c r="B766" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C766" t="s">
+        <v>28</v>
+      </c>
+      <c r="D766" t="s">
+        <v>22</v>
+      </c>
+      <c r="E766" t="s">
+        <v>90</v>
+      </c>
+      <c r="F766" t="s">
+        <v>123</v>
+      </c>
+      <c r="G766" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="767" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A767" t="s">
+        <v>33</v>
+      </c>
+      <c r="B767" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C767" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D767" t="s">
+        <v>90</v>
+      </c>
+      <c r="E767" t="s">
+        <v>123</v>
+      </c>
+      <c r="F767" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="768" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A768" t="s">
+        <v>59</v>
+      </c>
+      <c r="B768" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C768" t="s">
+        <v>90</v>
+      </c>
+      <c r="D768" t="s">
+        <v>123</v>
+      </c>
+      <c r="E768" t="s">
+        <v>124</v>
+      </c>
+      <c r="G768" s="1"/>
+    </row>
+    <row r="769" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A769" t="s">
+        <v>67</v>
+      </c>
+      <c r="B769" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C769" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D769" t="s">
+        <v>90</v>
+      </c>
+      <c r="E769" t="s">
+        <v>123</v>
+      </c>
+      <c r="F769" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="770" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A770" t="s">
+        <v>101</v>
+      </c>
+      <c r="B770" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C770" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D770" t="s">
+        <v>90</v>
+      </c>
+      <c r="E770" t="s">
+        <v>123</v>
+      </c>
+      <c r="F770" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="771" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A771" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B771" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C771" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D771" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E771" t="s">
+        <v>90</v>
+      </c>
+      <c r="F771" t="s">
+        <v>123</v>
+      </c>
+      <c r="G771" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="772" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A772" t="s">
+        <v>102</v>
+      </c>
+      <c r="B772" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C772" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D772" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E772" t="s">
+        <v>90</v>
+      </c>
+      <c r="F772" t="s">
+        <v>123</v>
+      </c>
+      <c r="G772" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="773" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A773" t="s">
+        <v>78</v>
+      </c>
+      <c r="B773" t="s">
+        <v>11</v>
+      </c>
+      <c r="C773" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D773" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E773" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F773" t="s">
+        <v>90</v>
+      </c>
+      <c r="G773" t="s">
+        <v>123</v>
+      </c>
+      <c r="H773" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="774" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A774" t="s">
+        <v>103</v>
+      </c>
+      <c r="B774" t="s">
+        <v>11</v>
+      </c>
+      <c r="C774" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D774" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E774" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F774" t="s">
+        <v>90</v>
+      </c>
+      <c r="G774" t="s">
+        <v>123</v>
+      </c>
+      <c r="H774" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="775" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A775" t="s">
+        <v>77</v>
+      </c>
+      <c r="B775" t="s">
+        <v>11</v>
+      </c>
+      <c r="C775" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D775" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E775" t="s">
+        <v>90</v>
+      </c>
+      <c r="F775" t="s">
+        <v>123</v>
+      </c>
+      <c r="G775" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="776" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A776" t="s">
+        <v>104</v>
+      </c>
+      <c r="B776" t="s">
+        <v>11</v>
+      </c>
+      <c r="C776" t="s">
+        <v>49</v>
+      </c>
+      <c r="D776" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E776" t="s">
+        <v>90</v>
+      </c>
+      <c r="F776" t="s">
+        <v>123</v>
+      </c>
+      <c r="G776" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="777" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A777" t="s">
+        <v>77</v>
+      </c>
+      <c r="B777" t="s">
+        <v>11</v>
+      </c>
+      <c r="C777" t="s">
+        <v>49</v>
+      </c>
+      <c r="D777" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E777" t="s">
+        <v>90</v>
+      </c>
+      <c r="F777" t="s">
+        <v>123</v>
+      </c>
+      <c r="G777" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="778" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A778" t="s">
+        <v>104</v>
+      </c>
+      <c r="B778" t="s">
+        <v>11</v>
+      </c>
+      <c r="C778" t="s">
+        <v>49</v>
+      </c>
+      <c r="D778" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E778" t="s">
+        <v>90</v>
+      </c>
+      <c r="F778" t="s">
+        <v>123</v>
+      </c>
+      <c r="G778" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="779" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A779" t="s">
+        <v>34</v>
+      </c>
+      <c r="B779" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C779" t="s">
+        <v>90</v>
+      </c>
+      <c r="D779" t="s">
+        <v>123</v>
+      </c>
+      <c r="E779" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="780" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A780" t="s">
+        <v>109</v>
+      </c>
+      <c r="B780" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C780" t="s">
+        <v>90</v>
+      </c>
+      <c r="D780" t="s">
+        <v>123</v>
+      </c>
+      <c r="E780" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="781" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A781" t="s">
+        <v>41</v>
+      </c>
+      <c r="B781" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C781" t="s">
+        <v>90</v>
+      </c>
+      <c r="D781" t="s">
+        <v>123</v>
+      </c>
+      <c r="E781" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="782" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A782" t="s">
+        <v>110</v>
+      </c>
+      <c r="B782" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C782" t="s">
+        <v>90</v>
+      </c>
+      <c r="D782" t="s">
+        <v>123</v>
+      </c>
+      <c r="E782" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="783" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A783" t="s">
+        <v>85</v>
+      </c>
+      <c r="B783" t="s">
+        <v>11</v>
+      </c>
+      <c r="C783" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D783" t="s">
+        <v>90</v>
+      </c>
+      <c r="E783" t="s">
+        <v>123</v>
+      </c>
+      <c r="F783" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="784" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A784" t="s">
+        <v>111</v>
+      </c>
+      <c r="B784" t="s">
+        <v>11</v>
+      </c>
+      <c r="C784" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D784" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E784" t="s">
+        <v>90</v>
+      </c>
+      <c r="F784" t="s">
+        <v>123</v>
+      </c>
+      <c r="G784" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="785" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A785" t="s">
+        <v>84</v>
+      </c>
+      <c r="B785" t="s">
+        <v>11</v>
+      </c>
+      <c r="C785" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D785" t="s">
+        <v>90</v>
+      </c>
+      <c r="E785" t="s">
+        <v>123</v>
+      </c>
+      <c r="F785" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="786" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A786" t="s">
+        <v>112</v>
+      </c>
+      <c r="B786" t="s">
+        <v>11</v>
+      </c>
+      <c r="C786" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D786" t="s">
+        <v>90</v>
+      </c>
+      <c r="E786" t="s">
+        <v>123</v>
+      </c>
+      <c r="F786" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="787" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A787" t="s">
+        <v>34</v>
+      </c>
+      <c r="B787" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C787" t="s">
+        <v>90</v>
+      </c>
+      <c r="D787" t="s">
+        <v>123</v>
+      </c>
+      <c r="E787" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="788" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A788" t="s">
+        <v>35</v>
+      </c>
+      <c r="B788" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C788" t="s">
+        <v>22</v>
+      </c>
+      <c r="D788" t="s">
+        <v>90</v>
+      </c>
+      <c r="E788" t="s">
+        <v>123</v>
+      </c>
+      <c r="F788" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="789" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A789" t="s">
+        <v>34</v>
+      </c>
+      <c r="B789" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C789" t="s">
+        <v>90</v>
+      </c>
+      <c r="D789" t="s">
+        <v>123</v>
+      </c>
+      <c r="E789" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="790" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A790" t="s">
+        <v>84</v>
+      </c>
+      <c r="B790" t="s">
+        <v>11</v>
+      </c>
+      <c r="C790" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D790" t="s">
+        <v>90</v>
+      </c>
+      <c r="E790" t="s">
+        <v>123</v>
+      </c>
+      <c r="F790" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="791" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A791" t="s">
+        <v>62</v>
+      </c>
+      <c r="B791" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C791" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D791" t="s">
+        <v>22</v>
+      </c>
+      <c r="E791" t="s">
+        <v>90</v>
+      </c>
+      <c r="F791" t="s">
+        <v>123</v>
+      </c>
+      <c r="G791" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="792" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A792" t="s">
+        <v>35</v>
+      </c>
+      <c r="B792" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C792" t="s">
+        <v>22</v>
+      </c>
+      <c r="D792" t="s">
+        <v>90</v>
+      </c>
+      <c r="E792" t="s">
+        <v>123</v>
+      </c>
+      <c r="F792" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="793" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A793" t="s">
+        <v>43</v>
+      </c>
+      <c r="B793" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C793" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D793" t="s">
+        <v>22</v>
+      </c>
+      <c r="E793" t="s">
+        <v>90</v>
+      </c>
+      <c r="F793" t="s">
+        <v>123</v>
+      </c>
+      <c r="G793" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="794" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A794" t="s">
+        <v>67</v>
+      </c>
+      <c r="B794" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C794" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D794" t="s">
+        <v>90</v>
+      </c>
+      <c r="E794" t="s">
+        <v>123</v>
+      </c>
+      <c r="F794" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="795" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A795" t="s">
+        <v>68</v>
+      </c>
+      <c r="B795" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C795" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D795" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E795" t="s">
+        <v>90</v>
+      </c>
+      <c r="F795" t="s">
+        <v>123</v>
+      </c>
+      <c r="G795" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="796" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A796" t="s">
+        <v>77</v>
+      </c>
+      <c r="B796" t="s">
+        <v>11</v>
+      </c>
+      <c r="C796" t="s">
+        <v>49</v>
+      </c>
+      <c r="D796" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E796" t="s">
+        <v>90</v>
+      </c>
+      <c r="F796" t="s">
+        <v>123</v>
+      </c>
+      <c r="G796" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="797" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A797" t="s">
+        <v>41</v>
+      </c>
+      <c r="B797" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C797" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D797" t="s">
+        <v>90</v>
+      </c>
+      <c r="E797" t="s">
+        <v>123</v>
+      </c>
+      <c r="F797" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="798" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A798" t="s">
+        <v>85</v>
+      </c>
+      <c r="B798" t="s">
+        <v>11</v>
+      </c>
+      <c r="C798" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D798" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E798" t="s">
+        <v>90</v>
+      </c>
+      <c r="F798" t="s">
+        <v>123</v>
+      </c>
+      <c r="G798" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="799" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B799" s="1"/>
+      <c r="C799" s="1"/>
+      <c r="E799" s="1"/>
+    </row>
+    <row r="800" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B800" s="1"/>
+      <c r="C800" s="1"/>
+      <c r="E800" s="1"/>
+    </row>
+    <row r="801" spans="2:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B801" s="1"/>
+      <c r="C801" s="1"/>
+      <c r="D801" s="1"/>
+    </row>
+    <row r="802" spans="2:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B802" s="1"/>
+      <c r="C802" s="1"/>
+      <c r="D802" s="1"/>
+    </row>
+    <row r="803" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B803" s="1"/>
+      <c r="C803" s="1"/>
+      <c r="E803" s="1"/>
+    </row>
+    <row r="804" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B804" s="1"/>
+      <c r="C804" s="1"/>
+      <c r="E804" s="1"/>
+    </row>
+    <row r="805" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B805" s="1"/>
+      <c r="C805" s="1"/>
+      <c r="D805" s="1"/>
+      <c r="E805" s="1"/>
+    </row>
+    <row r="806" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B806" s="1"/>
+      <c r="C806" s="1"/>
+      <c r="D806" s="1"/>
+      <c r="E806" s="1"/>
+    </row>
+    <row r="807" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C807" s="1"/>
+      <c r="D807" s="1"/>
+      <c r="E807" s="1"/>
+    </row>
+    <row r="808" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C808" s="1"/>
+      <c r="D808" s="1"/>
+      <c r="E808" s="1"/>
+    </row>
+    <row r="809" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="D809" s="1"/>
+      <c r="E809" s="1"/>
+    </row>
+    <row r="810" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="D810" s="1"/>
+      <c r="E810" s="1"/>
+    </row>
+    <row r="811" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C811" s="1"/>
+      <c r="D811" s="1"/>
+      <c r="E811" s="1"/>
+    </row>
+    <row r="812" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C812" s="1"/>
+      <c r="D812" s="1"/>
+      <c r="E812" s="1"/>
+    </row>
+    <row r="813" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C813" s="1"/>
+      <c r="D813" s="1"/>
+      <c r="E813" s="1"/>
+      <c r="F813" s="1"/>
+    </row>
+    <row r="814" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C814" s="1"/>
+      <c r="D814" s="1"/>
+      <c r="E814" s="1"/>
+      <c r="F814" s="1"/>
+    </row>
+    <row r="815" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B815" s="1"/>
+    </row>
+    <row r="816" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B816" s="1"/>
+    </row>
+    <row r="817" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B817" s="1"/>
+    </row>
+    <row r="818" spans="2:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B818" s="1"/>
+    </row>
+    <row r="819" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B819" s="1"/>
+    </row>
+    <row r="820" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B820" s="1"/>
+    </row>
+    <row r="821" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B821" s="1"/>
+    </row>
+    <row r="822" spans="2:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B822" s="1"/>
+    </row>
+    <row r="823" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B823" s="1"/>
+    </row>
+    <row r="824" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B824" s="1"/>
+    </row>
+    <row r="825" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B825" s="1"/>
+      <c r="C825" s="1"/>
+    </row>
+    <row r="826" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B826" s="1"/>
+      <c r="C826" s="1"/>
+    </row>
+    <row r="827" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B827" s="1"/>
+      <c r="C827" s="1"/>
+    </row>
+    <row r="828" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B828" s="1"/>
+      <c r="C828" s="1"/>
+    </row>
+    <row r="829" spans="2:3" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B829" s="1"/>
+      <c r="C829" s="1"/>
+    </row>
+    <row r="830" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B830" s="1"/>
+      <c r="C830" s="1"/>
+    </row>
+    <row r="831" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B831" s="1"/>
+      <c r="C831" s="1"/>
+    </row>
+    <row r="832" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B832" s="1"/>
+      <c r="C832" s="1"/>
+    </row>
+    <row r="833" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C833" s="1"/>
+    </row>
+    <row r="834" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C834" s="1"/>
+    </row>
+    <row r="835" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B835" s="1"/>
+    </row>
+    <row r="836" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B836" s="1"/>
+    </row>
+    <row r="837" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B837" s="1"/>
+      <c r="C837" s="1"/>
+    </row>
+    <row r="838" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B838" s="1"/>
+      <c r="C838" s="1"/>
+    </row>
+    <row r="839" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B839" s="1"/>
+      <c r="C839" s="1"/>
+    </row>
+    <row r="840" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B840" s="1"/>
+      <c r="C840" s="1"/>
+    </row>
+    <row r="841" spans="2:3" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B841" s="1"/>
+      <c r="C841" s="1"/>
+    </row>
+    <row r="842" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B842" s="1"/>
+      <c r="C842" s="1"/>
+    </row>
+    <row r="843" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B843" s="1"/>
+      <c r="C843" s="1"/>
+    </row>
+    <row r="844" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B844" s="1"/>
+      <c r="C844" s="1"/>
+    </row>
+    <row r="845" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C845" s="1"/>
+    </row>
+    <row r="846" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C846" s="1"/>
+    </row>
+    <row r="847" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B847" s="1"/>
+      <c r="C847" s="1"/>
+    </row>
+    <row r="848" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B848" s="1"/>
+      <c r="C848" s="1"/>
+    </row>
+    <row r="849" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B849" s="1"/>
+      <c r="D849" s="1"/>
+    </row>
+    <row r="850" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B850" s="1"/>
+      <c r="D850" s="1"/>
+    </row>
+    <row r="851" spans="2:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B851" s="1"/>
+      <c r="C851" s="1"/>
+    </row>
+    <row r="852" spans="2:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B852" s="1"/>
+      <c r="C852" s="1"/>
+    </row>
+    <row r="853" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B853" s="1"/>
+      <c r="C853" s="1"/>
+      <c r="D853" s="1"/>
+    </row>
+    <row r="854" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B854" s="1"/>
+      <c r="C854" s="1"/>
+      <c r="D854" s="1"/>
+    </row>
+    <row r="855" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B855" s="1"/>
+      <c r="C855" s="1"/>
+      <c r="D855" s="1"/>
+    </row>
+    <row r="856" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B856" s="1"/>
+      <c r="C856" s="1"/>
+      <c r="D856" s="1"/>
+    </row>
+    <row r="857" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D857" s="1"/>
+    </row>
+    <row r="858" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C858" s="1"/>
+      <c r="D858" s="1"/>
+    </row>
+    <row r="859" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B859" s="1"/>
+      <c r="C859" s="1"/>
+      <c r="D859" s="1"/>
+    </row>
+    <row r="860" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B860" s="1"/>
+      <c r="C860" s="1"/>
+      <c r="D860" s="1"/>
+    </row>
+    <row r="861" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C861" s="1"/>
+      <c r="D861" s="1"/>
+    </row>
+    <row r="862" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C862" s="1"/>
+      <c r="D862" s="1"/>
+    </row>
+    <row r="863" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C863" s="1"/>
+      <c r="D863" s="1"/>
+    </row>
+    <row r="864" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C864" s="1"/>
+      <c r="D864" s="1"/>
+    </row>
+    <row r="865" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B865" s="1"/>
+      <c r="C865" s="1"/>
+    </row>
+    <row r="866" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B866" s="1"/>
+      <c r="C866" s="1"/>
+    </row>
+    <row r="867" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B867" s="1"/>
+      <c r="D867" s="1"/>
+    </row>
+    <row r="868" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B868" s="1"/>
+      <c r="D868" s="1"/>
+    </row>
+    <row r="869" spans="2:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B869" s="1"/>
+      <c r="C869" s="1"/>
+    </row>
+    <row r="870" spans="2:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B870" s="1"/>
+      <c r="C870" s="1"/>
+    </row>
+    <row r="871" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B871" s="1"/>
+      <c r="C871" s="1"/>
+      <c r="D871" s="1"/>
+    </row>
+    <row r="872" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B872" s="1"/>
+      <c r="C872" s="1"/>
+      <c r="D872" s="1"/>
+    </row>
+    <row r="873" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B873" s="1"/>
+      <c r="C873" s="1"/>
+      <c r="D873" s="1"/>
+    </row>
+    <row r="874" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B874" s="1"/>
+      <c r="C874" s="1"/>
+      <c r="D874" s="1"/>
+    </row>
+    <row r="875" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D875" s="1"/>
+    </row>
+    <row r="876" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C876" s="1"/>
+      <c r="D876" s="1"/>
+    </row>
+    <row r="877" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B877" s="1"/>
+      <c r="C877" s="1"/>
+      <c r="D877" s="1"/>
+    </row>
+    <row r="878" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B878" s="1"/>
+      <c r="C878" s="1"/>
+      <c r="D878" s="1"/>
+    </row>
+    <row r="879" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C879" s="1"/>
+      <c r="D879" s="1"/>
+    </row>
+    <row r="880" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C880" s="1"/>
+      <c r="D880" s="1"/>
+    </row>
+    <row r="881" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C881" s="1"/>
+      <c r="D881" s="1"/>
+    </row>
+    <row r="882" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C882" s="1"/>
+      <c r="D882" s="1"/>
+    </row>
+    <row r="883" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B883" s="1"/>
+      <c r="C883" s="1"/>
+      <c r="E883" s="1"/>
+    </row>
+    <row r="884" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B884" s="1"/>
+      <c r="C884" s="1"/>
+      <c r="E884" s="1"/>
+    </row>
+    <row r="885" spans="2:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B885" s="1"/>
+      <c r="C885" s="1"/>
+      <c r="D885" s="1"/>
+    </row>
+    <row r="886" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B886" s="1"/>
+      <c r="C886" s="1"/>
+      <c r="D886" s="1"/>
+    </row>
+    <row r="887" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B887" s="1"/>
+      <c r="C887" s="1"/>
+      <c r="E887" s="1"/>
+    </row>
+    <row r="888" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B888" s="1"/>
+      <c r="C888" s="1"/>
+      <c r="E888" s="1"/>
+    </row>
+    <row r="889" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B889" s="1"/>
+      <c r="C889" s="1"/>
+      <c r="D889" s="1"/>
+      <c r="E889" s="1"/>
+    </row>
+    <row r="890" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B890" s="1"/>
+      <c r="C890" s="1"/>
+      <c r="D890" s="1"/>
+      <c r="E890" s="1"/>
+    </row>
+    <row r="891" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C891" s="1"/>
+      <c r="D891" s="1"/>
+      <c r="E891" s="1"/>
+    </row>
+    <row r="892" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C892" s="1"/>
+      <c r="D892" s="1"/>
+      <c r="E892" s="1"/>
+    </row>
+    <row r="893" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D893" s="1"/>
+      <c r="E893" s="1"/>
+    </row>
+    <row r="894" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C894" s="1"/>
+      <c r="D894" s="1"/>
+      <c r="E894" s="1"/>
+    </row>
+    <row r="895" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C895" s="1"/>
+      <c r="D895" s="1"/>
+      <c r="E895" s="1"/>
+    </row>
+    <row r="896" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C896" s="1"/>
+      <c r="D896" s="1"/>
+      <c r="E896" s="1"/>
+    </row>
+    <row r="897" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B897" s="1"/>
+      <c r="C897" s="1"/>
+      <c r="E897" s="1"/>
+    </row>
+    <row r="898" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B898" s="1"/>
+      <c r="C898" s="1"/>
+      <c r="E898" s="1"/>
+    </row>
+    <row r="899" spans="2:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B899" s="1"/>
+      <c r="C899" s="1"/>
+      <c r="D899" s="1"/>
+    </row>
+    <row r="900" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B900" s="1"/>
+      <c r="C900" s="1"/>
+      <c r="D900" s="1"/>
+    </row>
+    <row r="901" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B901" s="1"/>
+      <c r="C901" s="1"/>
+      <c r="E901" s="1"/>
+    </row>
+    <row r="902" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B902" s="1"/>
+      <c r="C902" s="1"/>
+      <c r="E902" s="1"/>
+    </row>
+    <row r="903" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B903" s="1"/>
+      <c r="C903" s="1"/>
+      <c r="D903" s="1"/>
+      <c r="E903" s="1"/>
+    </row>
+    <row r="904" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B904" s="1"/>
+      <c r="C904" s="1"/>
+      <c r="D904" s="1"/>
+      <c r="E904" s="1"/>
+    </row>
+    <row r="905" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C905" s="1"/>
+      <c r="D905" s="1"/>
+      <c r="E905" s="1"/>
+    </row>
+    <row r="906" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C906" s="1"/>
+      <c r="D906" s="1"/>
+      <c r="E906" s="1"/>
+    </row>
+    <row r="907" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="D907" s="1"/>
+      <c r="E907" s="1"/>
+    </row>
+    <row r="908" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C908" s="1"/>
+      <c r="D908" s="1"/>
+      <c r="E908" s="1"/>
+    </row>
+    <row r="909" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C909" s="1"/>
+      <c r="D909" s="1"/>
+      <c r="E909" s="1"/>
+    </row>
+    <row r="910" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C910" s="1"/>
+      <c r="D910" s="1"/>
+      <c r="E910" s="1"/>
+    </row>
+    <row r="911" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B911" s="1"/>
+      <c r="C911" s="1"/>
+      <c r="D911" s="1"/>
+      <c r="F911" s="1"/>
+    </row>
+    <row r="912" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B912" s="1"/>
+      <c r="C912" s="1"/>
+      <c r="D912" s="1"/>
+      <c r="F912" s="1"/>
+    </row>
+    <row r="913" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C913" s="1"/>
+      <c r="D913" s="1"/>
+      <c r="E913" s="1"/>
+      <c r="F913" s="1"/>
+    </row>
+    <row r="914" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C914" s="1"/>
+      <c r="D914" s="1"/>
+      <c r="E914" s="1"/>
+      <c r="F914" s="1"/>
+    </row>
+    <row r="915" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B915" s="1"/>
+      <c r="C915" s="1"/>
+      <c r="D915" s="1"/>
+      <c r="F915" s="1"/>
+    </row>
+    <row r="916" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B916" s="1"/>
+      <c r="C916" s="1"/>
+      <c r="D916" s="1"/>
+      <c r="F916" s="1"/>
+    </row>
+    <row r="917" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C917" s="1"/>
+      <c r="D917" s="1"/>
+      <c r="E917" s="1"/>
+      <c r="F917" s="1"/>
+    </row>
+    <row r="918" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C918" s="1"/>
+      <c r="D918" s="1"/>
+      <c r="E918" s="1"/>
+      <c r="F918" s="1"/>
+    </row>
+    <row r="919" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B919" s="1"/>
+    </row>
+    <row r="920" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B920" s="1"/>
+    </row>
+    <row r="921" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B921" s="1"/>
+    </row>
+    <row r="922" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B922" s="1"/>
+    </row>
+    <row r="923" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B923" s="1"/>
+    </row>
+    <row r="924" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B924" s="1"/>
+    </row>
+    <row r="925" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B925" s="1"/>
+      <c r="C925" s="1"/>
+    </row>
+    <row r="926" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B926" s="1"/>
+      <c r="C926" s="1"/>
+    </row>
+    <row r="927" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B927" s="1"/>
+      <c r="C927" s="1"/>
+    </row>
+    <row r="928" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B928" s="1"/>
+      <c r="C928" s="1"/>
+    </row>
+    <row r="929" spans="2:4" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B929" s="1"/>
+      <c r="C929" s="1"/>
+    </row>
+    <row r="930" spans="2:4" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B930" s="1"/>
+      <c r="C930" s="1"/>
+    </row>
+    <row r="931" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B931" s="1"/>
+      <c r="C931" s="1"/>
+    </row>
+    <row r="932" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B932" s="1"/>
+      <c r="C932" s="1"/>
+    </row>
+    <row r="933" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C933" s="1"/>
+    </row>
+    <row r="934" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C934" s="1"/>
+    </row>
+    <row r="935" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B935" s="1"/>
+      <c r="C935" s="1"/>
+    </row>
+    <row r="936" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B936" s="1"/>
+      <c r="C936" s="1"/>
+    </row>
+    <row r="937" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B937" s="1"/>
+      <c r="D937" s="1"/>
+    </row>
+    <row r="938" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B938" s="1"/>
+      <c r="D938" s="1"/>
+    </row>
+    <row r="939" spans="2:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B939" s="1"/>
+      <c r="C939" s="1"/>
+    </row>
+    <row r="940" spans="2:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B940" s="1"/>
+      <c r="C940" s="1"/>
+    </row>
+    <row r="941" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B941" s="1"/>
+      <c r="C941" s="1"/>
+      <c r="D941" s="1"/>
+    </row>
+    <row r="942" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B942" s="1"/>
+      <c r="C942" s="1"/>
+      <c r="D942" s="1"/>
+    </row>
+    <row r="943" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B943" s="1"/>
+      <c r="C943" s="1"/>
+      <c r="D943" s="1"/>
+    </row>
+    <row r="944" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B944" s="1"/>
+      <c r="C944" s="1"/>
+      <c r="D944" s="1"/>
+    </row>
+    <row r="945" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D945" s="1"/>
+    </row>
+    <row r="946" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D946" s="1"/>
+    </row>
+    <row r="947" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B947" s="1"/>
+      <c r="C947" s="1"/>
+      <c r="D947" s="1"/>
+    </row>
+    <row r="948" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B948" s="1"/>
+      <c r="C948" s="1"/>
+      <c r="D948" s="1"/>
+    </row>
+    <row r="949" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C949" s="1"/>
+      <c r="D949" s="1"/>
+    </row>
+    <row r="950" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C950" s="1"/>
+      <c r="D950" s="1"/>
+    </row>
+    <row r="951" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C951" s="1"/>
+      <c r="D951" s="1"/>
+    </row>
+    <row r="952" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C952" s="1"/>
+      <c r="D952" s="1"/>
+    </row>
+    <row r="953" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B953" s="1"/>
+      <c r="C953" s="1"/>
+      <c r="E953" s="1"/>
+    </row>
+    <row r="954" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B954" s="1"/>
+      <c r="C954" s="1"/>
+      <c r="E954" s="1"/>
+    </row>
+    <row r="955" spans="2:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B955" s="1"/>
+      <c r="C955" s="1"/>
+      <c r="D955" s="1"/>
+    </row>
+    <row r="956" spans="2:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B956" s="1"/>
+      <c r="C956" s="1"/>
+      <c r="D956" s="1"/>
+    </row>
+    <row r="957" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B957" s="1"/>
+      <c r="C957" s="1"/>
+      <c r="E957" s="1"/>
+    </row>
+    <row r="958" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B958" s="1"/>
+      <c r="C958" s="1"/>
+      <c r="E958" s="1"/>
+    </row>
+    <row r="959" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B959" s="1"/>
+      <c r="C959" s="1"/>
+      <c r="D959" s="1"/>
+      <c r="E959" s="1"/>
+    </row>
+    <row r="960" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B960" s="1"/>
+      <c r="C960" s="1"/>
+      <c r="D960" s="1"/>
+      <c r="E960" s="1"/>
+    </row>
+    <row r="961" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="C961" s="1"/>
+      <c r="D961" s="1"/>
+      <c r="E961" s="1"/>
+    </row>
+    <row r="962" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="C962" s="1"/>
+      <c r="D962" s="1"/>
+      <c r="E962" s="1"/>
+    </row>
+    <row r="963" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="D963" s="1"/>
+      <c r="E963" s="1"/>
+    </row>
+    <row r="964" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="D964" s="1"/>
+      <c r="E964" s="1"/>
+    </row>
+    <row r="965" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="C965" s="1"/>
+      <c r="D965" s="1"/>
+      <c r="E965" s="1"/>
+    </row>
+    <row r="966" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="C966" s="1"/>
+      <c r="D966" s="1"/>
+      <c r="E966" s="1"/>
+    </row>
+    <row r="967" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="C967" s="1"/>
+      <c r="D967" s="1"/>
+      <c r="E967" s="1"/>
+      <c r="F967" s="1"/>
+    </row>
+    <row r="968" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="C968" s="1"/>
+      <c r="D968" s="1"/>
+      <c r="E968" s="1"/>
+      <c r="F968" s="1"/>
+    </row>
+    <row r="969" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="C969" s="1"/>
+      <c r="D969" s="1"/>
+      <c r="E969" s="1"/>
+    </row>
+    <row r="971" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B971" s="1"/>
+      <c r="D971" s="1"/>
+      <c r="E971" s="1"/>
+    </row>
+    <row r="972" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B972" s="1"/>
+    </row>
+    <row r="973" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B973" s="1"/>
+      <c r="D973" s="1"/>
+      <c r="E973" s="1"/>
+      <c r="G973" s="1"/>
+    </row>
+    <row r="974" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B974" s="1"/>
+    </row>
+    <row r="975" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B975" s="1"/>
+    </row>
+    <row r="977" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="E977" s="1"/>
+    </row>
+    <row r="978" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="E978" s="1"/>
+    </row>
+    <row r="981" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="D981" s="1"/>
+      <c r="E981" s="1"/>
+      <c r="F981" s="1"/>
+    </row>
+    <row r="982" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B982" s="1"/>
+    </row>
+    <row r="984" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B984" s="1"/>
+      <c r="C984" s="1"/>
+      <c r="D984" s="1"/>
+    </row>
+    <row r="985" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B985" s="1"/>
+      <c r="C985" s="1"/>
+      <c r="D985" s="1"/>
+      <c r="E985" s="1"/>
+      <c r="F985" s="1"/>
+      <c r="G985" s="1"/>
+    </row>
+    <row r="986" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B986" s="1"/>
+      <c r="D986" s="1"/>
+    </row>
+    <row r="987" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B987" s="1"/>
+      <c r="C987" s="1"/>
+      <c r="D987" s="1"/>
+    </row>
+    <row r="988" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B988" s="1"/>
+      <c r="C988" s="1"/>
+      <c r="D988" s="1"/>
+    </row>
+    <row r="989" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B989" s="1"/>
+      <c r="C989" s="1"/>
+      <c r="D989" s="1"/>
+    </row>
+    <row r="990" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B990" s="1"/>
+      <c r="C990" s="1"/>
+      <c r="D990" s="1"/>
+    </row>
+    <row r="991" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B991" s="1"/>
+      <c r="C991" s="1"/>
+      <c r="D991" s="1"/>
+    </row>
+    <row r="992" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B992" s="1"/>
+      <c r="C992" s="1"/>
+      <c r="D992" s="1"/>
+    </row>
+    <row r="993" spans="2:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B993" s="1"/>
+      <c r="C993" s="1"/>
+      <c r="D993" s="1"/>
+    </row>
+    <row r="994" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B994" s="1"/>
+      <c r="C994" s="1"/>
+      <c r="D994" s="1"/>
+    </row>
+    <row r="995" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B995" s="1"/>
+      <c r="C995" s="1"/>
+      <c r="D995" s="1"/>
+    </row>
+    <row r="996" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C996" s="1"/>
+      <c r="D996" s="1"/>
+    </row>
+    <row r="997" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="C997" s="1"/>
+      <c r="D997" s="1"/>
+    </row>
+    <row r="998" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="C998" s="1"/>
+      <c r="D998" s="1"/>
+    </row>
+    <row r="999" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="C999" s="1"/>
+      <c r="D999" s="1"/>
+    </row>
+    <row r="1000" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="D1000" s="1"/>
+    </row>
+    <row r="1001" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="D1001" s="1"/>
+    </row>
+    <row r="1002" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="D1002" s="1"/>
+    </row>
+    <row r="1003" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="D1003" s="1"/>
+    </row>
+    <row r="1004" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="D1004" s="1"/>
+    </row>
+    <row r="1005" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B1005" s="1"/>
+      <c r="C1005" s="1"/>
+      <c r="E1005" s="1"/>
+    </row>
+    <row r="1006" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B1006" s="1"/>
+      <c r="C1006" s="1"/>
+      <c r="D1006" s="1"/>
+      <c r="E1006" s="1"/>
+    </row>
+    <row r="1007" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B1007" s="1"/>
+      <c r="C1007" s="1"/>
+      <c r="D1007" s="1"/>
+      <c r="E1007" s="1"/>
+      <c r="H1007" s="1"/>
+    </row>
+    <row r="1008" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B1008" s="1"/>
+      <c r="C1008" s="1"/>
+      <c r="D1008" s="1"/>
+      <c r="E1008" s="1"/>
+      <c r="H1008" s="1"/>
+    </row>
+    <row r="1009" spans="2:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B1009" s="1"/>
+      <c r="C1009" s="1"/>
+      <c r="D1009" s="1"/>
+      <c r="E1009" s="1"/>
+    </row>
+    <row r="1010" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B1010" s="1"/>
+      <c r="C1010" s="1"/>
+      <c r="E1010" s="1"/>
+    </row>
+    <row r="1011" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B1011" s="1"/>
+      <c r="C1011" s="1"/>
+      <c r="E1011" s="1"/>
+    </row>
+    <row r="1012" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B1012" s="1"/>
+      <c r="E1012" s="1"/>
+    </row>
+    <row r="1013" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="C1013" s="1"/>
+      <c r="E1013" s="1"/>
+      <c r="H1013" s="1"/>
+    </row>
+    <row r="1014" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="C1014" s="1"/>
+      <c r="E1014" s="1"/>
+      <c r="H1014" s="1"/>
+    </row>
+    <row r="1015" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B1015" s="1"/>
+      <c r="C1015" s="1"/>
+      <c r="D1015" s="1"/>
+      <c r="E1015" s="1"/>
+      <c r="H1015" s="1"/>
+    </row>
+    <row r="1016" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="C1016" s="1"/>
+      <c r="D1016" s="1"/>
+      <c r="E1016" s="1"/>
+    </row>
+    <row r="1017" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B1017" s="1"/>
+      <c r="C1017" s="1"/>
+      <c r="D1017" s="1"/>
+      <c r="E1017" s="1"/>
+    </row>
+    <row r="1018" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B1018" s="1"/>
+      <c r="C1018" s="1"/>
+      <c r="D1018" s="1"/>
+      <c r="E1018" s="1"/>
+    </row>
+    <row r="1019" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C1019" s="1"/>
+      <c r="E1019" s="1"/>
+    </row>
+    <row r="1020" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="C1020" s="1"/>
+      <c r="E1020" s="1"/>
+    </row>
+    <row r="1021" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="C1021" s="1"/>
+      <c r="D1021" s="1"/>
+      <c r="E1021" s="1"/>
+    </row>
+    <row r="1022" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="C1022" s="1"/>
+      <c r="E1022" s="1"/>
+    </row>
+    <row r="1023" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="C1023" s="1"/>
+      <c r="E1023" s="1"/>
+    </row>
+    <row r="1024" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="E1024" s="1"/>
+    </row>
+    <row r="1025" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="E1025" s="1"/>
+    </row>
+    <row r="1026" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B1026" s="1"/>
+      <c r="C1026" s="1"/>
+    </row>
+    <row r="1027" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B1027" s="1"/>
+      <c r="C1027" s="1"/>
+    </row>
+    <row r="1028" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B1028" s="1"/>
+      <c r="C1028" s="1"/>
+      <c r="E1028" s="1"/>
+    </row>
+    <row r="1029" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B1029" s="1"/>
+      <c r="C1029" s="1"/>
+      <c r="E1029" s="1"/>
+    </row>
+    <row r="1030" spans="2:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B1030" s="1"/>
+      <c r="C1030" s="1"/>
+      <c r="D1030" s="1"/>
+      <c r="E1030" s="1"/>
+      <c r="I1030" s="1"/>
+    </row>
+    <row r="1031" spans="2:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B1031" s="1"/>
+      <c r="C1031" s="1"/>
+      <c r="D1031" s="1"/>
+      <c r="E1031" s="1"/>
+      <c r="I1031" s="1"/>
+    </row>
+    <row r="1032" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B1032" s="1"/>
+    </row>
+    <row r="1033" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B1033" s="1"/>
+    </row>
+    <row r="1034" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B1034" s="1"/>
+      <c r="C1034" s="1"/>
+      <c r="D1034" s="1"/>
+      <c r="E1034" s="1"/>
+      <c r="G1034" s="1"/>
+      <c r="H1034" s="1"/>
+      <c r="I1034" s="1"/>
+    </row>
+    <row r="1035" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B1035" s="1"/>
+      <c r="C1035" s="1"/>
+      <c r="D1035" s="1"/>
+      <c r="E1035" s="1"/>
+      <c r="G1035" s="1"/>
+      <c r="H1035" s="1"/>
+      <c r="I1035" s="1"/>
+    </row>
+    <row r="1036" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="C1036" s="1"/>
+      <c r="D1036" s="1"/>
+      <c r="E1036" s="1"/>
+    </row>
+    <row r="1037" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="C1037" s="1"/>
+      <c r="D1037" s="1"/>
+      <c r="E1037" s="1"/>
+    </row>
+    <row r="1038" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="C1038" s="1"/>
+      <c r="D1038" s="1"/>
+      <c r="E1038" s="1"/>
+    </row>
+    <row r="1039" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="C1039" s="1"/>
+      <c r="E1039" s="1"/>
+    </row>
+    <row r="1040" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="C1040" s="1"/>
+      <c r="E1040" s="1"/>
+    </row>
+    <row r="1041" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C1041" s="1"/>
+      <c r="D1041" s="1"/>
+      <c r="E1041" s="1"/>
+      <c r="F1041" s="1"/>
+      <c r="G1041" s="1"/>
+    </row>
+    <row r="1042" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C1042" s="1"/>
+      <c r="D1042" s="1"/>
+      <c r="E1042" s="1"/>
+      <c r="F1042" s="1"/>
+      <c r="G1042" s="1"/>
+    </row>
   </sheetData>
   <autoFilter ref="A1:J746" xr:uid="{C7D2990A-F429-0248-9892-0EF6030E3150}">
-    <filterColumn colId="7">
+    <filterColumn colId="0">
       <filters>
-        <filter val="agglomerativeClustering"/>
-        <filter val="autoClassification"/>
-        <filter val="clustermap"/>
-        <filter val="featureImportancePlot"/>
-        <filter val="linearRegression"/>
-        <filter val="logisticRegression"/>
-        <filter val="scatterplot"/>
-        <filter val="tableRegression"/>
+        <filter val="categorical, hasLabel, missingValues, moreFeatures"/>
+        <filter val="categorical, hasLabel, missingValues, moreFeatures, hasCategoricalLabel"/>
+        <filter val="categorical, hasLabel, missingValues, moreFeatures, onlyCategorical"/>
+        <filter val="categorical, hasLabel, missingValues, moreFeatures, outliers"/>
+        <filter val="categorical, hasLabel, missingValues, moreFeatures, outliers, hasCategoricalLabel"/>
+        <filter val="categorical, hasLabel, moreFeatures"/>
+        <filter val="categorical, hasLabel, moreFeatures, hasCategoricalLabel"/>
+        <filter val="categorical, hasLabel, moreFeatures, onlyCategorical"/>
+        <filter val="categorical, hasLabel, moreFeatures, outliers"/>
+        <filter val="categorical, hasLabel, moreFeatures, outliers, hasCategoricalLabel"/>
+        <filter val="categorical, missingValues, moreFeatures"/>
+        <filter val="categorical, missingValues, moreFeatures, onlyCategorical"/>
+        <filter val="categorical, missingValues, moreFeatures, outliers"/>
+        <filter val="categorical, moreFeatures"/>
+        <filter val="categorical, moreFeatures, onlyCategorical"/>
+        <filter val="hasLabel, missingValues, moreFeatures"/>
+        <filter val="hasLabel, missingValues, moreFeatures, hasCategoricalLabel"/>
+        <filter val="hasLabel, missingValues, moreFeatures, outliers"/>
+        <filter val="hasLabel, missingValues, moreFeatures, outliers, hasCategoricalLabel"/>
+        <filter val="hasLabel, missingValues, moreFeatures, outliers, zeroVariance"/>
+        <filter val="hasLabel, missingValues, moreFeatures, outliers, zeroVariance, hasCategoricalLabel"/>
+        <filter val="hasLabel, missingValues, moreFeatures, zeroVariance"/>
+        <filter val="hasLabel, missingValues, moreFeatures, zeroVariance, hasCategoricalLabel"/>
+        <filter val="hasLabel, moreFeatures"/>
+        <filter val="hasLabel, moreFeatures, hasCategoricalLabel"/>
+        <filter val="hasLabel, moreFeatures, outliers"/>
+        <filter val="hasLabel, moreFeatures, outliers, hasCategoricalLabel"/>
+        <filter val="hasLabel, moreFeatures, outliers, zeroVariance"/>
+        <filter val="hasLabel, moreFeatures, outliers, zeroVariance, hasCategoricalLabel"/>
+        <filter val="hasLabel, moreFeatures, zeroVariance"/>
+        <filter val="hasLabel, moreFeatures, zeroVariance, hasCategoricalLabel"/>
+        <filter val="missingValues, moreFeatures"/>
+        <filter val="missingValues, moreFeatures, outliers"/>
+        <filter val="missingValues, moreFeatures, zeroVariance"/>
+        <filter val="moreFeatures"/>
+        <filter val="moreFeatures, outliers"/>
+        <filter val="moreFeatures, zeroVariance"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -29433,8 +31683,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87FAA623-A1BD-4D43-86F2-BAAF15CFDB2B}">
   <dimension ref="A1:J672"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView topLeftCell="A459" workbookViewId="0">
+      <selection activeCell="E483" sqref="E483"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
